--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -955,8 +955,8 @@
       <c r="B5" s="7">
         <v>45384</v>
       </c>
-      <c r="C5" s="8">
-        <v>600</v>
+      <c r="C5" s="32">
+        <v>130</v>
       </c>
       <c r="D5" s="8">
         <v>1000</v>
@@ -986,7 +986,7 @@
       <c r="Y5" s="23"/>
       <c r="Z5" s="28">
         <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
-        <v>5100</v>
+        <v>4630</v>
       </c>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
@@ -2257,7 +2257,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="11">
         <f>SUM(C4:C33)</f>
-        <v>12848</v>
+        <v>12378</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>68686</v>
+        <v>68216</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>-22686</v>
+        <v>-22216</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,6 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -702,7 +703,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -713,10 +714,11 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="20" max="20" width="7.42578125" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
@@ -927,7 +929,7 @@
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="8">
+      <c r="U4" s="35">
         <v>17600</v>
       </c>
       <c r="V4" s="35">
@@ -958,8 +960,8 @@
       <c r="C5" s="32">
         <v>130</v>
       </c>
-      <c r="D5" s="8">
-        <v>1000</v>
+      <c r="D5" s="32">
+        <v>858</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -974,9 +976,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="8">
-        <v>3500</v>
-      </c>
+      <c r="R5" s="44"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="34"/>
@@ -986,7 +986,7 @@
       <c r="Y5" s="23"/>
       <c r="Z5" s="28">
         <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
-        <v>4630</v>
+        <v>988</v>
       </c>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
@@ -1020,7 +1020,9 @@
       <c r="O6" s="15"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="R6" s="8">
+        <v>3500</v>
+      </c>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="23"/>
@@ -1030,7 +1032,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="28">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>4100</v>
       </c>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
-        <v>5000</v>
+        <v>4858</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E33)</f>
@@ -2349,7 +2351,7 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>68216</v>
+        <v>68074</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
@@ -2365,7 +2367,7 @@
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>-22216</v>
+        <v>-22074</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,7 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -703,7 +702,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -976,7 +975,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="34"/>
@@ -1003,8 +1002,8 @@
       <c r="B6" s="7">
         <v>45385</v>
       </c>
-      <c r="C6" s="8">
-        <v>600</v>
+      <c r="C6" s="32">
+        <v>309</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1020,9 +1019,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="8">
-        <v>3500</v>
-      </c>
+      <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="23"/>
@@ -1032,7 +1029,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="28">
         <f t="shared" si="0"/>
-        <v>4100</v>
+        <v>309</v>
       </c>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -1049,8 +1046,8 @@
       <c r="B7" s="7">
         <v>45386</v>
       </c>
-      <c r="C7" s="8">
-        <v>600</v>
+      <c r="C7" s="32">
+        <v>298</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1066,7 +1063,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="R7" s="32">
+        <f>SUM(1871+407)</f>
+        <v>2278</v>
+      </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23"/>
@@ -1076,7 +1076,7 @@
       <c r="Y7" s="23"/>
       <c r="Z7" s="28">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>2576</v>
       </c>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
@@ -2259,7 +2259,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="11">
         <f>SUM(C4:C33)</f>
-        <v>12378</v>
+        <v>11785</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="R34" s="19">
         <f t="shared" si="2"/>
-        <v>8500</v>
+        <v>7278</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="2"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>68074</v>
+        <v>66259</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>-22074</v>
+        <v>-20259</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1049,9 @@
       <c r="C7" s="32">
         <v>298</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="33">
+        <v>158</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
@@ -1076,7 +1078,7 @@
       <c r="Y7" s="23"/>
       <c r="Z7" s="28">
         <f t="shared" si="0"/>
-        <v>2576</v>
+        <v>2734</v>
       </c>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
@@ -1093,21 +1095,21 @@
       <c r="B8" s="7">
         <v>45387</v>
       </c>
-      <c r="C8" s="8">
-        <v>600</v>
+      <c r="C8" s="32">
+        <v>0</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="8">
-        <v>300</v>
+      <c r="H8" s="32">
+        <v>0</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="15"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="8">
-        <v>350</v>
+      <c r="L8" s="32">
+        <v>0</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -1124,15 +1126,16 @@
       <c r="Y8" s="23"/>
       <c r="Z8" s="28">
         <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>25000</v>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="32">
+        <f>28701.52+15727</f>
+        <v>44428.520000000004</v>
       </c>
       <c r="AB8" s="27"/>
       <c r="AC8" s="29">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>44428.520000000004</v>
       </c>
       <c r="AD8" s="8"/>
     </row>
@@ -2259,11 +2262,11 @@
       <c r="B34" s="36"/>
       <c r="C34" s="11">
         <f>SUM(C4:C33)</f>
-        <v>11785</v>
+        <v>11185</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
-        <v>4858</v>
+        <v>5016</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E33)</f>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="H34" s="12">
         <f t="shared" ref="H34:X34" si="2">SUM(H4:H33)</f>
-        <v>1303</v>
+        <v>1003</v>
       </c>
       <c r="I34" s="12">
         <f t="shared" si="2"/>
@@ -2295,7 +2298,7 @@
       </c>
       <c r="L34" s="18">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M34" s="18">
         <f t="shared" si="2"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>66259</v>
+        <v>65167</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
-        <v>46000</v>
+        <v>65428.520000000004</v>
       </c>
       <c r="AB34" s="29">
         <f>SUM(AB4:AB33)</f>
@@ -2363,11 +2366,11 @@
       </c>
       <c r="AC34" s="29">
         <f>SUM(AC4:AC33)</f>
-        <v>46000</v>
+        <v>65428.520000000004</v>
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>-20259</v>
+        <v>261.52000000000407</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="C14" sqref="C14:Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1208,14 +1208,12 @@
       <c r="T10" s="16"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
-      <c r="W10" s="8">
-        <v>10000</v>
-      </c>
+      <c r="W10" s="34"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="28">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
@@ -1225,21 +1223,21 @@
       </c>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="7">
         <v>45390</v>
       </c>
-      <c r="C11" s="8">
-        <v>600</v>
+      <c r="C11" s="32">
+        <v>298</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="8">
-        <v>1000</v>
+      <c r="G11" s="32">
+        <v>0</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1251,17 +1249,21 @@
       <c r="O11" s="15"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="R11" s="33">
+        <v>300</v>
+      </c>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
+      <c r="W11" s="35">
+        <v>10001</v>
+      </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="28">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>10599</v>
       </c>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
@@ -1271,19 +1273,17 @@
       </c>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="7">
         <v>45391</v>
       </c>
-      <c r="C12" s="8">
-        <v>600</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1000</v>
-      </c>
+      <c r="C12" s="32">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -1298,7 +1298,10 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="33">
+        <f>298+600+152</f>
+        <v>1050</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
@@ -1307,7 +1310,7 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="28">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>1080</v>
       </c>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
@@ -1324,8 +1327,8 @@
       <c r="B13" s="7">
         <v>45392</v>
       </c>
-      <c r="C13" s="8">
-        <v>600</v>
+      <c r="C13" s="32">
+        <v>360</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1351,7 +1354,7 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="28">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -2262,11 +2265,11 @@
       <c r="B34" s="36"/>
       <c r="C34" s="11">
         <f>SUM(C4:C33)</f>
-        <v>11185</v>
+        <v>10073</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
-        <v>5016</v>
+        <v>4016</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E33)</f>
@@ -2278,7 +2281,7 @@
       </c>
       <c r="G34" s="12">
         <f>SUM(G4:G33)</f>
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="H34" s="12">
         <f t="shared" ref="H34:X34" si="2">SUM(H4:H33)</f>
@@ -2322,11 +2325,11 @@
       </c>
       <c r="R34" s="19">
         <f t="shared" si="2"/>
-        <v>7278</v>
+        <v>7578</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="T34" s="19">
         <f t="shared" si="2"/>
@@ -2342,7 +2345,7 @@
       </c>
       <c r="W34" s="24">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="X34" s="24">
         <f t="shared" si="2"/>
@@ -2354,7 +2357,7 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>65167</v>
+        <v>63406</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
@@ -2370,7 +2373,7 @@
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>261.52000000000407</v>
+        <v>2022.5200000000041</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:Z17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1330,9 @@
       <c r="C13" s="32">
         <v>360</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="33">
+        <v>161</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -1338,7 +1340,9 @@
       <c r="I13" s="10"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="33">
+        <v>350</v>
+      </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -1354,7 +1358,7 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="28">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>871</v>
       </c>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -1371,8 +1375,9 @@
       <c r="B14" s="7">
         <v>45393</v>
       </c>
-      <c r="C14" s="8">
-        <v>600</v>
+      <c r="C14" s="32">
+        <f>290+155</f>
+        <v>445</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1398,7 +1403,7 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="28">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>445</v>
       </c>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
@@ -2265,11 +2270,11 @@
       <c r="B34" s="36"/>
       <c r="C34" s="11">
         <f>SUM(C4:C33)</f>
-        <v>10073</v>
+        <v>9918</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
-        <v>4016</v>
+        <v>4177</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E33)</f>
@@ -2301,7 +2306,7 @@
       </c>
       <c r="L34" s="18">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M34" s="18">
         <f t="shared" si="2"/>
@@ -2357,7 +2362,7 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>63406</v>
+        <v>63762</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
@@ -2373,7 +2378,7 @@
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>2022.5200000000041</v>
+        <v>1666.5200000000041</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Другое\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -145,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -437,6 +442,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -698,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1413,22 +1421,25 @@
       </c>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="7">
         <v>45394</v>
       </c>
-      <c r="C15" s="8">
-        <v>600</v>
-      </c>
-      <c r="D15" s="9"/>
+      <c r="C15" s="32">
+        <f>255-90 + 310</f>
+        <v>475</v>
+      </c>
+      <c r="D15" s="33">
+        <v>291</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="8">
-        <v>300</v>
+      <c r="H15" s="32">
+        <v>0</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="15"/>
@@ -1449,7 +1460,7 @@
       <c r="Y15" s="23"/>
       <c r="Z15" s="28">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>766</v>
       </c>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
@@ -2270,11 +2281,11 @@
       <c r="B34" s="36"/>
       <c r="C34" s="11">
         <f>SUM(C4:C33)</f>
-        <v>9918</v>
+        <v>9793</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D33)</f>
-        <v>4177</v>
+        <v>4468</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E33)</f>
@@ -2290,7 +2301,7 @@
       </c>
       <c r="H34" s="12">
         <f t="shared" ref="H34:X34" si="2">SUM(H4:H33)</f>
-        <v>1003</v>
+        <v>703</v>
       </c>
       <c r="I34" s="12">
         <f t="shared" si="2"/>
@@ -2362,7 +2373,7 @@
       </c>
       <c r="Z34" s="30">
         <f>SUM(Z4:Z33)</f>
-        <v>63762</v>
+        <v>63628</v>
       </c>
       <c r="AA34" s="29">
         <f>SUM(AA4:AA33)</f>
@@ -2378,7 +2389,13 @@
       </c>
       <c r="AD34" s="31">
         <f>AC34-Z34</f>
-        <v>1666.5200000000041</v>
+        <v>1800.5200000000041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="J39">
+        <f>310-90-70</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -12,6 +12,41 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Собянин Евгений Андреевич</author>
+  </authors>
+  <commentList>
+    <comment ref="AB25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Собянин Евгений Андреевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Спор
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -151,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +234,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -396,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
@@ -437,30 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -486,6 +510,30 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -769,7 +817,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -794,37 +842,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -833,45 +881,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
       <c r="Z2" s="29"/>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
       <c r="AD2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1934,27 +1982,29 @@
       </c>
       <c r="AD24" s="12"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="7">
         <v>45404</v>
       </c>
-      <c r="C25" s="12">
-        <v>600</v>
+      <c r="C25" s="8">
+        <v>490</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="12">
-        <v>1000</v>
+      <c r="G25" s="8">
+        <v>0</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="10">
+        <v>350</v>
+      </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -1970,13 +2020,15 @@
       <c r="Y25" s="26"/>
       <c r="Z25" s="32">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>840</v>
       </c>
       <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
+      <c r="AB25" s="8">
+        <v>500</v>
+      </c>
       <c r="AC25" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD25" s="12"/>
     </row>
@@ -1995,7 +2047,9 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="8">
+        <v>500</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="17"/>
@@ -2016,7 +2070,7 @@
       <c r="Y26" s="26"/>
       <c r="Z26" s="32">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AA26" s="31"/>
       <c r="AB26" s="31"/>
@@ -2339,13 +2393,13 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="13">
         <f>SUM(C4:C33)</f>
-        <v>8513</v>
+        <v>8403</v>
       </c>
       <c r="D34" s="13">
         <f>SUM(D4:D33)</f>
@@ -2361,7 +2415,7 @@
       </c>
       <c r="G34" s="14">
         <f>SUM(G4:G33)</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" ref="H34:AC34" si="2">SUM(H4:H33)</f>
@@ -2381,7 +2435,7 @@
       </c>
       <c r="L34" s="20">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" si="2"/>
@@ -2437,7 +2491,7 @@
       </c>
       <c r="Z34" s="34">
         <f t="shared" si="2"/>
-        <v>60967</v>
+        <v>60707</v>
       </c>
       <c r="AA34" s="33">
         <f t="shared" si="2"/>
@@ -2445,15 +2499,15 @@
       </c>
       <c r="AB34" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AC34" s="33">
         <f t="shared" si="2"/>
-        <v>66258.52</v>
+        <v>66758.51999999999</v>
       </c>
       <c r="AD34" s="35">
         <f>AC34-Z34</f>
-        <v>5291.52</v>
+        <v>6051.5199999999895</v>
       </c>
     </row>
   </sheetData>
@@ -2468,6 +2522,7 @@
     <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2495,37 +2550,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2534,50 +2589,50 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
       <c r="Z2" s="29"/>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
       <c r="AD2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="45">
+    <row r="3" spans="1:30" ht="30">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -2670,40 +2725,40 @@
       <c r="B4" s="7">
         <v>45413</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="48">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="40">
         <v>17600</v>
       </c>
-      <c r="V4" s="48">
+      <c r="V4" s="40">
         <v>6630</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="58">
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="50">
         <f>SUM(C4:Y4)</f>
         <v>24230</v>
       </c>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="60">
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="52">
         <f>SUM(AA4:AB4)</f>
         <v>0</v>
       </c>
@@ -2716,40 +2771,40 @@
       <c r="B5" s="7">
         <v>45414</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="36">
         <v>500</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="67">
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="59">
         <v>350</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="58">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="50">
         <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
         <v>850</v>
       </c>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="60">
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52">
         <f t="shared" ref="AC5:AC34" si="1">SUM(AA5:AB5)</f>
         <v>0</v>
       </c>
@@ -2762,38 +2817,38 @@
       <c r="B6" s="7">
         <v>45415</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="36">
         <v>500</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="58">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="60">
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2806,40 +2861,40 @@
       <c r="B7" s="7">
         <v>45416</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="67">
+      <c r="C7" s="42"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="59">
         <v>1500</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="67">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="59">
         <v>800</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="58">
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="50">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60">
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2852,38 +2907,38 @@
       <c r="B8" s="7">
         <v>45417</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="44">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="36">
         <v>25000</v>
       </c>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60">
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="52">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
@@ -2896,40 +2951,40 @@
       <c r="B9" s="7">
         <v>45418</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="59">
         <v>500</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="67">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="59">
         <v>1000</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="58">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60">
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2942,42 +2997,42 @@
       <c r="B10" s="7">
         <v>45419</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="59">
         <v>500</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="59">
         <v>1000</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="49">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="41">
         <v>10000</v>
       </c>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="58">
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="50">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60">
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2990,38 +3045,38 @@
       <c r="B11" s="7">
         <v>45420</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="36">
         <v>500</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="58">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60">
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3034,38 +3089,38 @@
       <c r="B12" s="7">
         <v>45421</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="67">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="59">
         <v>350</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="58">
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="50">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60">
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3078,36 +3133,36 @@
       <c r="B13" s="7">
         <v>45422</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60">
+      <c r="C13" s="42"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3120,38 +3175,38 @@
       <c r="B14" s="7">
         <v>45423</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="67">
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="59">
         <v>1500</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="58">
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60">
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3164,36 +3219,36 @@
       <c r="B15" s="7">
         <v>45424</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60">
+      <c r="C15" s="42"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3206,40 +3261,40 @@
       <c r="B16" s="7">
         <v>45425</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="59">
         <v>500</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="67">
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="59">
         <v>1000</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="58">
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60">
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3252,40 +3307,40 @@
       <c r="B17" s="7">
         <v>45426</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="59">
         <v>500</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="59">
         <v>1000</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="58">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="60">
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3298,38 +3353,38 @@
       <c r="B18" s="7">
         <v>45427</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="36">
         <v>500</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="58">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="60">
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3342,40 +3397,40 @@
       <c r="B19" s="7">
         <v>45428</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="60">
         <v>500</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="67">
+      <c r="D19" s="53"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="59">
         <v>350</v>
       </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="58">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="50">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="60">
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3388,38 +3443,38 @@
       <c r="B20" s="7">
         <v>45429</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="36">
         <v>500</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="58">
+      <c r="D20" s="53"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60">
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3432,38 +3487,38 @@
       <c r="B21" s="7">
         <v>45430</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="67">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="59">
         <v>1500</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="58">
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="60">
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3476,36 +3531,36 @@
       <c r="B22" s="7">
         <v>45431</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="60">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3518,42 +3573,42 @@
       <c r="B23" s="7">
         <v>45432</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="59">
         <v>500</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="67">
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="59">
         <v>1000</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="58">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA23" s="44">
+      <c r="AA23" s="36">
         <v>21000</v>
       </c>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="60">
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="52">
         <f t="shared" si="1"/>
         <v>21000</v>
       </c>
@@ -3566,40 +3621,40 @@
       <c r="B24" s="7">
         <v>45433</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="59">
         <v>500</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="59">
         <v>1000</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="58">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60">
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3612,38 +3667,38 @@
       <c r="B25" s="7">
         <v>45434</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="59">
         <v>500</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="58">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="60">
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3656,40 +3711,40 @@
       <c r="B26" s="7">
         <v>45435</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="59">
         <v>500</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="67">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="59">
         <v>350</v>
       </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="58">
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="50">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="60">
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3702,40 +3757,40 @@
       <c r="B27" s="7">
         <v>45436</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="59">
         <v>500</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="67">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="59">
         <v>1500</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="58">
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="50">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="60">
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3748,38 +3803,38 @@
       <c r="B28" s="7">
         <v>45437</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="67">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="59">
         <v>700</v>
       </c>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="58">
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="50">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="60">
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3792,36 +3847,36 @@
       <c r="B29" s="7">
         <v>45438</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="60">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3834,40 +3889,40 @@
       <c r="B30" s="7">
         <v>45439</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="59">
         <v>500</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="67">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="59">
         <v>1000</v>
       </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="58">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="60">
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3880,40 +3935,40 @@
       <c r="B31" s="7">
         <v>45440</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="59">
         <v>500</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="59">
         <v>1000</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="58">
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="50">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="60">
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3926,38 +3981,38 @@
       <c r="B32" s="7">
         <v>45441</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="59">
         <v>500</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="58">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="60">
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3970,40 +4025,40 @@
       <c r="B33" s="7">
         <v>45442</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="59">
         <v>500</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="67">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="59">
         <v>350</v>
       </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="58">
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="50">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="60">
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4016,48 +4071,48 @@
       <c r="B34" s="7">
         <v>45443</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="59">
         <v>500</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="58">
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="60">
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="13">
         <f>SUM(C4:C34)</f>
         <v>10000</v>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -817,7 +817,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2039,11 +2039,11 @@
       <c r="B26" s="7">
         <v>45405</v>
       </c>
-      <c r="C26" s="12">
-        <v>600</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1000</v>
+      <c r="C26" s="8">
+        <v>288</v>
+      </c>
+      <c r="D26" s="8">
+        <v>730</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2070,7 +2070,7 @@
       <c r="Y26" s="26"/>
       <c r="Z26" s="32">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1518</v>
       </c>
       <c r="AA26" s="31"/>
       <c r="AB26" s="31"/>
@@ -2399,11 +2399,11 @@
       <c r="B34" s="61"/>
       <c r="C34" s="13">
         <f>SUM(C4:C33)</f>
-        <v>8403</v>
+        <v>8091</v>
       </c>
       <c r="D34" s="13">
         <f>SUM(D4:D33)</f>
-        <v>5113</v>
+        <v>4843</v>
       </c>
       <c r="E34" s="13">
         <f>SUM(E4:E33)</f>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="Z34" s="34">
         <f t="shared" si="2"/>
-        <v>60707</v>
+        <v>60125</v>
       </c>
       <c r="AA34" s="33">
         <f t="shared" si="2"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="AD34" s="35">
         <f>AC34-Z34</f>
-        <v>6051.5199999999895</v>
+        <v>6633.5199999999895</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -817,7 +817,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2087,8 +2087,8 @@
       <c r="B27" s="7">
         <v>45406</v>
       </c>
-      <c r="C27" s="12">
-        <v>600</v>
+      <c r="C27" s="8">
+        <v>274</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2114,7 +2114,7 @@
       <c r="Y27" s="26"/>
       <c r="Z27" s="32">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>274</v>
       </c>
       <c r="AA27" s="31"/>
       <c r="AB27" s="31"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="AD27" s="12"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2152,15 +2152,17 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
+      <c r="V28" s="25">
+        <v>6635</v>
+      </c>
       <c r="W28" s="26"/>
-      <c r="X28" s="12">
+      <c r="X28" s="25">
         <v>700</v>
       </c>
       <c r="Y28" s="26"/>
       <c r="Z28" s="32">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>7935</v>
       </c>
       <c r="AA28" s="31"/>
       <c r="AB28" s="31"/>
@@ -2399,7 +2401,7 @@
       <c r="B34" s="61"/>
       <c r="C34" s="13">
         <f>SUM(C4:C33)</f>
-        <v>8091</v>
+        <v>7765</v>
       </c>
       <c r="D34" s="13">
         <f>SUM(D4:D33)</f>
@@ -2475,7 +2477,7 @@
       </c>
       <c r="V34" s="28">
         <f t="shared" si="2"/>
-        <v>6635</v>
+        <v>13270</v>
       </c>
       <c r="W34" s="28">
         <f t="shared" si="2"/>
@@ -2491,7 +2493,7 @@
       </c>
       <c r="Z34" s="34">
         <f t="shared" si="2"/>
-        <v>60125</v>
+        <v>66434</v>
       </c>
       <c r="AA34" s="33">
         <f t="shared" si="2"/>
@@ -2507,7 +2509,7 @@
       </c>
       <c r="AD34" s="35">
         <f>AC34-Z34</f>
-        <v>6633.5199999999895</v>
+        <v>324.51999999998952</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,6 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -817,7 +818,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="P34" sqref="P34:Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2131,10 +2132,12 @@
       <c r="B28" s="7">
         <v>45407</v>
       </c>
-      <c r="C28" s="12">
-        <v>600</v>
-      </c>
-      <c r="D28" s="9"/>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="69">
+        <v>401</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="11"/>
@@ -2162,7 +2165,7 @@
       <c r="Y28" s="26"/>
       <c r="Z28" s="32">
         <f t="shared" si="0"/>
-        <v>7935</v>
+        <v>7736</v>
       </c>
       <c r="AA28" s="31"/>
       <c r="AB28" s="31"/>
@@ -2186,8 +2189,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="12">
-        <v>300</v>
+      <c r="H29" s="8">
+        <v>0</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="17"/>
@@ -2208,7 +2211,7 @@
       <c r="Y29" s="26"/>
       <c r="Z29" s="32">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AA29" s="31"/>
       <c r="AB29" s="31"/>
@@ -2401,11 +2404,11 @@
       <c r="B34" s="61"/>
       <c r="C34" s="13">
         <f>SUM(C4:C33)</f>
-        <v>7765</v>
+        <v>7165</v>
       </c>
       <c r="D34" s="13">
         <f>SUM(D4:D33)</f>
-        <v>4843</v>
+        <v>5244</v>
       </c>
       <c r="E34" s="13">
         <f>SUM(E4:E33)</f>
@@ -2421,7 +2424,7 @@
       </c>
       <c r="H34" s="14">
         <f t="shared" ref="H34:AC34" si="2">SUM(H4:H33)</f>
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="2"/>
@@ -2493,7 +2496,7 @@
       </c>
       <c r="Z34" s="34">
         <f t="shared" si="2"/>
-        <v>66434</v>
+        <v>65935</v>
       </c>
       <c r="AA34" s="33">
         <f t="shared" si="2"/>
@@ -2509,7 +2512,7 @@
       </c>
       <c r="AD34" s="35">
         <f>AC34-Z34</f>
-        <v>324.51999999998952</v>
+        <v>823.51999999998952</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -206,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -274,7 +274,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -441,7 +447,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -523,6 +529,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,9 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -855,37 +862,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -894,45 +901,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="67" t="s">
+      <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -2416,10 +2423,10 @@
       <c r="AD33" s="37"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2554,7 +2561,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J7" sqref="J7:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2573,37 +2580,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2612,45 +2619,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="67" t="s">
+      <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -2794,8 +2801,8 @@
       <c r="B5" s="7">
         <v>45414</v>
       </c>
-      <c r="C5" s="12">
-        <v>500</v>
+      <c r="C5" s="29">
+        <v>248</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -2823,7 +2830,7 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="40">
         <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="AA5" s="41"/>
       <c r="AB5" s="41"/>
@@ -2840,8 +2847,8 @@
       <c r="B6" s="7">
         <v>45415</v>
       </c>
-      <c r="C6" s="12">
-        <v>500</v>
+      <c r="C6" s="29">
+        <v>140</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2867,13 +2874,15 @@
       <c r="Y6" s="30"/>
       <c r="Z6" s="40">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AA6" s="41"/>
+        <v>140</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>27710</v>
+      </c>
       <c r="AB6" s="41"/>
       <c r="AC6" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27710</v>
       </c>
       <c r="AD6" s="37"/>
     </row>
@@ -2957,13 +2966,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="12">
-        <v>25000</v>
-      </c>
+      <c r="AA8" s="69"/>
       <c r="AB8" s="41"/>
       <c r="AC8" s="42">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="37"/>
     </row>
@@ -4132,13 +4139,13 @@
       <c r="AD34" s="37"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
-        <v>10000</v>
+        <v>9388</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
@@ -4230,11 +4237,11 @@
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="2"/>
-        <v>54500</v>
+        <v>53888</v>
       </c>
       <c r="AA35" s="17">
         <f t="shared" si="2"/>
-        <v>46000</v>
+        <v>48710</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" si="2"/>
@@ -4242,11 +4249,11 @@
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="2"/>
-        <v>46000</v>
+        <v>48710</v>
       </c>
       <c r="AD35" s="43">
         <f>AC35-Z35</f>
-        <v>-8500</v>
+        <v>-5178</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -274,7 +274,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -447,7 +453,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,6 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,7 +560,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -862,37 +870,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -901,45 +909,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="68" t="s">
+      <c r="AA2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -2423,10 +2431,10 @@
       <c r="AD33" s="37"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="61"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2561,7 +2569,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J27"/>
+      <selection activeCell="J14" sqref="J14:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2580,37 +2588,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2619,45 +2627,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="68" t="s">
+      <c r="AA2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -2897,18 +2905,18 @@
       <c r="D7" s="14"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="54">
+        <v>1000</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="15">
-        <v>1500</v>
+      <c r="J7" s="29">
+        <v>0</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="15">
-        <v>800</v>
-      </c>
+      <c r="N7" s="70"/>
       <c r="O7" s="20"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -2922,7 +2930,7 @@
       <c r="Y7" s="30"/>
       <c r="Z7" s="40">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="AA7" s="41"/>
       <c r="AB7" s="41"/>
@@ -2932,7 +2940,7 @@
       </c>
       <c r="AD7" s="37"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -2940,15 +2948,21 @@
         <v>45417</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="45">
+        <v>328</v>
+      </c>
+      <c r="E8" s="45">
+        <v>860</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10"/>
       <c r="I8" s="13"/>
       <c r="J8" s="20"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="71">
+        <v>350</v>
+      </c>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -2964,9 +2978,9 @@
       <c r="Y8" s="30"/>
       <c r="Z8" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="69"/>
+        <v>1538</v>
+      </c>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="41"/>
       <c r="AC8" s="42">
         <f t="shared" si="1"/>
@@ -2981,15 +2995,13 @@
       <c r="B9" s="7">
         <v>45418</v>
       </c>
-      <c r="C9" s="15">
-        <v>500</v>
+      <c r="C9" s="29">
+        <v>0</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="15">
-        <v>1000</v>
-      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="20"/>
@@ -3010,7 +3022,7 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="40">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="41"/>
       <c r="AB9" s="41"/>
@@ -3128,9 +3140,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="15">
-        <v>350</v>
-      </c>
+      <c r="L12" s="70"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -3146,7 +3156,7 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="40">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="41"/>
       <c r="AB12" s="41"/>
@@ -3218,7 +3228,9 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="15">
+        <v>800</v>
+      </c>
       <c r="O14" s="20"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -3232,7 +3244,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="40">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="AA14" s="41"/>
       <c r="AB14" s="41"/>
@@ -4139,30 +4151,30 @@
       <c r="AD34" s="37"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
-        <v>9388</v>
+        <v>8888</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
+        <v>4328</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="E35" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
       <c r="H35" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4173,7 +4185,7 @@
       </c>
       <c r="J35" s="17">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="K35" s="17">
         <f t="shared" si="2"/>
@@ -4237,7 +4249,7 @@
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="2"/>
-        <v>53888</v>
+        <v>53076</v>
       </c>
       <c r="AA35" s="17">
         <f t="shared" si="2"/>
@@ -4253,7 +4265,7 @@
       </c>
       <c r="AD35" s="43">
         <f>AC35-Z35</f>
-        <v>-5178</v>
+        <v>-4366</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -385,8 +385,8 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -394,12 +394,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -3121,7 +3121,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3732,7 +3732,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>1000</v>
       </c>
       <c r="H13" s="16"/>
@@ -3864,9 +3864,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="20">
-        <v>1000</v>
-      </c>
+      <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="29"/>
@@ -3887,7 +3885,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="50">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AA16" s="51"/>
       <c r="AB16" s="51"/>
@@ -4730,7 +4728,7 @@
       </c>
       <c r="G35" s="24">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H35" s="24">
         <f t="shared" si="2"/>
@@ -4806,7 +4804,7 @@
       </c>
       <c r="Z35" s="24">
         <f t="shared" si="2"/>
-        <v>50886</v>
+        <v>49886</v>
       </c>
       <c r="AA35" s="24">
         <f t="shared" si="2"/>
@@ -4822,7 +4820,7 @@
       </c>
       <c r="AD35" s="54">
         <f>AC35-Z35</f>
-        <v>-2176</v>
+        <v>-1176</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -208,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -485,7 +485,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,6 +539,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -944,13 +943,13 @@
       <c r="W2" s="67"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="67"/>
-      <c r="Z2" s="38"/>
+      <c r="Z2" s="37"/>
       <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -978,67 +977,67 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="39"/>
+      <c r="AD3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -1050,49 +1049,49 @@
       <c r="C4" s="12">
         <v>248</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="12">
         <v>500</v>
       </c>
       <c r="H4" s="16">
         <v>103</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="15">
         <v>5000</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
       <c r="U4" s="15">
         <v>17600</v>
       </c>
       <c r="V4" s="15">
         <v>6635</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="59">
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="58">
         <f>SUM(C4:Y4)</f>
         <v>30086</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="60">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="59">
         <f>SUM(AA4:AB4)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="39"/>
+      <c r="AD4" s="38"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
@@ -1107,38 +1106,38 @@
       <c r="D5" s="12">
         <v>858</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="59">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="58">
         <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
         <v>988</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="60">
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="59">
         <f t="shared" ref="AC5:AC33" si="1">SUM(AA5:AB5)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="39"/>
+      <c r="AD5" s="38"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
@@ -1150,39 +1149,39 @@
       <c r="C6" s="12">
         <v>309</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="59">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="58">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="39"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="38"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="3" t="s">
@@ -1197,41 +1196,41 @@
       <c r="D7" s="16">
         <v>158</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="12">
         <f>SUM(1871+407)</f>
         <v>2278</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="59">
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="58">
         <f t="shared" si="0"/>
         <v>2734</v>
       </c>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="39"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="38"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
@@ -1243,33 +1242,33 @@
       <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="12">
         <v>0</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="59">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1277,12 +1276,12 @@
         <f>28701.52+15727</f>
         <v>44428.52</v>
       </c>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="60">
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="59">
         <f t="shared" si="1"/>
         <v>44428.52</v>
       </c>
-      <c r="AD8" s="39"/>
+      <c r="AD8" s="38"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
@@ -1291,40 +1290,40 @@
       <c r="B9" s="7">
         <v>45388</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="39"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="38"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
@@ -1333,40 +1332,40 @@
       <c r="B10" s="7">
         <v>45389</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="39"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="38"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="3" t="s">
@@ -1378,45 +1377,45 @@
       <c r="C11" s="12">
         <v>298</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="16">
         <v>300</v>
       </c>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
       <c r="W11" s="15">
         <v>10001</v>
       </c>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="59">
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="58">
         <f t="shared" si="0"/>
         <v>10599</v>
       </c>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="39"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="3" t="s">
@@ -1428,42 +1427,42 @@
       <c r="C12" s="12">
         <v>30</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="16">
         <f>298+600+152</f>
         <v>1050</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="59">
+      <c r="T12" s="51"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="58">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="39"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="3" t="s">
@@ -1478,40 +1477,40 @@
       <c r="D13" s="16">
         <v>161</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="16">
         <v>350</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="59">
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="58">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="39"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
@@ -1524,39 +1523,39 @@
         <f>290+155</f>
         <v>445</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="59">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="58">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="39"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="38"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="3" t="s">
@@ -1572,40 +1571,40 @@
       <c r="D15" s="16">
         <v>291</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="12">
         <v>0</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="59">
+      <c r="I15" s="47"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="58">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="39"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="38"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
@@ -1614,40 +1613,40 @@
       <c r="B16" s="7">
         <v>45395</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="39"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="38"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3" t="s">
@@ -1656,40 +1655,40 @@
       <c r="B17" s="7">
         <v>45396</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="39"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="38"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
@@ -1701,41 +1700,41 @@
       <c r="C18" s="12">
         <v>550</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="59">
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="58">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="39"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="38"/>
     </row>
     <row r="19" spans="1:30" ht="15.75">
       <c r="A19" s="3" t="s">
@@ -1751,38 +1750,38 @@
       <c r="D19" s="16">
         <v>1555</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="59">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="58">
         <f t="shared" si="0"/>
         <v>2415</v>
       </c>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="39"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="38"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
       <c r="A20" s="3" t="s">
@@ -1797,38 +1796,38 @@
       <c r="D20" s="16">
         <v>90</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="59">
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="58">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="39"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="38"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3" t="s">
@@ -1840,39 +1839,39 @@
       <c r="C21" s="12">
         <v>0</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="39"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="38"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3" t="s">
@@ -1884,43 +1883,43 @@
       <c r="C22" s="12">
         <v>310</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="53"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="12">
         <v>0</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="59">
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="58">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="39"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="38"/>
     </row>
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="3" t="s">
@@ -1929,46 +1928,46 @@
       <c r="B23" s="7">
         <v>45402</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="16">
         <v>524</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="59">
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="58">
         <f t="shared" si="0"/>
         <v>524</v>
       </c>
       <c r="AA23" s="12">
         <v>21830</v>
       </c>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="60">
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="59">
         <f t="shared" si="1"/>
         <v>21830</v>
       </c>
-      <c r="AD23" s="39"/>
+      <c r="AD23" s="38"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3" t="s">
@@ -1977,40 +1976,40 @@
       <c r="B24" s="7">
         <v>45403</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="39"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="38"/>
     </row>
     <row r="25" spans="1:30" ht="15.75">
       <c r="A25" s="3" t="s">
@@ -2022,45 +2021,45 @@
       <c r="C25" s="12">
         <v>490</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="12">
         <v>0</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="16">
         <v>350</v>
       </c>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="59">
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="58">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="AA25" s="41"/>
+      <c r="AA25" s="40"/>
       <c r="AB25" s="12">
         <v>500</v>
       </c>
-      <c r="AC25" s="60">
+      <c r="AC25" s="59">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="AD25" s="39"/>
+      <c r="AD25" s="38"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3" t="s">
@@ -2075,40 +2074,40 @@
       <c r="D26" s="12">
         <v>730</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="12">
         <v>500</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="59">
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="58">
         <f t="shared" si="0"/>
         <v>1518</v>
       </c>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="39"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="38"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3" t="s">
@@ -2120,39 +2119,39 @@
       <c r="C27" s="12">
         <v>274</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="59">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="58">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="39"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="38"/>
     </row>
     <row r="28" spans="1:30" ht="15.75">
       <c r="A28" s="3" t="s">
@@ -2164,45 +2163,45 @@
       <c r="C28" s="12">
         <v>0</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="48">
         <v>401</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="56"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="55"/>
       <c r="V28" s="15">
         <v>6635</v>
       </c>
-      <c r="W28" s="56"/>
+      <c r="W28" s="55"/>
       <c r="X28" s="15">
         <v>700</v>
       </c>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="59">
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="58">
         <f t="shared" si="0"/>
         <v>7736</v>
       </c>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="39"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="38"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3" t="s">
@@ -2214,41 +2213,41 @@
       <c r="C29" s="12">
         <v>470</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="12">
         <v>0</v>
       </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="59">
+      <c r="I29" s="47"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="58">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="39"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="38"/>
     </row>
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="3" t="s">
@@ -2257,44 +2256,44 @@
       <c r="B30" s="7">
         <v>45409</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <v>245</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="49">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="48">
         <v>2146</v>
       </c>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="59">
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="58">
         <f t="shared" si="0"/>
         <v>2391</v>
       </c>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="39"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="38"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3" t="s">
@@ -2303,40 +2302,40 @@
       <c r="B31" s="7">
         <v>45410</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="39"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="38"/>
     </row>
     <row r="32" spans="1:30" ht="15.75">
       <c r="A32" s="3" t="s">
@@ -2348,43 +2347,43 @@
       <c r="C32" s="12">
         <v>0</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="16">
         <v>500</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="12">
         <v>0</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="59">
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="58">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="39"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="38"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3" t="s">
@@ -2399,153 +2398,153 @@
       <c r="D33" s="12">
         <v>360</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="59">
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="58">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="39"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="38"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="20">
+      <c r="B34" s="61"/>
+      <c r="C34" s="19">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <f>SUM(D4:D33)</f>
         <v>4604</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <f>SUM(E4:E33)</f>
         <v>500</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <f>SUM(F4:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34" s="49">
         <f>SUM(G4:G33)</f>
         <v>1000</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="49">
         <f t="shared" ref="H34:AC34" si="2">SUM(H4:H33)</f>
         <v>103</v>
       </c>
-      <c r="I34" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="54">
+      <c r="I34" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="53">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="M34" s="54">
+      <c r="M34" s="53">
         <f t="shared" si="2"/>
         <v>524</v>
       </c>
-      <c r="N34" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="54">
+      <c r="N34" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="53">
         <f t="shared" si="2"/>
         <v>2146</v>
       </c>
-      <c r="P34" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="55">
+      <c r="P34" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="54">
         <f t="shared" si="2"/>
         <v>7578</v>
       </c>
-      <c r="S34" s="55">
+      <c r="S34" s="54">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="T34" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="58">
+      <c r="T34" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="57">
         <f t="shared" si="2"/>
         <v>17600</v>
       </c>
-      <c r="V34" s="58">
+      <c r="V34" s="57">
         <f t="shared" si="2"/>
         <v>13270</v>
       </c>
-      <c r="W34" s="58">
+      <c r="W34" s="57">
         <f t="shared" si="2"/>
         <v>10001</v>
       </c>
-      <c r="X34" s="58">
+      <c r="X34" s="57">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="Y34" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="61">
+      <c r="Y34" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="60">
         <f t="shared" si="2"/>
         <v>65856</v>
       </c>
-      <c r="AA34" s="60">
+      <c r="AA34" s="59">
         <f t="shared" si="2"/>
         <v>66258.52</v>
       </c>
-      <c r="AB34" s="60">
+      <c r="AB34" s="59">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="AC34" s="60">
+      <c r="AC34" s="59">
         <f t="shared" si="2"/>
         <v>66758.52</v>
       </c>
-      <c r="AD34" s="46">
+      <c r="AD34" s="45">
         <f>AC34-Z34</f>
         <v>902.52000000000396</v>
       </c>
@@ -2571,7 +2570,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2662,13 +2661,13 @@
       <c r="W2" s="67"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="67"/>
-      <c r="Z2" s="38"/>
+      <c r="Z2" s="37"/>
       <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2696,67 +2695,67 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="39"/>
+      <c r="AD3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -2772,37 +2771,37 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="15">
         <v>17600</v>
       </c>
       <c r="V4" s="12">
         <v>0</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="42">
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="41">
         <f>SUM(C4:Y4)</f>
         <v>17600</v>
       </c>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="44">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43">
         <f>SUM(AA4:AB4)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="39"/>
+      <c r="AD4" s="38"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
@@ -2820,35 +2819,35 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="42">
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="41">
         <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
         <v>248</v>
       </c>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44">
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43">
         <f t="shared" ref="AC5:AC34" si="1">SUM(AA5:AB5)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="39"/>
+      <c r="AD5" s="38"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
@@ -2866,35 +2865,35 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="42">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="41">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="AA6" s="12">
         <v>27710</v>
       </c>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44">
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="43">
         <f t="shared" si="1"/>
         <v>27710</v>
       </c>
-      <c r="AD6" s="39"/>
+      <c r="AD6" s="38"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="3" t="s">
@@ -2915,32 +2914,32 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="42">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="41">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="39"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="38"/>
     </row>
     <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="3" t="s">
@@ -2960,35 +2959,35 @@
       <c r="G8" s="13"/>
       <c r="H8" s="10"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27">
+      <c r="J8" s="22"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26">
         <v>350</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="42">
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="41">
         <f t="shared" si="0"/>
         <v>1538</v>
       </c>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="39"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="38"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
@@ -3006,33 +3005,33 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="39"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="38"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
@@ -3053,33 +3052,33 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="42">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="41">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="39"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="38"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="3" t="s">
@@ -3099,35 +3098,35 @@
       <c r="G11" s="10"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="27">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="26">
         <v>10000</v>
       </c>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="42">
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="41">
         <f t="shared" si="0"/>
         <v>10042</v>
       </c>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="39"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="3" t="s">
@@ -3143,33 +3142,33 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="39"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="3" t="s">
@@ -3187,33 +3186,33 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="42">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="41">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="39"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
@@ -3232,32 +3231,32 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="39"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="38"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="3" t="s">
@@ -3273,33 +3272,33 @@
       <c r="G15" s="13"/>
       <c r="H15" s="10"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="39"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="38"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
@@ -3318,33 +3317,33 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="42">
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="41">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="39"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="38"/>
     </row>
     <row r="17" spans="1:30" ht="15.75">
       <c r="A17" s="3" t="s">
@@ -3365,35 +3364,35 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="15">
         <v>350</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="42">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="41">
         <f t="shared" si="0"/>
         <v>1904</v>
       </c>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="39"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="38"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
@@ -3411,33 +3410,33 @@
       <c r="G18" s="10"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="39"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="38"/>
     </row>
     <row r="19" spans="1:30" ht="15.75">
       <c r="A19" s="3" t="s">
@@ -3446,8 +3445,8 @@
       <c r="B19" s="7">
         <v>45428</v>
       </c>
-      <c r="C19" s="19">
-        <v>500</v>
+      <c r="C19" s="12">
+        <v>461</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9"/>
@@ -3455,33 +3454,33 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="42">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="39"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="41">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="38"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
       <c r="A20" s="3" t="s">
@@ -3490,42 +3489,44 @@
       <c r="B20" s="7">
         <v>45429</v>
       </c>
-      <c r="C20" s="18">
-        <v>500</v>
+      <c r="C20" s="12">
+        <v>127</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="42">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="39"/>
+      <c r="I20" s="16">
+        <v>153</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="41">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="38"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3" t="s">
@@ -3544,34 +3545,34 @@
       <c r="J21" s="17">
         <v>1500</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="17">
         <v>800</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="42">
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="41">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="39"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="38"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3" t="s">
@@ -3587,33 +3588,33 @@
       <c r="G22" s="13"/>
       <c r="H22" s="10"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="39"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="38"/>
     </row>
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="3" t="s">
@@ -3633,35 +3634,35 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="42">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="41">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="AA23" s="18">
         <v>21000</v>
       </c>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="44">
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="43">
         <f t="shared" si="1"/>
         <v>21000</v>
       </c>
-      <c r="AD23" s="39"/>
+      <c r="AD23" s="38"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3" t="s">
@@ -3681,33 +3682,33 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="42">
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="41">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="39"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="38"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="3" t="s">
@@ -3725,33 +3726,33 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="42">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="41">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="39"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="38"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3" t="s">
@@ -3769,35 +3770,35 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="17">
         <v>350</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="42">
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="41">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="39"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="38"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3" t="s">
@@ -3818,32 +3819,32 @@
       <c r="J27" s="17">
         <v>1500</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="42">
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="41">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="39"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="38"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="3" t="s">
@@ -3859,35 +3860,35 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
       <c r="X28" s="17">
         <v>700</v>
       </c>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="42">
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="41">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="39"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="38"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3" t="s">
@@ -3903,33 +3904,33 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="39"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="38"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="3" t="s">
@@ -3949,33 +3950,33 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="42">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="41">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="39"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="38"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3" t="s">
@@ -3995,33 +3996,33 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="42">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="41">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="39"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="38"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="3" t="s">
@@ -4039,33 +4040,33 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="42">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="41">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="39"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="38"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3" t="s">
@@ -4083,35 +4084,35 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="17">
         <v>350</v>
       </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="42">
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="41">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="39"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="38"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="3" t="s">
@@ -4129,150 +4130,150 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="42">
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="41">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="39"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="38"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="20">
+      <c r="B35" s="61"/>
+      <c r="C35" s="19">
         <f>SUM(C4:C34)</f>
-        <v>7333</v>
-      </c>
-      <c r="D35" s="20">
+        <v>6921</v>
+      </c>
+      <c r="D35" s="19">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
         <v>3583</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
-      <c r="F35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="20">
+      <c r="F35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="20">
+      <c r="H35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="J35" s="19">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="20">
+      <c r="K35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="19">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="M35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="20">
+      <c r="M35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="O35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="20">
+      <c r="O35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
         <f t="shared" si="2"/>
         <v>17600</v>
       </c>
-      <c r="V35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="20">
+      <c r="V35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="19">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="X35" s="20">
+      <c r="X35" s="19">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="Y35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="20">
-        <f t="shared" si="2"/>
-        <v>49276</v>
-      </c>
-      <c r="AA35" s="20">
+      <c r="Y35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="19">
+        <f t="shared" si="2"/>
+        <v>49017</v>
+      </c>
+      <c r="AA35" s="19">
         <f t="shared" si="2"/>
         <v>48710</v>
       </c>
-      <c r="AB35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="20">
+      <c r="AB35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="19">
         <f t="shared" si="2"/>
         <v>48710</v>
       </c>
-      <c r="AD35" s="46">
+      <c r="AD35" s="45">
         <f>AC35-Z35</f>
-        <v>-566</v>
+        <v>-307</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -278,7 +278,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +387,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -484,7 +490,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,6 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,13 +949,13 @@
       <c r="W2" s="67"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="67"/>
-      <c r="Z2" s="37"/>
+      <c r="Z2" s="36"/>
       <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -977,67 +983,67 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="39" t="s">
+      <c r="Z3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="40" t="s">
+      <c r="AA3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="40" t="s">
+      <c r="AB3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="38"/>
+      <c r="AD3" s="37"/>
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -1049,49 +1055,49 @@
       <c r="C4" s="12">
         <v>248</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="12">
         <v>500</v>
       </c>
       <c r="H4" s="16">
         <v>103</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="15">
         <v>5000</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
       <c r="U4" s="15">
         <v>17600</v>
       </c>
       <c r="V4" s="15">
         <v>6635</v>
       </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="58">
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="57">
         <f>SUM(C4:Y4)</f>
         <v>30086</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="59">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="58">
         <f>SUM(AA4:AB4)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="38"/>
+      <c r="AD4" s="37"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
@@ -1106,38 +1112,38 @@
       <c r="D5" s="12">
         <v>858</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="58">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="57">
         <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
         <v>988</v>
       </c>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="59">
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="58">
         <f t="shared" ref="AC5:AC33" si="1">SUM(AA5:AB5)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="38"/>
+      <c r="AD5" s="37"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
@@ -1149,39 +1155,39 @@
       <c r="C6" s="12">
         <v>309</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="58">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="57">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="38"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="37"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="3" t="s">
@@ -1196,41 +1202,41 @@
       <c r="D7" s="16">
         <v>158</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="12">
         <f>SUM(1871+407)</f>
         <v>2278</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="58">
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="57">
         <f t="shared" si="0"/>
         <v>2734</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="38"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="37"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
@@ -1242,33 +1248,33 @@
       <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="12">
         <v>0</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="52"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="58">
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1276,12 +1282,12 @@
         <f>28701.52+15727</f>
         <v>44428.52</v>
       </c>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="59">
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="58">
         <f t="shared" si="1"/>
         <v>44428.52</v>
       </c>
-      <c r="AD8" s="38"/>
+      <c r="AD8" s="37"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
@@ -1290,40 +1296,40 @@
       <c r="B9" s="7">
         <v>45388</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="38"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="37"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
@@ -1332,40 +1338,40 @@
       <c r="B10" s="7">
         <v>45389</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="38"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="37"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="3" t="s">
@@ -1377,45 +1383,45 @@
       <c r="C11" s="12">
         <v>298</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
       <c r="R11" s="16">
         <v>300</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
       <c r="W11" s="15">
         <v>10001</v>
       </c>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="58">
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="57">
         <f t="shared" si="0"/>
         <v>10599</v>
       </c>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="38"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="37"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="3" t="s">
@@ -1427,42 +1433,42 @@
       <c r="C12" s="12">
         <v>30</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="16">
         <f>298+600+152</f>
         <v>1050</v>
       </c>
-      <c r="T12" s="51"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="58">
+      <c r="T12" s="50"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="57">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="38"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="3" t="s">
@@ -1477,40 +1483,40 @@
       <c r="D13" s="16">
         <v>161</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="16">
         <v>350</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="58">
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="57">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="38"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
@@ -1523,39 +1529,39 @@
         <f>290+155</f>
         <v>445</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="58">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="57">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="38"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="37"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="3" t="s">
@@ -1571,40 +1577,40 @@
       <c r="D15" s="16">
         <v>291</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="12">
         <v>0</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="58">
+      <c r="I15" s="46"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="57">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="38"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="37"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
@@ -1613,40 +1619,40 @@
       <c r="B16" s="7">
         <v>45395</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="38"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="37"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3" t="s">
@@ -1655,40 +1661,40 @@
       <c r="B17" s="7">
         <v>45396</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="38"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="37"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
@@ -1700,41 +1706,41 @@
       <c r="C18" s="12">
         <v>550</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="58">
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="57">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="38"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="37"/>
     </row>
     <row r="19" spans="1:30" ht="15.75">
       <c r="A19" s="3" t="s">
@@ -1750,38 +1756,38 @@
       <c r="D19" s="16">
         <v>1555</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="58">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="57">
         <f t="shared" si="0"/>
         <v>2415</v>
       </c>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="38"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="37"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
       <c r="A20" s="3" t="s">
@@ -1796,38 +1802,38 @@
       <c r="D20" s="16">
         <v>90</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="58">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="57">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="38"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="37"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3" t="s">
@@ -1839,39 +1845,39 @@
       <c r="C21" s="12">
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="38"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="37"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3" t="s">
@@ -1883,43 +1889,43 @@
       <c r="C22" s="12">
         <v>310</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="52"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="12">
         <v>0</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="58">
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="57">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="38"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="37"/>
     </row>
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="3" t="s">
@@ -1928,46 +1934,46 @@
       <c r="B23" s="7">
         <v>45402</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="16">
         <v>524</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
       </c>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="58">
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="57">
         <f t="shared" si="0"/>
         <v>524</v>
       </c>
       <c r="AA23" s="12">
         <v>21830</v>
       </c>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="59">
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="58">
         <f t="shared" si="1"/>
         <v>21830</v>
       </c>
-      <c r="AD23" s="38"/>
+      <c r="AD23" s="37"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3" t="s">
@@ -1976,40 +1982,40 @@
       <c r="B24" s="7">
         <v>45403</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="38"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="37"/>
     </row>
     <row r="25" spans="1:30" ht="15.75">
       <c r="A25" s="3" t="s">
@@ -2021,45 +2027,45 @@
       <c r="C25" s="12">
         <v>490</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="12">
         <v>0</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="16">
         <v>350</v>
       </c>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="58">
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="57">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="AA25" s="40"/>
+      <c r="AA25" s="39"/>
       <c r="AB25" s="12">
         <v>500</v>
       </c>
-      <c r="AC25" s="59">
+      <c r="AC25" s="58">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="AD25" s="38"/>
+      <c r="AD25" s="37"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3" t="s">
@@ -2074,40 +2080,40 @@
       <c r="D26" s="12">
         <v>730</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="12">
         <v>500</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="58">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="57">
         <f t="shared" si="0"/>
         <v>1518</v>
       </c>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="38"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="37"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3" t="s">
@@ -2119,39 +2125,39 @@
       <c r="C27" s="12">
         <v>274</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="58">
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="57">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="38"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="37"/>
     </row>
     <row r="28" spans="1:30" ht="15.75">
       <c r="A28" s="3" t="s">
@@ -2163,45 +2169,45 @@
       <c r="C28" s="12">
         <v>0</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="47">
         <v>401</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="55"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="54"/>
       <c r="V28" s="15">
         <v>6635</v>
       </c>
-      <c r="W28" s="55"/>
+      <c r="W28" s="54"/>
       <c r="X28" s="15">
         <v>700</v>
       </c>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="58">
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="57">
         <f t="shared" si="0"/>
         <v>7736</v>
       </c>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="38"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="37"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3" t="s">
@@ -2213,41 +2219,41 @@
       <c r="C29" s="12">
         <v>470</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="12">
         <v>0</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="58">
+      <c r="I29" s="46"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="57">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="38"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="37"/>
     </row>
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="3" t="s">
@@ -2256,44 +2262,44 @@
       <c r="B30" s="7">
         <v>45409</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="47">
         <v>245</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="48">
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="47">
         <v>2146</v>
       </c>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="58">
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="57">
         <f t="shared" si="0"/>
         <v>2391</v>
       </c>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="38"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="37"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3" t="s">
@@ -2302,40 +2308,40 @@
       <c r="B31" s="7">
         <v>45410</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="38"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="37"/>
     </row>
     <row r="32" spans="1:30" ht="15.75">
       <c r="A32" s="3" t="s">
@@ -2347,43 +2353,43 @@
       <c r="C32" s="12">
         <v>0</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="16">
         <v>500</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="12">
         <v>0</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="58">
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="57">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="38"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="37"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3" t="s">
@@ -2398,153 +2404,153 @@
       <c r="D33" s="12">
         <v>360</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="58">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="57">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="38"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="37"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="61"/>
-      <c r="C34" s="19">
+      <c r="C34" s="18">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <f>SUM(D4:D33)</f>
         <v>4604</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <f>SUM(E4:E33)</f>
         <v>500</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <f>SUM(F4:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="48">
         <f>SUM(G4:G33)</f>
         <v>1000</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="48">
         <f t="shared" ref="H34:AC34" si="2">SUM(H4:H33)</f>
         <v>103</v>
       </c>
-      <c r="I34" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="53">
+      <c r="I34" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="52">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M34" s="52">
         <f t="shared" si="2"/>
         <v>524</v>
       </c>
-      <c r="N34" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="53">
+      <c r="N34" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="52">
         <f t="shared" si="2"/>
         <v>2146</v>
       </c>
-      <c r="P34" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="54">
+      <c r="P34" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="53">
         <f t="shared" si="2"/>
         <v>7578</v>
       </c>
-      <c r="S34" s="54">
+      <c r="S34" s="53">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="T34" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="57">
+      <c r="T34" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="56">
         <f t="shared" si="2"/>
         <v>17600</v>
       </c>
-      <c r="V34" s="57">
+      <c r="V34" s="56">
         <f t="shared" si="2"/>
         <v>13270</v>
       </c>
-      <c r="W34" s="57">
+      <c r="W34" s="56">
         <f t="shared" si="2"/>
         <v>10001</v>
       </c>
-      <c r="X34" s="57">
+      <c r="X34" s="56">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="Y34" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="60">
+      <c r="Y34" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="59">
         <f t="shared" si="2"/>
         <v>65856</v>
       </c>
-      <c r="AA34" s="59">
+      <c r="AA34" s="58">
         <f t="shared" si="2"/>
         <v>66258.52</v>
       </c>
-      <c r="AB34" s="59">
+      <c r="AB34" s="58">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="AC34" s="59">
+      <c r="AC34" s="58">
         <f t="shared" si="2"/>
         <v>66758.52</v>
       </c>
-      <c r="AD34" s="45">
+      <c r="AD34" s="44">
         <f>AC34-Z34</f>
         <v>902.52000000000396</v>
       </c>
@@ -2570,7 +2576,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2661,13 +2667,13 @@
       <c r="W2" s="67"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="67"/>
-      <c r="Z2" s="37"/>
+      <c r="Z2" s="36"/>
       <c r="AA2" s="68" t="s">
         <v>8</v>
       </c>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2695,67 +2701,67 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="39" t="s">
+      <c r="Z3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="40" t="s">
+      <c r="AA3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="40" t="s">
+      <c r="AB3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="38"/>
+      <c r="AD3" s="37"/>
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -2771,37 +2777,37 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="15">
         <v>17600</v>
       </c>
       <c r="V4" s="12">
         <v>0</v>
       </c>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="41">
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="40">
         <f>SUM(C4:Y4)</f>
         <v>17600</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43">
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="42">
         <f>SUM(AA4:AB4)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="38"/>
+      <c r="AD4" s="37"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
@@ -2819,35 +2825,35 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="41">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="40">
         <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
         <v>248</v>
       </c>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="42">
         <f t="shared" ref="AC5:AC34" si="1">SUM(AA5:AB5)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="38"/>
+      <c r="AD5" s="37"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
@@ -2865,35 +2871,35 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="41">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="40">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="AA6" s="12">
         <v>27710</v>
       </c>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="43">
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="42">
         <f t="shared" si="1"/>
         <v>27710</v>
       </c>
-      <c r="AD6" s="38"/>
+      <c r="AD6" s="37"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="3" t="s">
@@ -2914,32 +2920,32 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="41">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="40">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="38"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="37"/>
     </row>
     <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="3" t="s">
@@ -2959,35 +2965,35 @@
       <c r="G8" s="13"/>
       <c r="H8" s="10"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26">
+      <c r="J8" s="21"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25">
         <v>350</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="41">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="40">
         <f t="shared" si="0"/>
         <v>1538</v>
       </c>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="38"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="37"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
@@ -3005,33 +3011,33 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="38"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="37"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
@@ -3052,33 +3058,33 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="41">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="40">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="38"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="37"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="3" t="s">
@@ -3098,35 +3104,35 @@
       <c r="G11" s="10"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="26">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="25">
         <v>10000</v>
       </c>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="41">
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="40">
         <f t="shared" si="0"/>
         <v>10042</v>
       </c>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="38"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="37"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="3" t="s">
@@ -3142,33 +3148,33 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="38"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="3" t="s">
@@ -3186,33 +3192,33 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="41">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="40">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="38"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
@@ -3231,32 +3237,32 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="38"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="37"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="3" t="s">
@@ -3272,33 +3278,33 @@
       <c r="G15" s="13"/>
       <c r="H15" s="10"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="38"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="37"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
@@ -3317,33 +3323,33 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="41">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="40">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="38"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="37"/>
     </row>
     <row r="17" spans="1:30" ht="15.75">
       <c r="A17" s="3" t="s">
@@ -3364,35 +3370,35 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="15">
         <v>350</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="41">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="40">
         <f t="shared" si="0"/>
         <v>1904</v>
       </c>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="38"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="37"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
@@ -3410,33 +3416,33 @@
       <c r="G18" s="10"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="37"/>
     </row>
     <row r="19" spans="1:30" ht="15.75">
       <c r="A19" s="3" t="s">
@@ -3454,33 +3460,33 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="41">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="40">
         <f t="shared" si="0"/>
         <v>461</v>
       </c>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="38"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="37"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
       <c r="A20" s="3" t="s">
@@ -3492,43 +3498,48 @@
       <c r="C20" s="12">
         <v>127</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="15">
+        <v>60</v>
+      </c>
+      <c r="E20" s="16">
+        <v>175</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="16">
-        <v>153</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="41">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="38"/>
-    </row>
-    <row r="21" spans="1:30">
+        <f>153+30</f>
+        <v>183</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="40">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="37"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -3536,45 +3547,47 @@
         <v>45430</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="16">
+        <v>120</v>
+      </c>
+      <c r="E21" s="16">
+        <v>390</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="17">
-        <v>1500</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="17">
-        <v>800</v>
-      </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="41">
-        <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="38"/>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="40">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="37"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -3583,38 +3596,40 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="16">
+        <v>145</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="13"/>
       <c r="H22" s="10"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="40">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="37"/>
     </row>
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="3" t="s">
@@ -3623,46 +3638,46 @@
       <c r="B23" s="7">
         <v>45432</v>
       </c>
-      <c r="C23" s="17">
-        <v>500</v>
+      <c r="C23" s="12">
+        <v>305</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="17">
-        <v>1000</v>
+      <c r="G23" s="12">
+        <v>0</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="41">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="AA23" s="18">
-        <v>21000</v>
-      </c>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="43">
-        <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="AD23" s="38"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="40">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="AA23" s="47">
+        <v>16670</v>
+      </c>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="42">
+        <f t="shared" si="1"/>
+        <v>16670</v>
+      </c>
+      <c r="AD23" s="37"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3" t="s">
@@ -3682,33 +3697,33 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="41">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="40">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="38"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="37"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="3" t="s">
@@ -3726,33 +3741,33 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="41">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="40">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="38"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="37"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3" t="s">
@@ -3770,35 +3785,35 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="17">
         <v>350</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="41">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="40">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="38"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="37"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3" t="s">
@@ -3819,32 +3834,32 @@
       <c r="J27" s="17">
         <v>1500</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="41">
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="40">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="38"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="37"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="3" t="s">
@@ -3860,35 +3875,37 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="17">
+        <v>800</v>
+      </c>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
       <c r="X28" s="17">
         <v>700</v>
       </c>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="41">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="38"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="40">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="37"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3" t="s">
@@ -3904,33 +3921,33 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="38"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="37"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="3" t="s">
@@ -3950,33 +3967,33 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="41">
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="40">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="38"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="37"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3" t="s">
@@ -3996,33 +4013,33 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="41">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="40">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="38"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="37"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="3" t="s">
@@ -4040,33 +4057,33 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="41">
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="40">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="38"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="37"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3" t="s">
@@ -4084,35 +4101,35 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="17">
         <v>350</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="41">
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="40">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="38"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="37"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="3" t="s">
@@ -4130,150 +4147,150 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="41">
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="40">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="38"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="37"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="61"/>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <f>SUM(C4:C34)</f>
-        <v>6921</v>
-      </c>
-      <c r="D35" s="19">
+        <v>6726</v>
+      </c>
+      <c r="D35" s="18">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
-        <v>3583</v>
-      </c>
-      <c r="E35" s="19">
-        <f t="shared" si="2"/>
-        <v>860</v>
-      </c>
-      <c r="F35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="19">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="J35" s="19">
+        <v>3763</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>1570</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="19">
+      <c r="H35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="M35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="19">
+      <c r="M35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="O35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="19">
+      <c r="O35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="18">
         <f t="shared" si="2"/>
         <v>17600</v>
       </c>
-      <c r="V35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="19">
+      <c r="V35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="18">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="X35" s="19">
+      <c r="X35" s="18">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="Y35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="19">
-        <f t="shared" si="2"/>
-        <v>49017</v>
-      </c>
-      <c r="AA35" s="19">
-        <f t="shared" si="2"/>
-        <v>48710</v>
-      </c>
-      <c r="AB35" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="19">
-        <f t="shared" si="2"/>
-        <v>48710</v>
-      </c>
-      <c r="AD35" s="45">
+      <c r="Y35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="18">
+        <f t="shared" si="2"/>
+        <v>47242</v>
+      </c>
+      <c r="AA35" s="18">
+        <f t="shared" si="2"/>
+        <v>44380</v>
+      </c>
+      <c r="AB35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="18">
+        <f t="shared" si="2"/>
+        <v>44380</v>
+      </c>
+      <c r="AD35" s="44">
         <f>AC35-Z35</f>
-        <v>-307</v>
+        <v>-2862</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -2576,7 +2576,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3686,11 +3686,12 @@
       <c r="B24" s="7">
         <v>45433</v>
       </c>
-      <c r="C24" s="17">
-        <v>500</v>
-      </c>
-      <c r="D24" s="17">
-        <v>1000</v>
+      <c r="C24" s="12">
+        <f>248+55</f>
+        <v>303</v>
+      </c>
+      <c r="D24" s="12">
+        <v>315</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -3715,7 +3716,7 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="40">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>618</v>
       </c>
       <c r="AA24" s="41"/>
       <c r="AB24" s="41"/>
@@ -4182,11 +4183,11 @@
       <c r="B35" s="61"/>
       <c r="C35" s="18">
         <f>SUM(C4:C34)</f>
-        <v>6726</v>
+        <v>6529</v>
       </c>
       <c r="D35" s="18">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
-        <v>3763</v>
+        <v>3078</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
@@ -4274,7 +4275,7 @@
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="2"/>
-        <v>47242</v>
+        <v>46360</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="2"/>
@@ -4290,7 +4291,7 @@
       </c>
       <c r="AD35" s="44">
         <f>AC35-Z35</f>
-        <v>-2862</v>
+        <v>-1980</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -2576,7 +2576,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3726,18 +3726,21 @@
       </c>
       <c r="AD24" s="37"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="7">
         <v>45434</v>
       </c>
-      <c r="C25" s="17">
-        <v>500</v>
+      <c r="C25" s="12">
+        <f>248+55</f>
+        <v>303</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="16">
+        <v>798</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -3760,7 +3763,7 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="40">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1101</v>
       </c>
       <c r="AA25" s="41"/>
       <c r="AB25" s="41"/>
@@ -3788,8 +3791,8 @@
       <c r="I26" s="13"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="17">
-        <v>350</v>
+      <c r="L26" s="12">
+        <v>0</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -3806,7 +3809,7 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="40">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
@@ -4183,7 +4186,7 @@
       <c r="B35" s="61"/>
       <c r="C35" s="18">
         <f>SUM(C4:C34)</f>
-        <v>6529</v>
+        <v>6332</v>
       </c>
       <c r="D35" s="18">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
-        <v>1570</v>
+        <v>2368</v>
       </c>
       <c r="F35" s="18">
         <f t="shared" si="2"/>
@@ -4219,7 +4222,7 @@
       </c>
       <c r="L35" s="18">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="M35" s="18">
         <f t="shared" si="2"/>
@@ -4275,7 +4278,7 @@
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="2"/>
-        <v>46360</v>
+        <v>46611</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="2"/>
@@ -4291,7 +4294,7 @@
       </c>
       <c r="AD35" s="44">
         <f>AC35-Z35</f>
-        <v>-1980</v>
+        <v>-2231</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -569,6 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -2576,7 +2577,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3780,8 +3781,8 @@
       <c r="B26" s="7">
         <v>45435</v>
       </c>
-      <c r="C26" s="17">
-        <v>500</v>
+      <c r="C26" s="12">
+        <v>405</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -3791,9 +3792,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
+      <c r="L26" s="69"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -3809,7 +3808,7 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="40">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
@@ -3819,15 +3818,15 @@
       </c>
       <c r="AD26" s="37"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" ht="15.75">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="7">
         <v>45436</v>
       </c>
-      <c r="C27" s="17">
-        <v>500</v>
+      <c r="C27" s="12">
+        <v>305</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -3835,11 +3834,11 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="17">
-        <v>1500</v>
-      </c>
+      <c r="J27" s="69"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="25">
+        <v>350</v>
+      </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
@@ -3855,7 +3854,7 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="40">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>655</v>
       </c>
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
@@ -3865,7 +3864,7 @@
       </c>
       <c r="AD27" s="37"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -3873,19 +3872,23 @@
         <v>45437</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="16">
+        <v>55</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1000</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="21"/>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="17">
-        <v>800</v>
-      </c>
+      <c r="N28" s="69"/>
       <c r="O28" s="21"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -3895,13 +3898,13 @@
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="17">
+      <c r="X28" s="15">
         <v>700</v>
       </c>
       <c r="Y28" s="32"/>
       <c r="Z28" s="40">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1755</v>
       </c>
       <c r="AA28" s="41"/>
       <c r="AB28" s="41"/>
@@ -3966,8 +3969,8 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="17">
-        <v>1000</v>
+      <c r="G30" s="12">
+        <v>0</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -3989,7 +3992,7 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="40">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AA30" s="41"/>
       <c r="AB30" s="41"/>
@@ -4021,7 +4024,9 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="17">
+        <v>800</v>
+      </c>
       <c r="O31" s="21"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
@@ -4035,7 +4040,7 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="40">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="AA31" s="41"/>
       <c r="AB31" s="41"/>
@@ -4186,15 +4191,15 @@
       <c r="B35" s="61"/>
       <c r="C35" s="18">
         <f>SUM(C4:C34)</f>
-        <v>6332</v>
+        <v>6042</v>
       </c>
       <c r="D35" s="18">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
-        <v>3078</v>
+        <v>3133</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
-        <v>2368</v>
+        <v>3368</v>
       </c>
       <c r="F35" s="18">
         <f t="shared" si="2"/>
@@ -4202,7 +4207,7 @@
       </c>
       <c r="G35" s="18">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" si="2"/>
@@ -4214,7 +4219,7 @@
       </c>
       <c r="J35" s="18">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" si="2"/>
@@ -4222,7 +4227,7 @@
       </c>
       <c r="L35" s="18">
         <f t="shared" si="2"/>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="M35" s="18">
         <f t="shared" si="2"/>
@@ -4278,7 +4283,7 @@
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="2"/>
-        <v>46611</v>
+        <v>45226</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="2"/>
@@ -4294,7 +4299,7 @@
       </c>
       <c r="AD35" s="44">
         <f>AC35-Z35</f>
-        <v>-2231</v>
+        <v>-846</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Апрель 2024" sheetId="1" r:id="rId1"/>
     <sheet name="Май 2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Июнь 2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="43">
   <si>
     <t>Доходы - Расходы Апрель 2024</t>
   </si>
@@ -210,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +278,38 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +424,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -463,7 +506,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,6 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,7 +613,38 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -852,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -878,37 +953,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -917,45 +992,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="68" t="s">
+      <c r="AA2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -2439,10 +2514,10 @@
       <c r="AD33" s="37"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="61"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="18">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2576,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2596,37 +2671,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2635,45 +2710,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="68" t="s">
+      <c r="AA2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -3792,7 +3867,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="69"/>
+      <c r="L26" s="61"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -3834,7 +3909,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="61"/>
       <c r="K27" s="21"/>
       <c r="L27" s="25">
         <v>350</v>
@@ -3888,7 +3963,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="69"/>
+      <c r="N28" s="61"/>
       <c r="O28" s="21"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -3956,17 +4031,19 @@
       </c>
       <c r="AD29" s="37"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7">
         <v>45439</v>
       </c>
-      <c r="C30" s="17">
-        <v>500</v>
-      </c>
-      <c r="D30" s="9"/>
+      <c r="C30" s="12">
+        <v>368</v>
+      </c>
+      <c r="D30" s="16">
+        <v>273</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="12">
@@ -3992,7 +4069,7 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="40">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="AA30" s="41"/>
       <c r="AB30" s="41"/>
@@ -4002,18 +4079,18 @@
       </c>
       <c r="AD30" s="37"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="7">
         <v>45440</v>
       </c>
-      <c r="C31" s="17">
-        <v>500</v>
-      </c>
-      <c r="D31" s="17">
-        <v>1000</v>
+      <c r="C31" s="12">
+        <v>248</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -4022,15 +4099,17 @@
       <c r="I31" s="13"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="L31" s="16">
+        <v>350</v>
+      </c>
       <c r="M31" s="21"/>
-      <c r="N31" s="17">
-        <v>800</v>
-      </c>
+      <c r="N31" s="60"/>
       <c r="O31" s="21"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
+      <c r="R31" s="16">
+        <v>190</v>
+      </c>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
       <c r="U31" s="32"/>
@@ -4040,7 +4119,7 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="40">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>788</v>
       </c>
       <c r="AA31" s="41"/>
       <c r="AB31" s="41"/>
@@ -4050,22 +4129,24 @@
       </c>
       <c r="AD31" s="37"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" ht="15.75">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="7">
         <v>45441</v>
       </c>
-      <c r="C32" s="17">
-        <v>500</v>
+      <c r="C32" s="100">
+        <v>405</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="16">
+        <v>332</v>
+      </c>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
@@ -4084,7 +4165,7 @@
       <c r="Y32" s="32"/>
       <c r="Z32" s="40">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>737</v>
       </c>
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
@@ -4112,8 +4193,8 @@
       <c r="I33" s="13"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="17">
-        <v>350</v>
+      <c r="L33" s="12">
+        <v>0</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -4130,7 +4211,7 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="40">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="AA33" s="41"/>
       <c r="AB33" s="41"/>
@@ -4185,17 +4266,17 @@
       <c r="AD34" s="37"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="18">
         <f>SUM(C4:C34)</f>
-        <v>6042</v>
+        <v>5563</v>
       </c>
       <c r="D35" s="18">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
-        <v>3133</v>
+        <v>2406</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
@@ -4215,7 +4296,7 @@
       </c>
       <c r="I35" s="18">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>515</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="2"/>
@@ -4235,7 +4316,7 @@
       </c>
       <c r="N35" s="18">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O35" s="18">
         <f t="shared" si="2"/>
@@ -4251,7 +4332,7 @@
       </c>
       <c r="R35" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="S35" s="18">
         <f t="shared" si="2"/>
@@ -4283,7 +4364,7 @@
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="2"/>
-        <v>45226</v>
+        <v>43742</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="2"/>
@@ -4299,7 +4380,7 @@
       </c>
       <c r="AD35" s="44">
         <f>AC35-Z35</f>
-        <v>-846</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -4316,4 +4397,1709 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD34"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="26.25">
+      <c r="A1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="37"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45444</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="96">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="82">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="82">
+        <v>800</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="82">
+        <v>500</v>
+      </c>
+      <c r="U4" s="98">
+        <v>17600</v>
+      </c>
+      <c r="V4" s="101">
+        <v>6635</v>
+      </c>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="79">
+        <f>SUM(C4:Y4)</f>
+        <v>28035</v>
+      </c>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81">
+        <f>SUM(AA4:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="82"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45445</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="82">
+        <v>1000</v>
+      </c>
+      <c r="U5" s="84"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79">
+        <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
+        <v>1000</v>
+      </c>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="81">
+        <f t="shared" ref="AC5:AC33" si="1">SUM(AA5:AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="82"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45446</v>
+      </c>
+      <c r="C6" s="96">
+        <v>500</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="82"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45447</v>
+      </c>
+      <c r="C7" s="96">
+        <v>500</v>
+      </c>
+      <c r="D7" s="99">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="79">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="82"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45448</v>
+      </c>
+      <c r="C8" s="96">
+        <v>500</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA8" s="96">
+        <v>25000</v>
+      </c>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="81">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="AD8" s="82"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45449</v>
+      </c>
+      <c r="C9" s="96">
+        <v>500</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="82">
+        <v>350</v>
+      </c>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="82"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45450</v>
+      </c>
+      <c r="C10" s="96">
+        <v>500</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="82">
+        <v>10002</v>
+      </c>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79">
+        <f t="shared" si="0"/>
+        <v>10502</v>
+      </c>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="82"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45451</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="82">
+        <v>700</v>
+      </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="96">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="82">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="82">
+        <v>500</v>
+      </c>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="82"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45452</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="82">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="82"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45453</v>
+      </c>
+      <c r="C13" s="96">
+        <v>500</v>
+      </c>
+      <c r="D13" s="86"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="82"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45454</v>
+      </c>
+      <c r="C14" s="96">
+        <v>500</v>
+      </c>
+      <c r="D14" s="82">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="82"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45455</v>
+      </c>
+      <c r="C15" s="96">
+        <v>500</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="82"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45456</v>
+      </c>
+      <c r="C16" s="96">
+        <v>500</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="82">
+        <v>350</v>
+      </c>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="82"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45457</v>
+      </c>
+      <c r="C17" s="96">
+        <v>500</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="82"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45458</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="82">
+        <v>700</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="96">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="82">
+        <v>1500</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="82">
+        <v>5000</v>
+      </c>
+      <c r="S18" s="76"/>
+      <c r="T18" s="82">
+        <v>500</v>
+      </c>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="79">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="82"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45459</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="82">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="79">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="82"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45460</v>
+      </c>
+      <c r="C20" s="96">
+        <v>500</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="82"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45461</v>
+      </c>
+      <c r="C21" s="96">
+        <v>500</v>
+      </c>
+      <c r="D21" s="99">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="86"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="79">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="82"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45462</v>
+      </c>
+      <c r="C22" s="96">
+        <v>500</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="82"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45463</v>
+      </c>
+      <c r="C23" s="96">
+        <v>500</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="82">
+        <v>350</v>
+      </c>
+      <c r="M23" s="94"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="79">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="AA23" s="97">
+        <v>20000</v>
+      </c>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="81">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="AD23" s="82"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="7">
+        <v>45464</v>
+      </c>
+      <c r="C24" s="96">
+        <v>500</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="82"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7">
+        <v>45465</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="99">
+        <v>700</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="82">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="82">
+        <v>1500</v>
+      </c>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="82">
+        <v>500</v>
+      </c>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="79">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="82"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="7">
+        <v>45466</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="82">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="79">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="82"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45467</v>
+      </c>
+      <c r="C27" s="96">
+        <v>500</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="82"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="7">
+        <v>45468</v>
+      </c>
+      <c r="C28" s="82">
+        <v>500</v>
+      </c>
+      <c r="D28" s="99">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="86"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="98">
+        <v>700</v>
+      </c>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="79">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="82"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45469</v>
+      </c>
+      <c r="C29" s="82">
+        <v>500</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="82"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45470</v>
+      </c>
+      <c r="C30" s="96">
+        <v>500</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="82">
+        <v>350</v>
+      </c>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="79">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="82"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="7">
+        <v>45471</v>
+      </c>
+      <c r="C31" s="96">
+        <v>500</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="79">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="82"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45472</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="82">
+        <v>700</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="82">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="82">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="82">
+        <v>500</v>
+      </c>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="79">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="82"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45473</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="82">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="79">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="82"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="18">
+        <f>SUM(C4:C33)</f>
+        <v>10000</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
+        <v>4000</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="O34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="S34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="18">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="U34" s="18">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+      <c r="V34" s="18">
+        <f t="shared" si="2"/>
+        <v>6635</v>
+      </c>
+      <c r="W34" s="18">
+        <f t="shared" si="2"/>
+        <v>10002</v>
+      </c>
+      <c r="X34" s="18">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="Y34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="18">
+        <f>SUM(Z4:Z33)</f>
+        <v>78937</v>
+      </c>
+      <c r="AA34" s="18">
+        <f>SUM(AA4:AA33)</f>
+        <v>45000</v>
+      </c>
+      <c r="AB34" s="18">
+        <f>SUM(AB4:AB33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="18">
+        <f>SUM(AC4:AC33)</f>
+        <v>45000</v>
+      </c>
+      <c r="AD34" s="44">
+        <f>AC34-Z34</f>
+        <v>-33937</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Апрель 2024" sheetId="1" r:id="rId1"/>
@@ -589,30 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -645,6 +621,30 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -953,37 +953,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -992,45 +992,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68" t="s">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="69" t="s">
+      <c r="AA2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -2514,10 +2514,10 @@
       <c r="AD33" s="37"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="18">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2652,7 +2652,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2671,37 +2671,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2710,45 +2710,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68" t="s">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="69" t="s">
+      <c r="AA2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="B32" s="7">
         <v>45441</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="92">
         <v>405</v>
       </c>
       <c r="D32" s="9"/>
@@ -4175,17 +4175,20 @@
       </c>
       <c r="AD32" s="37"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="7">
         <v>45442</v>
       </c>
-      <c r="C33" s="17">
-        <v>500</v>
-      </c>
-      <c r="D33" s="9"/>
+      <c r="C33" s="12">
+        <v>280</v>
+      </c>
+      <c r="D33" s="25">
+        <f>170 + 400</f>
+        <v>570</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="13"/>
@@ -4199,7 +4202,9 @@
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="22"/>
+      <c r="P33" s="16">
+        <v>600</v>
+      </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
@@ -4211,7 +4216,7 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="40">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1450</v>
       </c>
       <c r="AA33" s="41"/>
       <c r="AB33" s="41"/>
@@ -4266,17 +4271,17 @@
       <c r="AD34" s="37"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="18">
         <f>SUM(C4:C34)</f>
-        <v>5563</v>
+        <v>5343</v>
       </c>
       <c r="D35" s="18">
         <f t="shared" ref="D35:AC35" si="2">SUM(D4:D34)</f>
-        <v>2406</v>
+        <v>2976</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
@@ -4324,7 +4329,7 @@
       </c>
       <c r="P35" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q35" s="18">
         <f t="shared" si="2"/>
@@ -4364,7 +4369,7 @@
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="2"/>
-        <v>43742</v>
+        <v>44692</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="2"/>
@@ -4380,7 +4385,7 @@
       </c>
       <c r="AD35" s="44">
         <f>AC35-Z35</f>
-        <v>638</v>
+        <v>-312</v>
       </c>
     </row>
   </sheetData>
@@ -4403,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4422,37 +4427,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -4461,45 +4466,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68" t="s">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
       <c r="Z2" s="36"/>
-      <c r="AA2" s="69" t="s">
+      <c r="AA2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
       <c r="AD2" s="37" t="s">
         <v>9</v>
       </c>
@@ -4597,52 +4602,52 @@
       <c r="B4" s="7">
         <v>45444</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="96">
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="88">
         <v>1000</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="82">
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="74">
         <v>1500</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="82">
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="74">
         <v>800</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="82">
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="74">
         <v>500</v>
       </c>
-      <c r="U4" s="98">
+      <c r="U4" s="15">
         <v>17600</v>
       </c>
-      <c r="V4" s="101">
+      <c r="V4" s="93">
         <v>6635</v>
       </c>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79">
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="71">
         <f>SUM(C4:Y4)</f>
         <v>28035</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="73">
         <f>SUM(AA4:AB4)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="82"/>
+      <c r="AD4" s="74"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
@@ -4651,42 +4656,42 @@
       <c r="B5" s="7">
         <v>45445</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="82">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="74">
         <v>1000</v>
       </c>
-      <c r="U5" s="84"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="79">
+      <c r="U5" s="76"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="71">
         <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
         <v>1000</v>
       </c>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81">
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="73">
         <f t="shared" ref="AC5:AC33" si="1">SUM(AA5:AB5)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="82"/>
+      <c r="AD5" s="74"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
@@ -4695,42 +4700,42 @@
       <c r="B6" s="7">
         <v>45446</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="88">
         <v>500</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="79">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="82"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="74"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="3" t="s">
@@ -4739,44 +4744,44 @@
       <c r="B7" s="7">
         <v>45447</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="88">
         <v>500</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="91">
         <v>1000</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="79">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="71">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="82"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="74"/>
     </row>
     <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="3" t="s">
@@ -4785,44 +4790,44 @@
       <c r="B8" s="7">
         <v>45448</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="88">
         <v>500</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="79">
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA8" s="96">
+      <c r="AA8" s="88">
         <v>25000</v>
       </c>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="81">
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="73">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="AD8" s="82"/>
+      <c r="AD8" s="74"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
@@ -4831,44 +4836,44 @@
       <c r="B9" s="7">
         <v>45449</v>
       </c>
-      <c r="C9" s="96">
+      <c r="C9" s="88">
         <v>500</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="82">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="74">
         <v>350</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="79">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="71">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="82"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="74"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
@@ -4877,44 +4882,44 @@
       <c r="B10" s="7">
         <v>45450</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="88">
         <v>500</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="82">
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="74">
         <v>10002</v>
       </c>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79">
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="71">
         <f t="shared" si="0"/>
         <v>10502</v>
       </c>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="82"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="74"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="3" t="s">
@@ -4923,48 +4928,48 @@
       <c r="B11" s="7">
         <v>45451</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="82">
+      <c r="C11" s="62"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="74">
         <v>700</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="96">
+      <c r="F11" s="63"/>
+      <c r="G11" s="88">
         <v>1000</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="82">
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="74">
         <v>1500</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="82">
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="74">
         <v>500</v>
       </c>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79">
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="71">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="82"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="74"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="3" t="s">
@@ -4973,42 +4978,42 @@
       <c r="B12" s="7">
         <v>45452</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="82">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="74">
         <v>1000</v>
       </c>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="79">
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="71">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="82"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="74"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="3" t="s">
@@ -5017,42 +5022,42 @@
       <c r="B13" s="7">
         <v>45453</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="88">
         <v>500</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="79">
+      <c r="D13" s="78"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="82"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="74"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
@@ -5061,44 +5066,44 @@
       <c r="B14" s="7">
         <v>45454</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="88">
         <v>500</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="74">
         <v>1000</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="79">
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="71">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="82"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="74"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="3" t="s">
@@ -5107,42 +5112,42 @@
       <c r="B15" s="7">
         <v>45455</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="88">
         <v>500</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="79">
+      <c r="D15" s="78"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="82"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="74"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
@@ -5151,44 +5156,44 @@
       <c r="B16" s="7">
         <v>45456</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C16" s="88">
         <v>500</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="82">
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="74">
         <v>350</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="79">
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="71">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="82"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="74"/>
     </row>
     <row r="17" spans="1:30" ht="15.75">
       <c r="A17" s="3" t="s">
@@ -5197,42 +5202,42 @@
       <c r="B17" s="7">
         <v>45457</v>
       </c>
-      <c r="C17" s="96">
+      <c r="C17" s="88">
         <v>500</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="79">
+      <c r="D17" s="83"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="82"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="74"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
@@ -5241,50 +5246,50 @@
       <c r="B18" s="7">
         <v>45458</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="82">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="74">
         <v>700</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="96">
+      <c r="F18" s="63"/>
+      <c r="G18" s="88">
         <v>1000</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="82">
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="74">
         <v>1500</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="82">
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="74">
         <v>5000</v>
       </c>
-      <c r="S18" s="76"/>
-      <c r="T18" s="82">
+      <c r="S18" s="68"/>
+      <c r="T18" s="74">
         <v>500</v>
       </c>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="79">
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="71">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="82"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="74"/>
     </row>
     <row r="19" spans="1:30" ht="15.75">
       <c r="A19" s="3" t="s">
@@ -5293,42 +5298,42 @@
       <c r="B19" s="7">
         <v>45459</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="82">
+      <c r="C19" s="62"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="74">
         <v>1000</v>
       </c>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="79">
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="71">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="82"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="74"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
       <c r="A20" s="3" t="s">
@@ -5337,42 +5342,42 @@
       <c r="B20" s="7">
         <v>45460</v>
       </c>
-      <c r="C20" s="96">
+      <c r="C20" s="88">
         <v>500</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="79">
+      <c r="D20" s="83"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="82"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="74"/>
     </row>
     <row r="21" spans="1:30" ht="15.75">
       <c r="A21" s="3" t="s">
@@ -5381,44 +5386,44 @@
       <c r="B21" s="7">
         <v>45461</v>
       </c>
-      <c r="C21" s="96">
+      <c r="C21" s="88">
         <v>500</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="91">
         <v>1000</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="79">
+      <c r="E21" s="78"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="71">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="82"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="74"/>
     </row>
     <row r="22" spans="1:30" ht="15.75">
       <c r="A22" s="3" t="s">
@@ -5427,42 +5432,42 @@
       <c r="B22" s="7">
         <v>45462</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="88">
         <v>500</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="79">
+      <c r="D22" s="63"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="82"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="74"/>
     </row>
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="3" t="s">
@@ -5471,46 +5476,46 @@
       <c r="B23" s="7">
         <v>45463</v>
       </c>
-      <c r="C23" s="96">
+      <c r="C23" s="88">
         <v>500</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="82">
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="74">
         <v>350</v>
       </c>
-      <c r="M23" s="94"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="79">
+      <c r="M23" s="86"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="71">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA23" s="97">
+      <c r="AA23" s="89">
         <v>20000</v>
       </c>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="81">
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="73">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="AD23" s="82"/>
+      <c r="AD23" s="74"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3" t="s">
@@ -5519,42 +5524,42 @@
       <c r="B24" s="7">
         <v>45464</v>
       </c>
-      <c r="C24" s="96">
+      <c r="C24" s="88">
         <v>500</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="79">
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="80"/>
-      <c r="AC24" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="82"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="74"/>
     </row>
     <row r="25" spans="1:30" ht="15.75">
       <c r="A25" s="3" t="s">
@@ -5563,48 +5568,48 @@
       <c r="B25" s="7">
         <v>45465</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="99">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="91">
         <v>700</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="82">
+      <c r="F25" s="63"/>
+      <c r="G25" s="74">
         <v>1000</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="82">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="74">
         <v>1500</v>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="82">
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="74">
         <v>500</v>
       </c>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="79">
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="82"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="74"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3" t="s">
@@ -5613,42 +5618,42 @@
       <c r="B26" s="7">
         <v>45466</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="82">
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="74">
         <v>1000</v>
       </c>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="79">
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="71">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="82"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="74"/>
     </row>
     <row r="27" spans="1:30" ht="15.75">
       <c r="A27" s="3" t="s">
@@ -5657,42 +5662,42 @@
       <c r="B27" s="7">
         <v>45467</v>
       </c>
-      <c r="C27" s="96">
+      <c r="C27" s="88">
         <v>500</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="79">
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="82"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="74"/>
     </row>
     <row r="28" spans="1:30" ht="15.75">
       <c r="A28" s="3" t="s">
@@ -5701,46 +5706,46 @@
       <c r="B28" s="7">
         <v>45468</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="74">
         <v>500</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="91">
         <v>1000</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="98">
+      <c r="E28" s="78"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="90">
         <v>700</v>
       </c>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="79">
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="71">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="82"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="74"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3" t="s">
@@ -5749,42 +5754,42 @@
       <c r="B29" s="7">
         <v>45469</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="74">
         <v>500</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="79">
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="82"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="74"/>
     </row>
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="3" t="s">
@@ -5793,44 +5798,44 @@
       <c r="B30" s="7">
         <v>45470</v>
       </c>
-      <c r="C30" s="96">
+      <c r="C30" s="88">
         <v>500</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="82">
+      <c r="D30" s="78"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="74">
         <v>350</v>
       </c>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="79">
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="71">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="82"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="74"/>
     </row>
     <row r="31" spans="1:30" ht="15.75">
       <c r="A31" s="3" t="s">
@@ -5839,42 +5844,42 @@
       <c r="B31" s="7">
         <v>45471</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="88">
         <v>500</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="79">
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="82"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="74"/>
     </row>
     <row r="32" spans="1:30" ht="15.75">
       <c r="A32" s="3" t="s">
@@ -5883,48 +5888,48 @@
       <c r="B32" s="7">
         <v>45472</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="82">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="74">
         <v>700</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="82">
+      <c r="F32" s="63"/>
+      <c r="G32" s="74">
         <v>1000</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="82">
+      <c r="H32" s="66"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="74">
         <v>1500</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="82">
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="74">
         <v>500</v>
       </c>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="79">
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="71">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="80"/>
-      <c r="AC32" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="82"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="74"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3" t="s">
@@ -5933,48 +5938,48 @@
       <c r="B33" s="7">
         <v>45473</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="82">
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="74">
         <v>1000</v>
       </c>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="79">
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="71">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="82"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="74"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="18">
         <f>SUM(C4:C33)</f>
         <v>10000</v>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -64,6 +64,31 @@
           </rPr>
           <t xml:space="preserve">
 Беспроводные наушники
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Собянин Евгений Андреевич</author>
+  </authors>
+  <commentList>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Доставка ключей
 </t>
         </r>
       </text>
@@ -211,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +332,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="22">
@@ -4408,7 +4440,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4703,8 +4735,8 @@
       <c r="B6" s="7">
         <v>45446</v>
       </c>
-      <c r="C6" s="87">
-        <v>500</v>
+      <c r="C6" s="12">
+        <v>273</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -4730,7 +4762,7 @@
       <c r="Y6" s="69"/>
       <c r="Z6" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="AA6" s="76"/>
       <c r="AB6" s="71"/>
@@ -4747,17 +4779,19 @@
       <c r="B7" s="7">
         <v>45447</v>
       </c>
-      <c r="C7" s="87">
-        <v>500</v>
-      </c>
-      <c r="D7" s="90">
-        <v>1000</v>
+      <c r="C7" s="12">
+        <v>268</v>
+      </c>
+      <c r="D7" s="15">
+        <v>984</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
       <c r="G7" s="78"/>
       <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="I7" s="16">
+        <v>429</v>
+      </c>
       <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -4776,7 +4810,7 @@
       <c r="Y7" s="69"/>
       <c r="Z7" s="70">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1681</v>
       </c>
       <c r="AA7" s="71"/>
       <c r="AB7" s="71"/>
@@ -4793,8 +4827,8 @@
       <c r="B8" s="7">
         <v>45448</v>
       </c>
-      <c r="C8" s="87">
-        <v>500</v>
+      <c r="C8" s="12">
+        <v>288</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
@@ -4820,15 +4854,15 @@
       <c r="Y8" s="69"/>
       <c r="Z8" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AA8" s="87">
-        <v>25000</v>
+        <v>288</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>32868</v>
       </c>
       <c r="AB8" s="71"/>
       <c r="AC8" s="72">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>32868</v>
       </c>
       <c r="AD8" s="73"/>
     </row>
@@ -5985,11 +6019,11 @@
       <c r="B34" s="93"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>10000</v>
+        <v>9329</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
-        <v>4000</v>
+        <v>3984</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
@@ -6009,7 +6043,7 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="2"/>
@@ -6077,11 +6111,11 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>77717</v>
+        <v>77459</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
-        <v>45000</v>
+        <v>52868</v>
       </c>
       <c r="AB34" s="17">
         <f>SUM(AB4:AB33)</f>
@@ -6089,11 +6123,11 @@
       </c>
       <c r="AC34" s="17">
         <f>SUM(AC4:AC33)</f>
-        <v>45000</v>
+        <v>52868</v>
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-32717</v>
+        <v>-24591</v>
       </c>
     </row>
   </sheetData>
@@ -6109,5 +6143,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4440,7 +4440,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4873,8 +4873,8 @@
       <c r="B9" s="7">
         <v>45449</v>
       </c>
-      <c r="C9" s="87">
-        <v>500</v>
+      <c r="C9" s="12">
+        <v>322</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -4884,8 +4884,8 @@
       <c r="I9" s="65"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="73">
-        <v>350</v>
+      <c r="L9" s="12">
+        <v>0</v>
       </c>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
@@ -4902,7 +4902,7 @@
       <c r="Y9" s="69"/>
       <c r="Z9" s="70">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>322</v>
       </c>
       <c r="AA9" s="71"/>
       <c r="AB9" s="71"/>
@@ -6019,7 +6019,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>9329</v>
+        <v>9151</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="L34" s="17">
         <f t="shared" si="2"/>
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="2"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>77459</v>
+        <v>76931</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-24591</v>
+        <v>-24063</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4440,7 +4440,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4912,15 +4912,15 @@
       </c>
       <c r="AD9" s="73"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="7">
         <v>45450</v>
       </c>
-      <c r="C10" s="87">
-        <v>500</v>
+      <c r="C10" s="12">
+        <v>291</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="62"/>
@@ -4941,14 +4941,14 @@
       <c r="T10" s="67"/>
       <c r="U10" s="69"/>
       <c r="V10" s="69"/>
-      <c r="W10" s="73">
-        <v>10002</v>
+      <c r="W10" s="15">
+        <v>10000</v>
       </c>
       <c r="X10" s="69"/>
       <c r="Y10" s="69"/>
       <c r="Z10" s="70">
         <f t="shared" si="0"/>
-        <v>10502</v>
+        <v>10291</v>
       </c>
       <c r="AA10" s="71"/>
       <c r="AB10" s="71"/>
@@ -6019,7 +6019,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>9151</v>
+        <v>8942</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="W34" s="17">
         <f t="shared" si="2"/>
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="X34" s="17">
         <f t="shared" si="2"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>76931</v>
+        <v>76720</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-24063</v>
+        <v>-23852</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Другое\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Май 2024" sheetId="2" r:id="rId2"/>
     <sheet name="Июнь 2024" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,7 +27,7 @@
     <author>easob</author>
   </authors>
   <commentList>
-    <comment ref="AB25" authorId="0">
+    <comment ref="AB25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="1">
+    <comment ref="O30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
     <author>Собянин Евгений Андреевич</author>
   </authors>
   <commentList>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -694,6 +699,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -955,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1387,12 +1395,12 @@
       </c>
       <c r="AA8" s="12">
         <f>28701.52+15727</f>
-        <v>44428.52</v>
+        <v>44428.520000000004</v>
       </c>
       <c r="AB8" s="38"/>
       <c r="AC8" s="57">
         <f t="shared" si="1"/>
-        <v>44428.52</v>
+        <v>44428.520000000004</v>
       </c>
       <c r="AD8" s="36"/>
     </row>
@@ -2659,7 +2667,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>902.52000000000396</v>
+        <v>902.52000000000407</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4436,11 +4444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4967,17 +4975,17 @@
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="82"/>
-      <c r="E11" s="73">
-        <v>700</v>
+      <c r="E11" s="16">
+        <v>799</v>
       </c>
       <c r="F11" s="62"/>
-      <c r="G11" s="87">
-        <v>1000</v>
+      <c r="G11" s="12">
+        <v>0</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
-      <c r="J11" s="73">
-        <v>1500</v>
+      <c r="J11" s="12">
+        <v>0</v>
       </c>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
@@ -4988,8 +4996,8 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="83"/>
       <c r="S11" s="67"/>
-      <c r="T11" s="73">
-        <v>500</v>
+      <c r="T11" s="12">
+        <v>0</v>
       </c>
       <c r="U11" s="69"/>
       <c r="V11" s="69"/>
@@ -4998,7 +5006,7 @@
       <c r="Y11" s="69"/>
       <c r="Z11" s="70">
         <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>799</v>
       </c>
       <c r="AA11" s="71"/>
       <c r="AB11" s="71"/>
@@ -5016,8 +5024,12 @@
         <v>45452</v>
       </c>
       <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="D12" s="15">
+        <v>687</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1340</v>
+      </c>
       <c r="F12" s="62"/>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
@@ -5032,8 +5044,8 @@
       <c r="Q12" s="67"/>
       <c r="R12" s="67"/>
       <c r="S12" s="83"/>
-      <c r="T12" s="73">
-        <v>1000</v>
+      <c r="T12" s="12">
+        <v>0</v>
       </c>
       <c r="U12" s="69"/>
       <c r="V12" s="69"/>
@@ -5042,7 +5054,7 @@
       <c r="Y12" s="69"/>
       <c r="Z12" s="70">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2027</v>
       </c>
       <c r="AA12" s="71"/>
       <c r="AB12" s="71"/>
@@ -6023,11 +6035,11 @@
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
-        <v>3984</v>
+        <v>4671</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
-        <v>3380</v>
+        <v>4819</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="2"/>
@@ -6035,59 +6047,59 @@
       </c>
       <c r="G34" s="17">
         <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="O34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="17">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="S34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="17">
+        <f t="shared" si="2"/>
         <v>4500</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="2"/>
-        <v>429</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="2"/>
-        <v>7200</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="O34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="17">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="S34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="17">
-        <f t="shared" si="2"/>
-        <v>6000</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="2"/>
@@ -6111,7 +6123,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>76720</v>
+        <v>74846</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6127,7 +6139,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-23852</v>
+        <v>-21978</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Другое\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="2"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Май 2024" sheetId="2" r:id="rId2"/>
     <sheet name="Июнь 2024" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
     <author>easob</author>
   </authors>
   <commentList>
-    <comment ref="AB25" authorId="0" shapeId="0">
+    <comment ref="AB25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="1" shapeId="0">
+    <comment ref="O30" authorId="1">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
     <author>Собянин Евгений Андреевич</author>
   </authors>
   <commentList>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -963,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2687,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4444,11 +4439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5024,7 +5019,7 @@
         <v>45452</v>
       </c>
       <c r="C12" s="61"/>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>687</v>
       </c>
       <c r="E12" s="16">
@@ -5071,15 +5066,18 @@
       <c r="B13" s="7">
         <v>45453</v>
       </c>
-      <c r="C13" s="87">
-        <v>500</v>
+      <c r="C13" s="12">
+        <f>290+45</f>
+        <v>335</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="78"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="16">
+        <v>229</v>
+      </c>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="85"/>
@@ -5098,7 +5096,7 @@
       <c r="Y13" s="69"/>
       <c r="Z13" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="AA13" s="71"/>
       <c r="AB13" s="71"/>
@@ -5118,9 +5116,7 @@
       <c r="C14" s="87">
         <v>500</v>
       </c>
-      <c r="D14" s="73">
-        <v>1000</v>
-      </c>
+      <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="65"/>
@@ -5144,7 +5140,7 @@
       <c r="Y14" s="69"/>
       <c r="Z14" s="70">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AA14" s="71"/>
       <c r="AB14" s="71"/>
@@ -6031,11 +6027,11 @@
       <c r="B34" s="93"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>8942</v>
+        <v>8777</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
-        <v>4671</v>
+        <v>3671</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
@@ -6055,7 +6051,7 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>658</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="2"/>
@@ -6123,7 +6119,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>74846</v>
+        <v>73910</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6139,7 +6135,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-21978</v>
+        <v>-21042</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4443,7 +4443,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4452,7 +4452,7 @@
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5106,22 +5106,26 @@
       </c>
       <c r="AD13" s="73"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="7">
         <v>45454</v>
       </c>
-      <c r="C14" s="87">
-        <v>500</v>
+      <c r="C14" s="46">
+        <v>516</v>
       </c>
       <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="E14" s="16">
+        <v>284</v>
+      </c>
       <c r="F14" s="62"/>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="I14" s="16">
+        <v>419</v>
+      </c>
       <c r="J14" s="74"/>
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
@@ -5140,7 +5144,7 @@
       <c r="Y14" s="69"/>
       <c r="Z14" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1219</v>
       </c>
       <c r="AA14" s="71"/>
       <c r="AB14" s="71"/>
@@ -5157,8 +5161,8 @@
       <c r="B15" s="7">
         <v>45455</v>
       </c>
-      <c r="C15" s="87">
-        <v>500</v>
+      <c r="C15" s="12">
+        <v>0</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="62"/>
@@ -5184,7 +5188,7 @@
       <c r="Y15" s="69"/>
       <c r="Z15" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="71"/>
       <c r="AB15" s="71"/>
@@ -5194,28 +5198,34 @@
       </c>
       <c r="AD15" s="73"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7">
         <v>45456</v>
       </c>
-      <c r="C16" s="87">
-        <v>500</v>
-      </c>
-      <c r="D16" s="62"/>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>488</v>
+      </c>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="I16" s="16">
+        <v>33</v>
+      </c>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="73">
         <v>350</v>
       </c>
-      <c r="M16" s="66"/>
+      <c r="M16" s="16">
+        <v>1243</v>
+      </c>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
       <c r="P16" s="67"/>
@@ -5230,7 +5240,7 @@
       <c r="Y16" s="69"/>
       <c r="Z16" s="70">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>2114</v>
       </c>
       <c r="AA16" s="71"/>
       <c r="AB16" s="71"/>
@@ -6027,15 +6037,15 @@
       <c r="B34" s="93"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>8777</v>
+        <v>7793</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
-        <v>3671</v>
+        <v>4159</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
-        <v>4819</v>
+        <v>5103</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="2"/>
@@ -6051,7 +6061,7 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>658</v>
+        <v>1110</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="2"/>
@@ -6067,7 +6077,7 @@
       </c>
       <c r="M34" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="2"/>
@@ -6119,7 +6129,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>73910</v>
+        <v>75393</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6135,7 +6145,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-21042</v>
+        <v>-22525</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -89,6 +89,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Доставка ключей
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Спальный набор, подушка, маска ,глицин
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Лазанья Адольфа
 </t>
         </r>
       </text>
@@ -236,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +364,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -4443,7 +4478,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5164,7 +5199,9 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="77"/>
+      <c r="D15" s="16">
+        <v>488</v>
+      </c>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="65"/>
@@ -5173,7 +5210,9 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="M15" s="16">
+        <v>1243</v>
+      </c>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
       <c r="P15" s="67"/>
@@ -5188,7 +5227,7 @@
       <c r="Y15" s="69"/>
       <c r="Z15" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1731</v>
       </c>
       <c r="AA15" s="71"/>
       <c r="AB15" s="71"/>
@@ -5206,11 +5245,9 @@
         <v>45456</v>
       </c>
       <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>488</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
       <c r="G16" s="65"/>
@@ -5220,19 +5257,19 @@
       </c>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
-      <c r="L16" s="73">
-        <v>350</v>
-      </c>
-      <c r="M16" s="16">
-        <v>1243</v>
-      </c>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
+      <c r="O16" s="16">
+        <v>3067</v>
+      </c>
       <c r="P16" s="67"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="67"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
+      <c r="T16" s="16">
+        <v>100</v>
+      </c>
       <c r="U16" s="69"/>
       <c r="V16" s="69"/>
       <c r="W16" s="69"/>
@@ -5240,7 +5277,7 @@
       <c r="Y16" s="69"/>
       <c r="Z16" s="70">
         <f t="shared" si="0"/>
-        <v>2114</v>
+        <v>3545</v>
       </c>
       <c r="AA16" s="71"/>
       <c r="AB16" s="71"/>
@@ -5257,15 +5294,17 @@
       <c r="B17" s="7">
         <v>45457</v>
       </c>
-      <c r="C17" s="87">
-        <v>500</v>
+      <c r="C17" s="12">
+        <v>328</v>
       </c>
       <c r="D17" s="82"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
       <c r="G17" s="65"/>
       <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
+      <c r="I17" s="16">
+        <v>30</v>
+      </c>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="86"/>
@@ -5284,7 +5323,7 @@
       <c r="Y17" s="69"/>
       <c r="Z17" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>358</v>
       </c>
       <c r="AA17" s="71"/>
       <c r="AB17" s="71"/>
@@ -5303,17 +5342,17 @@
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="73">
-        <v>700</v>
+      <c r="E18" s="12">
+        <v>0</v>
       </c>
       <c r="F18" s="62"/>
-      <c r="G18" s="87">
-        <v>1000</v>
+      <c r="G18" s="12">
+        <v>0</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
-      <c r="J18" s="73">
-        <v>1500</v>
+      <c r="J18" s="12">
+        <v>0</v>
       </c>
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
@@ -5322,12 +5361,10 @@
       <c r="O18" s="66"/>
       <c r="P18" s="67"/>
       <c r="Q18" s="67"/>
-      <c r="R18" s="73">
-        <v>5000</v>
-      </c>
+      <c r="R18" s="67"/>
       <c r="S18" s="67"/>
-      <c r="T18" s="73">
-        <v>500</v>
+      <c r="T18" s="12">
+        <v>0</v>
       </c>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
@@ -5336,7 +5373,7 @@
       <c r="Y18" s="69"/>
       <c r="Z18" s="70">
         <f t="shared" si="0"/>
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -5356,13 +5393,17 @@
       <c r="C19" s="61"/>
       <c r="D19" s="77"/>
       <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="F19" s="12">
+        <v>1500</v>
+      </c>
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="L19" s="15">
+        <v>350</v>
+      </c>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -5370,8 +5411,8 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="73">
-        <v>1000</v>
+      <c r="T19" s="12">
+        <v>0</v>
       </c>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
@@ -5380,7 +5421,7 @@
       <c r="Y19" s="69"/>
       <c r="Z19" s="70">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1850</v>
       </c>
       <c r="AA19" s="71"/>
       <c r="AB19" s="71"/>
@@ -5550,7 +5591,9 @@
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
+      <c r="R23" s="73">
+        <v>5000</v>
+      </c>
       <c r="S23" s="67"/>
       <c r="T23" s="67"/>
       <c r="U23" s="69"/>
@@ -5560,7 +5603,7 @@
       <c r="Y23" s="69"/>
       <c r="Z23" s="70">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>5850</v>
       </c>
       <c r="AA23" s="88">
         <v>20000</v>
@@ -6037,7 +6080,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>7793</v>
+        <v>7966</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
@@ -6045,15 +6088,15 @@
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
-        <v>5103</v>
+        <v>4403</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="17">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="2"/>
@@ -6061,11 +6104,11 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>1140</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="2"/>
-        <v>5700</v>
+        <v>4200</v>
       </c>
       <c r="K34" s="17">
         <f t="shared" si="2"/>
@@ -6085,7 +6128,7 @@
       </c>
       <c r="O34" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3067</v>
       </c>
       <c r="P34" s="17">
         <f t="shared" si="2"/>
@@ -6105,7 +6148,7 @@
       </c>
       <c r="T34" s="17">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>3100</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="2"/>
@@ -6129,7 +6172,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>75393</v>
+        <v>75563</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6145,7 +6188,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-22525</v>
+        <v>-22695</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -118,6 +118,21 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Лазанья Адольфа
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Черешня
 </t>
         </r>
       </text>
@@ -573,7 +588,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -682,7 +697,6 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -711,6 +725,8 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1022,37 +1038,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -1061,45 +1077,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="99" t="s">
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="100" t="s">
+      <c r="AA2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -2583,10 +2599,10 @@
       <c r="AD33" s="36"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="93"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2740,37 +2756,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2779,45 +2795,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="99" t="s">
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="100" t="s">
+      <c r="AA2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -4205,7 +4221,7 @@
       <c r="B32" s="7">
         <v>45441</v>
       </c>
-      <c r="C32" s="91">
+      <c r="C32" s="90">
         <v>405</v>
       </c>
       <c r="D32" s="9"/>
@@ -4340,10 +4356,10 @@
       <c r="AD34" s="36"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="93"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
         <v>5124</v>
@@ -4478,7 +4494,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4496,37 +4512,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -4535,45 +4551,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="99" t="s">
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="100" t="s">
+      <c r="AA2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -4704,7 +4720,7 @@
       <c r="U4" s="15">
         <v>17600</v>
       </c>
-      <c r="V4" s="92">
+      <c r="V4" s="91">
         <v>6635</v>
       </c>
       <c r="W4" s="69"/>
@@ -5438,10 +5454,12 @@
       <c r="B20" s="7">
         <v>45460</v>
       </c>
-      <c r="C20" s="87">
-        <v>500</v>
-      </c>
-      <c r="D20" s="82"/>
+      <c r="C20" s="12">
+        <v>362</v>
+      </c>
+      <c r="D20" s="15">
+        <v>80</v>
+      </c>
       <c r="E20" s="77"/>
       <c r="F20" s="62"/>
       <c r="G20" s="65"/>
@@ -5465,7 +5483,7 @@
       <c r="Y20" s="69"/>
       <c r="Z20" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="AA20" s="71"/>
       <c r="AB20" s="71"/>
@@ -5482,11 +5500,11 @@
       <c r="B21" s="7">
         <v>45461</v>
       </c>
-      <c r="C21" s="87">
-        <v>500</v>
-      </c>
-      <c r="D21" s="90">
-        <v>1000</v>
+      <c r="C21" s="12">
+        <v>280</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
       </c>
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
@@ -5511,7 +5529,7 @@
       <c r="Y21" s="69"/>
       <c r="Z21" s="70">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>280</v>
       </c>
       <c r="AA21" s="71"/>
       <c r="AB21" s="71"/>
@@ -5528,8 +5546,8 @@
       <c r="B22" s="7">
         <v>45462</v>
       </c>
-      <c r="C22" s="87">
-        <v>500</v>
+      <c r="C22" s="12">
+        <v>398</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="77"/>
@@ -5547,7 +5565,9 @@
       <c r="Q22" s="67"/>
       <c r="R22" s="67"/>
       <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
+      <c r="T22" s="16">
+        <v>1100</v>
+      </c>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
       <c r="W22" s="69"/>
@@ -5555,7 +5575,7 @@
       <c r="Y22" s="69"/>
       <c r="Z22" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1498</v>
       </c>
       <c r="AA22" s="71"/>
       <c r="AB22" s="71"/>
@@ -5572,10 +5592,12 @@
       <c r="B23" s="7">
         <v>45463</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="24">
         <v>500</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="15">
+        <v>70</v>
+      </c>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
       <c r="G23" s="63"/>
@@ -5583,17 +5605,15 @@
       <c r="I23" s="65"/>
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
-      <c r="L23" s="73">
-        <v>350</v>
+      <c r="L23" s="15">
+        <v>0</v>
       </c>
       <c r="M23" s="85"/>
       <c r="N23" s="74"/>
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="73">
-        <v>5000</v>
-      </c>
+      <c r="R23" s="101"/>
       <c r="S23" s="67"/>
       <c r="T23" s="67"/>
       <c r="U23" s="69"/>
@@ -5603,29 +5623,31 @@
       <c r="Y23" s="69"/>
       <c r="Z23" s="70">
         <f t="shared" si="0"/>
-        <v>5850</v>
-      </c>
-      <c r="AA23" s="88">
-        <v>20000</v>
+        <v>570</v>
+      </c>
+      <c r="AA23" s="46">
+        <v>19741</v>
       </c>
       <c r="AB23" s="71"/>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>19741</v>
       </c>
       <c r="AD23" s="73"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="7">
         <v>45464</v>
       </c>
-      <c r="C24" s="87">
-        <v>500</v>
-      </c>
-      <c r="D24" s="61"/>
+      <c r="C24" s="12">
+        <v>300</v>
+      </c>
+      <c r="D24" s="24">
+        <v>196</v>
+      </c>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
       <c r="G24" s="65"/>
@@ -5649,7 +5671,7 @@
       <c r="Y24" s="69"/>
       <c r="Z24" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AA24" s="71"/>
       <c r="AB24" s="71"/>
@@ -5668,17 +5690,15 @@
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="62"/>
-      <c r="E25" s="90">
-        <v>700</v>
-      </c>
+      <c r="E25" s="77"/>
       <c r="F25" s="62"/>
-      <c r="G25" s="73">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="73">
-        <v>1500</v>
+      <c r="G25" s="65"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="16">
+        <v>388</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
       </c>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
@@ -5689,9 +5709,7 @@
       <c r="Q25" s="67"/>
       <c r="R25" s="67"/>
       <c r="S25" s="67"/>
-      <c r="T25" s="73">
-        <v>500</v>
-      </c>
+      <c r="T25" s="67"/>
       <c r="U25" s="69"/>
       <c r="V25" s="69"/>
       <c r="W25" s="69"/>
@@ -5699,7 +5717,7 @@
       <c r="Y25" s="69"/>
       <c r="Z25" s="70">
         <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>388</v>
       </c>
       <c r="AA25" s="71"/>
       <c r="AB25" s="71"/>
@@ -5709,7 +5727,7 @@
       </c>
       <c r="AD25" s="73"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" ht="15.75">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -5733,8 +5751,8 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="67"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="73">
-        <v>1000</v>
+      <c r="T26" s="15">
+        <v>1500</v>
       </c>
       <c r="U26" s="69"/>
       <c r="V26" s="69"/>
@@ -5743,7 +5761,7 @@
       <c r="Y26" s="69"/>
       <c r="Z26" s="70">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="AA26" s="71"/>
       <c r="AB26" s="71"/>
@@ -5807,7 +5825,7 @@
       <c r="C28" s="73">
         <v>500</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="89">
         <v>1000</v>
       </c>
       <c r="E28" s="77"/>
@@ -5823,19 +5841,21 @@
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
+      <c r="R28" s="73">
+        <v>5000</v>
+      </c>
       <c r="S28" s="67"/>
       <c r="T28" s="67"/>
       <c r="U28" s="69"/>
       <c r="V28" s="69"/>
       <c r="W28" s="69"/>
-      <c r="X28" s="89">
+      <c r="X28" s="88">
         <v>700</v>
       </c>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>7200</v>
       </c>
       <c r="AA28" s="71"/>
       <c r="AB28" s="71"/>
@@ -6074,21 +6094,21 @@
       <c r="AD33" s="73"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="93"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>7966</v>
+        <v>7306</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
-        <v>4159</v>
+        <v>3505</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
-        <v>4403</v>
+        <v>3703</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="2"/>
@@ -6096,7 +6116,7 @@
       </c>
       <c r="G34" s="17">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="2"/>
@@ -6104,51 +6124,51 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>1140</v>
+        <v>1528</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="2"/>
+        <v>1243</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="O34" s="17">
+        <f t="shared" si="2"/>
+        <v>3067</v>
+      </c>
+      <c r="P34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="17">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="S34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="17">
+        <f t="shared" si="2"/>
         <v>4200</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="2"/>
-        <v>1243</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="O34" s="17">
-        <f t="shared" si="2"/>
-        <v>3067</v>
-      </c>
-      <c r="P34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="17">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="S34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="17">
-        <f t="shared" si="2"/>
-        <v>3100</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="2"/>
@@ -6172,11 +6192,11 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>75563</v>
+        <v>72187</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
-        <v>52868</v>
+        <v>52609</v>
       </c>
       <c r="AB34" s="17">
         <f>SUM(AB4:AB33)</f>
@@ -6184,11 +6204,11 @@
       </c>
       <c r="AC34" s="17">
         <f>SUM(AC4:AC33)</f>
-        <v>52868</v>
+        <v>52609</v>
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-22695</v>
+        <v>-19578</v>
       </c>
     </row>
   </sheetData>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Апрель 2024" sheetId="1" r:id="rId1"/>
     <sheet name="Май 2024" sheetId="2" r:id="rId2"/>
     <sheet name="Июнь 2024" sheetId="3" r:id="rId3"/>
+    <sheet name="Июль 2024" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -141,8 +142,33 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Собянин Евгений Андреевич</author>
+  </authors>
+  <commentList>
+    <comment ref="T22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Черешня
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="46">
   <si>
     <t>Доходы - Расходы Апрель 2024</t>
   </si>
@@ -272,6 +298,15 @@
   <si>
     <t>Доходы - Расходы Май 2024</t>
   </si>
+  <si>
+    <t>Доходы - Расходы Июнь 2024</t>
+  </si>
+  <si>
+    <t>Лимиты</t>
+  </si>
+  <si>
+    <t>Остаток по категории</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +425,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +566,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -588,7 +648,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,10 +757,10 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,8 +785,41 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -4221,7 +4314,7 @@
       <c r="B32" s="7">
         <v>45441</v>
       </c>
-      <c r="C32" s="90">
+      <c r="C32" s="88">
         <v>405</v>
       </c>
       <c r="D32" s="9"/>
@@ -4493,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4513,7 +4606,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
       <c r="A1" s="93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -4720,7 +4813,7 @@
       <c r="U4" s="15">
         <v>17600</v>
       </c>
-      <c r="V4" s="91">
+      <c r="V4" s="89">
         <v>6635</v>
       </c>
       <c r="W4" s="69"/>
@@ -5613,7 +5706,7 @@
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="101"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="67"/>
       <c r="T23" s="67"/>
       <c r="U23" s="69"/>
@@ -5693,7 +5786,7 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="100"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="16">
         <v>388</v>
       </c>
@@ -5778,10 +5871,12 @@
       <c r="B27" s="7">
         <v>45467</v>
       </c>
-      <c r="C27" s="87">
-        <v>500</v>
-      </c>
-      <c r="D27" s="62"/>
+      <c r="C27" s="46">
+        <v>550</v>
+      </c>
+      <c r="D27" s="15">
+        <v>703</v>
+      </c>
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
       <c r="G27" s="65"/>
@@ -5805,7 +5900,7 @@
       <c r="Y27" s="69"/>
       <c r="Z27" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1253</v>
       </c>
       <c r="AA27" s="71"/>
       <c r="AB27" s="71"/>
@@ -5822,11 +5917,12 @@
       <c r="B28" s="7">
         <v>45468</v>
       </c>
-      <c r="C28" s="73">
-        <v>500</v>
-      </c>
-      <c r="D28" s="89">
-        <v>1000</v>
+      <c r="C28" s="12">
+        <f>384+61</f>
+        <v>445</v>
+      </c>
+      <c r="D28" s="15">
+        <v>687</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
@@ -5841,21 +5937,22 @@
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="67"/>
-      <c r="R28" s="73">
-        <v>5000</v>
+      <c r="R28" s="15">
+        <f>2000+7407-5000</f>
+        <v>4407</v>
       </c>
       <c r="S28" s="67"/>
       <c r="T28" s="67"/>
       <c r="U28" s="69"/>
       <c r="V28" s="69"/>
       <c r="W28" s="69"/>
-      <c r="X28" s="88">
+      <c r="X28" s="15">
         <v>700</v>
       </c>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>6239</v>
       </c>
       <c r="AA28" s="71"/>
       <c r="AB28" s="71"/>
@@ -5865,22 +5962,25 @@
       </c>
       <c r="AD28" s="73"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="7">
         <v>45469</v>
       </c>
-      <c r="C29" s="73">
-        <v>500</v>
+      <c r="C29" s="16">
+        <f>458+50</f>
+        <v>508</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="62"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
+      <c r="I29" s="16">
+        <v>157</v>
+      </c>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
@@ -5899,7 +5999,7 @@
       <c r="Y29" s="69"/>
       <c r="Z29" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>665</v>
       </c>
       <c r="AA29" s="71"/>
       <c r="AB29" s="71"/>
@@ -5916,8 +6016,8 @@
       <c r="B30" s="7">
         <v>45470</v>
       </c>
-      <c r="C30" s="87">
-        <v>500</v>
+      <c r="C30" s="46">
+        <v>579</v>
       </c>
       <c r="D30" s="77"/>
       <c r="E30" s="62"/>
@@ -5927,7 +6027,7 @@
       <c r="I30" s="65"/>
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="73">
+      <c r="L30" s="15">
         <v>350</v>
       </c>
       <c r="M30" s="66"/>
@@ -5945,7 +6045,7 @@
       <c r="Y30" s="69"/>
       <c r="Z30" s="70">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>929</v>
       </c>
       <c r="AA30" s="71"/>
       <c r="AB30" s="71"/>
@@ -5962,15 +6062,18 @@
       <c r="B31" s="7">
         <v>45471</v>
       </c>
-      <c r="C31" s="87">
-        <v>500</v>
+      <c r="C31" s="46">
+        <f>250+480</f>
+        <v>730</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="I31" s="15">
+        <v>336</v>
+      </c>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="85"/>
@@ -5989,7 +6092,7 @@
       <c r="Y31" s="69"/>
       <c r="Z31" s="70">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1066</v>
       </c>
       <c r="AA31" s="71"/>
       <c r="AB31" s="71"/>
@@ -6008,17 +6111,17 @@
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
-      <c r="E32" s="73">
-        <v>700</v>
+      <c r="E32" s="12">
+        <v>0</v>
       </c>
       <c r="F32" s="62"/>
-      <c r="G32" s="73">
-        <v>1000</v>
+      <c r="G32" s="12">
+        <v>0</v>
       </c>
       <c r="H32" s="65"/>
       <c r="I32" s="64"/>
-      <c r="J32" s="73">
-        <v>1500</v>
+      <c r="J32" s="12">
+        <v>0</v>
       </c>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
@@ -6029,8 +6132,8 @@
       <c r="Q32" s="67"/>
       <c r="R32" s="67"/>
       <c r="S32" s="67"/>
-      <c r="T32" s="73">
-        <v>500</v>
+      <c r="T32" s="12">
+        <v>0</v>
       </c>
       <c r="U32" s="69"/>
       <c r="V32" s="69"/>
@@ -6039,7 +6142,7 @@
       <c r="Y32" s="69"/>
       <c r="Z32" s="70">
         <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="71"/>
       <c r="AB32" s="71"/>
@@ -6049,7 +6152,7 @@
       </c>
       <c r="AD32" s="73"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -6058,7 +6161,9 @@
       </c>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
+      <c r="E33" s="15">
+        <v>550</v>
+      </c>
       <c r="F33" s="62"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -6073,8 +6178,8 @@
       <c r="Q33" s="67"/>
       <c r="R33" s="67"/>
       <c r="S33" s="67"/>
-      <c r="T33" s="73">
-        <v>1000</v>
+      <c r="T33" s="12">
+        <v>0</v>
       </c>
       <c r="U33" s="69"/>
       <c r="V33" s="69"/>
@@ -6083,7 +6188,7 @@
       <c r="Y33" s="69"/>
       <c r="Z33" s="70">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AA33" s="71"/>
       <c r="AB33" s="71"/>
@@ -6100,15 +6205,15 @@
       <c r="B34" s="92"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
-        <v>7306</v>
+        <v>7618</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" ref="D34:Y34" si="2">SUM(D4:D33)</f>
-        <v>3505</v>
+        <v>3895</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="2"/>
-        <v>3703</v>
+        <v>3553</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="2"/>
@@ -6116,7 +6221,7 @@
       </c>
       <c r="G34" s="17">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="2"/>
@@ -6124,51 +6229,51 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>1528</v>
+        <v>2021</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="2"/>
+        <v>1243</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="O34" s="17">
+        <f t="shared" si="2"/>
+        <v>3067</v>
+      </c>
+      <c r="P34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="17">
+        <f t="shared" si="2"/>
+        <v>4407</v>
+      </c>
+      <c r="S34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="17">
+        <f t="shared" si="2"/>
         <v>2700</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="2"/>
-        <v>1150</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="2"/>
-        <v>1243</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="O34" s="17">
-        <f t="shared" si="2"/>
-        <v>3067</v>
-      </c>
-      <c r="P34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="17">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="S34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="17">
-        <f t="shared" si="2"/>
-        <v>4200</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="2"/>
@@ -6192,7 +6297,7 @@
       </c>
       <c r="Z34" s="17">
         <f>SUM(Z4:Z33)</f>
-        <v>72187</v>
+        <v>68639</v>
       </c>
       <c r="AA34" s="17">
         <f>SUM(AA4:AA33)</f>
@@ -6208,7 +6313,7 @@
       </c>
       <c r="AD34" s="43">
         <f>AC34-Z34</f>
-        <v>-19578</v>
+        <v>-16030</v>
       </c>
     </row>
   </sheetData>
@@ -6226,4 +6331,1870 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="26.25">
+      <c r="A1" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="36"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C4" s="87">
+        <v>400</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="115">
+        <v>17600</v>
+      </c>
+      <c r="V4" s="116">
+        <v>6635</v>
+      </c>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="70">
+        <f>SUM(C4:Y4)</f>
+        <v>24635</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72">
+        <f>SUM(AA4:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="73"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45475</v>
+      </c>
+      <c r="C5" s="87">
+        <v>400</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="70">
+        <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
+        <v>400</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72">
+        <f t="shared" ref="AC5:AC33" si="1">SUM(AA5:AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="73"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45476</v>
+      </c>
+      <c r="C6" s="128">
+        <v>400</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="73"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45477</v>
+      </c>
+      <c r="C7" s="128">
+        <v>400</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="73"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45478</v>
+      </c>
+      <c r="C8" s="128">
+        <v>400</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="73"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45479</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="73"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45480</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="115">
+        <v>10000</v>
+      </c>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="73"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45481</v>
+      </c>
+      <c r="C11" s="87">
+        <v>400</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="73"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45482</v>
+      </c>
+      <c r="C12" s="87">
+        <v>400</v>
+      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="73"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45483</v>
+      </c>
+      <c r="C13" s="128">
+        <v>400</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="73"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45484</v>
+      </c>
+      <c r="C14" s="129">
+        <v>400</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="73"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C15" s="128">
+        <v>400</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="73"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45486</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="73"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45487</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="73"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45488</v>
+      </c>
+      <c r="C18" s="87">
+        <v>400</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="73"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45489</v>
+      </c>
+      <c r="C19" s="87">
+        <v>400</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="73"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45490</v>
+      </c>
+      <c r="C20" s="128">
+        <v>400</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="73"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45491</v>
+      </c>
+      <c r="C21" s="128">
+        <v>400</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="73"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45492</v>
+      </c>
+      <c r="C22" s="128">
+        <v>400</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="73"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45493</v>
+      </c>
+      <c r="C23" s="123"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="73"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7">
+        <v>45494</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="73"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="7">
+        <v>45495</v>
+      </c>
+      <c r="C25" s="87">
+        <v>400</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="73"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7">
+        <v>45496</v>
+      </c>
+      <c r="C26" s="87">
+        <v>400</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="73"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45497</v>
+      </c>
+      <c r="C27" s="129">
+        <v>400</v>
+      </c>
+      <c r="D27" s="117"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="73"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="7">
+        <v>45498</v>
+      </c>
+      <c r="C28" s="128">
+        <v>400</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="115">
+        <v>700</v>
+      </c>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="73"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45499</v>
+      </c>
+      <c r="C29" s="130">
+        <v>400</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="73"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45500</v>
+      </c>
+      <c r="C30" s="121"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="73"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7">
+        <v>45501</v>
+      </c>
+      <c r="C31" s="121"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="73"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45502</v>
+      </c>
+      <c r="C32" s="73">
+        <v>400</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="73"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45503</v>
+      </c>
+      <c r="C33" s="73">
+        <v>400</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="73"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="7">
+        <v>45504</v>
+      </c>
+      <c r="C34" s="73">
+        <v>400</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="70">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="17">
+        <f>SUM(C4:C34)</f>
+        <v>9200</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" ref="D35:Z35" si="2">SUM(D4:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="17">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+      <c r="V35" s="17">
+        <f t="shared" si="2"/>
+        <v>6635</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="X35" s="17">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="Y35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="17">
+        <f t="shared" si="2"/>
+        <v>44135</v>
+      </c>
+      <c r="AA35" s="17">
+        <f>SUM(AA4:AA34)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="17">
+        <f t="shared" ref="AB35:AC35" si="3">SUM(AB4:AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="43">
+        <f>AC35-Z35</f>
+        <v>-44135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107">
+        <v>7500</v>
+      </c>
+      <c r="D36" s="107">
+        <v>4500</v>
+      </c>
+      <c r="E36" s="107">
+        <v>3300</v>
+      </c>
+      <c r="F36" s="107">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="107">
+        <v>1500</v>
+      </c>
+      <c r="H36" s="107">
+        <v>0</v>
+      </c>
+      <c r="I36" s="107">
+        <v>0</v>
+      </c>
+      <c r="J36" s="107">
+        <v>1500</v>
+      </c>
+      <c r="K36" s="107">
+        <v>0</v>
+      </c>
+      <c r="L36" s="107">
+        <v>700</v>
+      </c>
+      <c r="M36" s="107">
+        <v>0</v>
+      </c>
+      <c r="N36" s="107">
+        <v>850</v>
+      </c>
+      <c r="O36" s="107">
+        <v>0</v>
+      </c>
+      <c r="P36" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107">
+        <v>600</v>
+      </c>
+      <c r="S36" s="107">
+        <v>0</v>
+      </c>
+      <c r="T36" s="107">
+        <v>13000</v>
+      </c>
+      <c r="U36" s="107">
+        <v>17600</v>
+      </c>
+      <c r="V36" s="107">
+        <v>6635</v>
+      </c>
+      <c r="W36" s="107">
+        <v>10000</v>
+      </c>
+      <c r="X36" s="107">
+        <v>700</v>
+      </c>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107">
+        <f>SUM(C36:Y36)</f>
+        <v>69385</v>
+      </c>
+      <c r="AA36" s="107">
+        <v>47000</v>
+      </c>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="36">
+        <f>AA36-Z36</f>
+        <v>-22385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109">
+        <f>C36-C35</f>
+        <v>-1700</v>
+      </c>
+      <c r="D37" s="109">
+        <f t="shared" ref="D37:Y37" si="4">D36-D35</f>
+        <v>4500</v>
+      </c>
+      <c r="E37" s="109">
+        <f t="shared" si="4"/>
+        <v>3300</v>
+      </c>
+      <c r="F37" s="109">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G37" s="109">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="H37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="109">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="K37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="109">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="M37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="109">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="O37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="109">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="S37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="109">
+        <f t="shared" si="4"/>
+        <v>13000</v>
+      </c>
+      <c r="U37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -148,6 +148,21 @@
     <author>Собянин Евгений Андреевич</author>
   </authors>
   <commentList>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Шампунь
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T22" authorId="0">
       <text>
         <r>
@@ -315,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +451,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -648,7 +677,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -761,6 +790,33 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,41 +841,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1131,37 +1161,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -1170,45 +1200,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="98" t="s">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="99" t="s">
+      <c r="AA2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -2692,10 +2722,10 @@
       <c r="AD33" s="36"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="92"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2849,37 +2879,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2888,45 +2918,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="98" t="s">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="99" t="s">
+      <c r="AA2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -4449,10 +4479,10 @@
       <c r="AD34" s="36"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="92"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
         <v>5124</v>
@@ -4605,37 +4635,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -4644,45 +4674,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="98" t="s">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="99" t="s">
+      <c r="AA2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -6199,10 +6229,10 @@
       <c r="AD33" s="73"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="92"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>7618</v>
@@ -6338,7 +6368,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6355,37 +6385,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -6394,45 +6424,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="98" t="s">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="99" t="s">
+      <c r="AA2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -6530,30 +6560,30 @@
       <c r="B4" s="7">
         <v>45474</v>
       </c>
-      <c r="C4" s="87">
-        <v>400</v>
+      <c r="C4" s="12">
+        <v>248</v>
       </c>
       <c r="D4" s="62"/>
-      <c r="E4" s="110"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="62"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="112"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="66"/>
-      <c r="L4" s="113"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="66"/>
-      <c r="N4" s="114"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="66"/>
       <c r="P4" s="67"/>
       <c r="Q4" s="67"/>
       <c r="R4" s="68"/>
       <c r="S4" s="67"/>
       <c r="T4" s="67"/>
-      <c r="U4" s="115">
+      <c r="U4" s="15">
         <v>17600</v>
       </c>
-      <c r="V4" s="116">
+      <c r="V4" s="24">
         <v>6635</v>
       </c>
       <c r="W4" s="69"/>
@@ -6561,7 +6591,7 @@
       <c r="Y4" s="69"/>
       <c r="Z4" s="70">
         <f>SUM(C4:Y4)</f>
-        <v>24635</v>
+        <v>24483</v>
       </c>
       <c r="AA4" s="71"/>
       <c r="AB4" s="71"/>
@@ -6578,15 +6608,15 @@
       <c r="B5" s="7">
         <v>45475</v>
       </c>
-      <c r="C5" s="87">
-        <v>400</v>
+      <c r="C5" s="12">
+        <v>350</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="74"/>
@@ -6605,7 +6635,7 @@
       <c r="Y5" s="69"/>
       <c r="Z5" s="70">
         <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AA5" s="71"/>
       <c r="AB5" s="71"/>
@@ -6615,28 +6645,34 @@
       </c>
       <c r="AD5" s="73"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7">
         <v>45476</v>
       </c>
-      <c r="C6" s="128">
-        <v>400</v>
-      </c>
-      <c r="D6" s="62"/>
+      <c r="C6" s="46">
+        <v>553</v>
+      </c>
+      <c r="D6" s="15">
+        <v>597</v>
+      </c>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="16">
+        <v>292</v>
+      </c>
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
       <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
+      <c r="O6" s="15">
+        <v>1287</v>
+      </c>
       <c r="P6" s="67"/>
       <c r="Q6" s="67"/>
       <c r="R6" s="67"/>
@@ -6649,7 +6685,7 @@
       <c r="Y6" s="69"/>
       <c r="Z6" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>2729</v>
       </c>
       <c r="AA6" s="76"/>
       <c r="AB6" s="71"/>
@@ -6666,15 +6702,17 @@
       <c r="B7" s="7">
         <v>45477</v>
       </c>
-      <c r="C7" s="128">
-        <v>400</v>
-      </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="62"/>
+      <c r="C7" s="12">
+        <v>309</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="16">
+        <v>650</v>
+      </c>
       <c r="F7" s="62"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="118"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -6693,7 +6731,7 @@
       <c r="Y7" s="69"/>
       <c r="Z7" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>959</v>
       </c>
       <c r="AA7" s="71"/>
       <c r="AB7" s="71"/>
@@ -6710,15 +6748,17 @@
       <c r="B8" s="7">
         <v>45478</v>
       </c>
-      <c r="C8" s="128">
-        <v>400</v>
+      <c r="C8" s="12">
+        <v>340</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="101"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="16">
+        <v>232</v>
+      </c>
       <c r="J8" s="66"/>
       <c r="K8" s="80"/>
       <c r="L8" s="81"/>
@@ -6737,33 +6777,38 @@
       <c r="Y8" s="69"/>
       <c r="Z8" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="AA8" s="104"/>
+        <v>572</v>
+      </c>
+      <c r="AA8" s="129">
+        <f>31868+15727</f>
+        <v>47595</v>
+      </c>
       <c r="AB8" s="71"/>
       <c r="AC8" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47595</v>
       </c>
       <c r="AD8" s="73"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="7">
         <v>45479</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="E9" s="130">
+        <v>650</v>
+      </c>
       <c r="F9" s="62"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="112"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
@@ -6779,7 +6824,7 @@
       <c r="Y9" s="69"/>
       <c r="Z9" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AA9" s="71"/>
       <c r="AB9" s="71"/>
@@ -6796,13 +6841,17 @@
       <c r="B10" s="7">
         <v>45480</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="89">
+        <v>1045</v>
+      </c>
+      <c r="E10" s="130">
+        <v>840</v>
+      </c>
       <c r="F10" s="62"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
@@ -6816,14 +6865,14 @@
       <c r="T10" s="67"/>
       <c r="U10" s="69"/>
       <c r="V10" s="69"/>
-      <c r="W10" s="115">
+      <c r="W10" s="131">
         <v>10000</v>
       </c>
       <c r="X10" s="69"/>
       <c r="Y10" s="69"/>
       <c r="Z10" s="70">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>11885</v>
       </c>
       <c r="AA10" s="71"/>
       <c r="AB10" s="71"/>
@@ -6840,16 +6889,21 @@
       <c r="B11" s="7">
         <v>45481</v>
       </c>
-      <c r="C11" s="87">
-        <v>400</v>
-      </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="88">
+        <f>558-210</f>
+        <v>348</v>
+      </c>
+      <c r="D11" s="131">
+        <v>418</v>
+      </c>
+      <c r="E11" s="107"/>
       <c r="F11" s="62"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="112"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="130">
+        <v>181</v>
+      </c>
+      <c r="J11" s="101"/>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
@@ -6859,7 +6913,7 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="83"/>
       <c r="S11" s="67"/>
-      <c r="T11" s="120"/>
+      <c r="T11" s="108"/>
       <c r="U11" s="69"/>
       <c r="V11" s="69"/>
       <c r="W11" s="84"/>
@@ -6867,7 +6921,7 @@
       <c r="Y11" s="69"/>
       <c r="Z11" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>947</v>
       </c>
       <c r="AA11" s="71"/>
       <c r="AB11" s="71"/>
@@ -6887,12 +6941,12 @@
       <c r="C12" s="87">
         <v>400</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="62"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
@@ -6903,7 +6957,7 @@
       <c r="Q12" s="67"/>
       <c r="R12" s="67"/>
       <c r="S12" s="83"/>
-      <c r="T12" s="120"/>
+      <c r="T12" s="108"/>
       <c r="U12" s="69"/>
       <c r="V12" s="69"/>
       <c r="W12" s="69"/>
@@ -6928,15 +6982,15 @@
       <c r="B13" s="7">
         <v>45483</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="116">
         <v>400</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="85"/>
@@ -6972,15 +7026,15 @@
       <c r="B14" s="7">
         <v>45484</v>
       </c>
-      <c r="C14" s="129">
+      <c r="C14" s="117">
         <v>400</v>
       </c>
       <c r="D14" s="62"/>
-      <c r="E14" s="119"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="62"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="74"/>
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
@@ -7016,19 +7070,19 @@
       <c r="B15" s="7">
         <v>45485</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="116">
         <v>400</v>
       </c>
-      <c r="D15" s="119"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="101"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
-      <c r="M15" s="113"/>
+      <c r="M15" s="102"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
       <c r="P15" s="67"/>
@@ -7060,24 +7114,24 @@
       <c r="B16" s="7">
         <v>45486</v>
       </c>
-      <c r="C16" s="110"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="113"/>
+      <c r="O16" s="102"/>
       <c r="P16" s="67"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="67"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="122"/>
+      <c r="T16" s="110"/>
       <c r="U16" s="69"/>
       <c r="V16" s="69"/>
       <c r="W16" s="69"/>
@@ -7102,13 +7156,13 @@
       <c r="B17" s="7">
         <v>45487</v>
       </c>
-      <c r="C17" s="110"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="82"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="118"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="86"/>
@@ -7148,12 +7202,12 @@
         <v>400</v>
       </c>
       <c r="D18" s="62"/>
-      <c r="E18" s="110"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="112"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="101"/>
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
       <c r="M18" s="66"/>
@@ -7163,7 +7217,7 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
-      <c r="T18" s="120"/>
+      <c r="T18" s="108"/>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
       <c r="W18" s="69"/>
@@ -7193,13 +7247,13 @@
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="62"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="114"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -7207,7 +7261,7 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="120"/>
+      <c r="T19" s="108"/>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
       <c r="W19" s="69"/>
@@ -7232,15 +7286,15 @@
       <c r="B20" s="7">
         <v>45490</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="116">
         <v>400</v>
       </c>
-      <c r="D20" s="117"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="77"/>
       <c r="F20" s="62"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="100"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="92"/>
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
@@ -7276,15 +7330,15 @@
       <c r="B21" s="7">
         <v>45491</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="116">
         <v>400</v>
       </c>
-      <c r="D21" s="117"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="74"/>
       <c r="K21" s="66"/>
       <c r="L21" s="66"/>
@@ -7320,15 +7374,15 @@
       <c r="B22" s="7">
         <v>45492</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="116">
         <v>400</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="77"/>
       <c r="F22" s="62"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="101"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="66"/>
       <c r="K22" s="80"/>
       <c r="L22" s="74"/>
@@ -7339,7 +7393,7 @@
       <c r="Q22" s="67"/>
       <c r="R22" s="67"/>
       <c r="S22" s="67"/>
-      <c r="T22" s="122"/>
+      <c r="T22" s="110"/>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
       <c r="W22" s="69"/>
@@ -7364,22 +7418,22 @@
       <c r="B23" s="7">
         <v>45493</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="117"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
-      <c r="L23" s="114"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="85"/>
       <c r="N23" s="74"/>
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="124"/>
+      <c r="R23" s="112"/>
       <c r="S23" s="67"/>
       <c r="T23" s="67"/>
       <c r="U23" s="69"/>
@@ -7391,7 +7445,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="105"/>
+      <c r="AA23" s="96"/>
       <c r="AB23" s="71"/>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
@@ -7406,13 +7460,13 @@
       <c r="B24" s="7">
         <v>45494</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="123"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="66"/>
@@ -7454,10 +7508,10 @@
       <c r="D25" s="62"/>
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="112"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="101"/>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
       <c r="M25" s="66"/>
@@ -7498,9 +7552,9 @@
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="80"/>
@@ -7511,7 +7565,7 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="67"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="126"/>
+      <c r="T26" s="114"/>
       <c r="U26" s="69"/>
       <c r="V26" s="69"/>
       <c r="W26" s="69"/>
@@ -7536,15 +7590,15 @@
       <c r="B27" s="7">
         <v>45497</v>
       </c>
-      <c r="C27" s="129">
+      <c r="C27" s="117">
         <v>400</v>
       </c>
-      <c r="D27" s="117"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
       <c r="J27" s="80"/>
       <c r="K27" s="66"/>
       <c r="L27" s="81"/>
@@ -7580,15 +7634,15 @@
       <c r="B28" s="7">
         <v>45498</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="116">
         <v>400</v>
       </c>
-      <c r="D28" s="117"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
       <c r="J28" s="74"/>
       <c r="K28" s="66"/>
       <c r="L28" s="66"/>
@@ -7597,13 +7651,13 @@
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="67"/>
-      <c r="R28" s="126"/>
+      <c r="R28" s="114"/>
       <c r="S28" s="67"/>
       <c r="T28" s="67"/>
       <c r="U28" s="69"/>
       <c r="V28" s="69"/>
       <c r="W28" s="69"/>
-      <c r="X28" s="115">
+      <c r="X28" s="104">
         <v>700</v>
       </c>
       <c r="Y28" s="69"/>
@@ -7626,15 +7680,15 @@
       <c r="B29" s="7">
         <v>45499</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="118">
         <v>400</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="62"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="118"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
@@ -7670,16 +7724,16 @@
       <c r="B30" s="7">
         <v>45500</v>
       </c>
-      <c r="C30" s="121"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="77"/>
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="114"/>
+      <c r="L30" s="103"/>
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
       <c r="O30" s="66"/>
@@ -7712,13 +7766,13 @@
       <c r="B31" s="7">
         <v>45501</v>
       </c>
-      <c r="C31" s="121"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="127"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="115"/>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="85"/>
@@ -7758,12 +7812,12 @@
         <v>400</v>
       </c>
       <c r="D32" s="62"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="62"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="112"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="101"/>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
       <c r="M32" s="66"/>
@@ -7773,7 +7827,7 @@
       <c r="Q32" s="67"/>
       <c r="R32" s="67"/>
       <c r="S32" s="67"/>
-      <c r="T32" s="120"/>
+      <c r="T32" s="108"/>
       <c r="U32" s="69"/>
       <c r="V32" s="69"/>
       <c r="W32" s="69"/>
@@ -7802,11 +7856,11 @@
         <v>400</v>
       </c>
       <c r="D33" s="62"/>
-      <c r="E33" s="117"/>
+      <c r="E33" s="105"/>
       <c r="F33" s="62"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="74"/>
@@ -7817,7 +7871,7 @@
       <c r="Q33" s="67"/>
       <c r="R33" s="67"/>
       <c r="S33" s="67"/>
-      <c r="T33" s="120"/>
+      <c r="T33" s="108"/>
       <c r="U33" s="69"/>
       <c r="V33" s="69"/>
       <c r="W33" s="69"/>
@@ -7846,11 +7900,11 @@
         <v>400</v>
       </c>
       <c r="D34" s="62"/>
-      <c r="E34" s="117"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="62"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
       <c r="J34" s="66"/>
       <c r="K34" s="66"/>
       <c r="L34" s="74"/>
@@ -7861,7 +7915,7 @@
       <c r="Q34" s="67"/>
       <c r="R34" s="67"/>
       <c r="S34" s="67"/>
-      <c r="T34" s="120"/>
+      <c r="T34" s="108"/>
       <c r="U34" s="69"/>
       <c r="V34" s="69"/>
       <c r="W34" s="69"/>
@@ -7877,21 +7931,21 @@
       <c r="AD34" s="73"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="92"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
-        <v>9200</v>
+        <v>8948</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" ref="D35:Z35" si="2">SUM(D4:D34)</f>
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2140</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" si="2"/>
@@ -7907,7 +7961,7 @@
       </c>
       <c r="I35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" si="2"/>
@@ -7931,7 +7985,7 @@
       </c>
       <c r="O35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="P35" s="17">
         <f t="shared" si="2"/>
@@ -7975,11 +8029,11 @@
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="2"/>
-        <v>44135</v>
+        <v>50075</v>
       </c>
       <c r="AA35" s="17">
         <f>SUM(AA4:AA34)</f>
-        <v>0</v>
+        <v>47595</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" ref="AB35:AC35" si="3">SUM(AB4:AB34)</f>
@@ -7987,199 +8041,199 @@
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>47595</v>
       </c>
       <c r="AD35" s="43">
         <f>AC35-Z35</f>
-        <v>-44135</v>
+        <v>-2480</v>
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="107">
+      <c r="B36" s="127"/>
+      <c r="C36" s="97">
         <v>7500</v>
       </c>
-      <c r="D36" s="107">
+      <c r="D36" s="97">
         <v>4500</v>
       </c>
-      <c r="E36" s="107">
+      <c r="E36" s="97">
         <v>3300</v>
       </c>
-      <c r="F36" s="107">
+      <c r="F36" s="97">
         <v>1000</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="97">
         <v>1500</v>
       </c>
-      <c r="H36" s="107">
-        <v>0</v>
-      </c>
-      <c r="I36" s="107">
-        <v>0</v>
-      </c>
-      <c r="J36" s="107">
+      <c r="H36" s="97">
+        <v>0</v>
+      </c>
+      <c r="I36" s="97">
+        <v>0</v>
+      </c>
+      <c r="J36" s="97">
         <v>1500</v>
       </c>
-      <c r="K36" s="107">
-        <v>0</v>
-      </c>
-      <c r="L36" s="107">
+      <c r="K36" s="97">
+        <v>0</v>
+      </c>
+      <c r="L36" s="97">
         <v>700</v>
       </c>
-      <c r="M36" s="107">
-        <v>0</v>
-      </c>
-      <c r="N36" s="107">
+      <c r="M36" s="97">
+        <v>0</v>
+      </c>
+      <c r="N36" s="97">
         <v>850</v>
       </c>
-      <c r="O36" s="107">
-        <v>0</v>
-      </c>
-      <c r="P36" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107">
+      <c r="O36" s="97">
+        <v>0</v>
+      </c>
+      <c r="P36" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97">
         <v>600</v>
       </c>
-      <c r="S36" s="107">
-        <v>0</v>
-      </c>
-      <c r="T36" s="107">
+      <c r="S36" s="97">
+        <v>0</v>
+      </c>
+      <c r="T36" s="97">
         <v>13000</v>
       </c>
-      <c r="U36" s="107">
+      <c r="U36" s="97">
         <v>17600</v>
       </c>
-      <c r="V36" s="107">
+      <c r="V36" s="97">
         <v>6635</v>
       </c>
-      <c r="W36" s="107">
+      <c r="W36" s="97">
         <v>10000</v>
       </c>
-      <c r="X36" s="107">
+      <c r="X36" s="97">
         <v>700</v>
       </c>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107">
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97">
         <f>SUM(C36:Y36)</f>
         <v>69385</v>
       </c>
-      <c r="AA36" s="107">
+      <c r="AA36" s="97">
         <v>47000</v>
       </c>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
       <c r="AD36" s="36">
         <f>AA36-Z36</f>
         <v>-22385</v>
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109">
+      <c r="B37" s="128"/>
+      <c r="C37" s="98">
         <f>C36-C35</f>
-        <v>-1700</v>
-      </c>
-      <c r="D37" s="109">
+        <v>-1448</v>
+      </c>
+      <c r="D37" s="98">
         <f t="shared" ref="D37:Y37" si="4">D36-D35</f>
-        <v>4500</v>
-      </c>
-      <c r="E37" s="109">
+        <v>2440</v>
+      </c>
+      <c r="E37" s="98">
         <f t="shared" si="4"/>
-        <v>3300</v>
-      </c>
-      <c r="F37" s="109">
+        <v>1160</v>
+      </c>
+      <c r="F37" s="98">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="G37" s="109">
+      <c r="G37" s="98">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H37" s="109">
+      <c r="H37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I37" s="109">
+      <c r="I37" s="98">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="109">
+        <v>-705</v>
+      </c>
+      <c r="J37" s="98">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="K37" s="109">
+      <c r="K37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L37" s="109">
+      <c r="L37" s="98">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="M37" s="109">
+      <c r="M37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N37" s="109">
+      <c r="N37" s="98">
         <f t="shared" si="4"/>
         <v>850</v>
       </c>
-      <c r="O37" s="109">
+      <c r="O37" s="98">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="109">
+        <v>-1287</v>
+      </c>
+      <c r="P37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="109">
+      <c r="Q37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R37" s="109">
+      <c r="R37" s="98">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="S37" s="109">
+      <c r="S37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T37" s="109">
+      <c r="T37" s="98">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
-      <c r="U37" s="109">
+      <c r="U37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V37" s="109">
+      <c r="V37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W37" s="109">
+      <c r="W37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X37" s="109">
+      <c r="X37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="109">
+      <c r="Y37" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="109"/>
-      <c r="AD37" s="109"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="98"/>
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8195,6 +8249,7 @@
     <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -817,6 +817,9 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,9 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1161,37 +1161,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -1200,45 +1200,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="125" t="s">
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="126" t="s">
+      <c r="AA2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -2722,10 +2722,10 @@
       <c r="AD33" s="36"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2879,37 +2879,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2918,45 +2918,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="125" t="s">
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="126" t="s">
+      <c r="AA2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -4479,10 +4479,10 @@
       <c r="AD34" s="36"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="119"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
         <v>5124</v>
@@ -4635,37 +4635,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -4674,45 +4674,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="125" t="s">
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="126" t="s">
+      <c r="AA2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -6229,10 +6229,10 @@
       <c r="AD33" s="73"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>7618</v>
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6385,37 +6385,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -6424,45 +6424,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="125" t="s">
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="126" t="s">
+      <c r="AA2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -6779,7 +6779,7 @@
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="AA8" s="129">
+      <c r="AA8" s="119">
         <f>31868+15727</f>
         <v>47595</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="C9" s="99"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="130">
+      <c r="E9" s="120">
         <v>650</v>
       </c>
       <c r="F9" s="62"/>
@@ -6845,7 +6845,7 @@
       <c r="D10" s="89">
         <v>1045</v>
       </c>
-      <c r="E10" s="130">
+      <c r="E10" s="120">
         <v>840</v>
       </c>
       <c r="F10" s="62"/>
@@ -6865,7 +6865,7 @@
       <c r="T10" s="67"/>
       <c r="U10" s="69"/>
       <c r="V10" s="69"/>
-      <c r="W10" s="131">
+      <c r="W10" s="121">
         <v>10000</v>
       </c>
       <c r="X10" s="69"/>
@@ -6893,14 +6893,14 @@
         <f>558-210</f>
         <v>348</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="121">
         <v>418</v>
       </c>
       <c r="E11" s="107"/>
       <c r="F11" s="62"/>
       <c r="G11" s="100"/>
       <c r="H11" s="93"/>
-      <c r="I11" s="130">
+      <c r="I11" s="120">
         <v>181</v>
       </c>
       <c r="J11" s="101"/>
@@ -7055,11 +7055,14 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="AA14" s="71"/>
+      <c r="AA14" s="71">
+        <f>21230+15051</f>
+        <v>36281</v>
+      </c>
       <c r="AB14" s="71"/>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36281</v>
       </c>
       <c r="AD14" s="73"/>
     </row>
@@ -7931,10 +7934,10 @@
       <c r="AD34" s="73"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="119"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
         <v>8948</v>
@@ -8033,7 +8036,7 @@
       </c>
       <c r="AA35" s="17">
         <f>SUM(AA4:AA34)</f>
-        <v>47595</v>
+        <v>83876</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" ref="AB35:AC35" si="3">SUM(AB4:AB34)</f>
@@ -8041,18 +8044,18 @@
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="3"/>
-        <v>47595</v>
+        <v>83876</v>
       </c>
       <c r="AD35" s="43">
         <f>AC35-Z35</f>
-        <v>-2480</v>
+        <v>33801</v>
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="97">
         <v>7500</v>
       </c>
@@ -8133,10 +8136,10 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="98">
         <f>C36-C35</f>
         <v>-1448</v>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -159,6 +159,66 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Шампунь
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Генералон
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> Вкус Вил
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Вкус Вил
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Пицца
 </t>
         </r>
       </text>
@@ -6368,7 +6428,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6901,7 +6961,7 @@
       <c r="G11" s="100"/>
       <c r="H11" s="93"/>
       <c r="I11" s="120">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J11" s="101"/>
       <c r="K11" s="66"/>
@@ -6921,7 +6981,7 @@
       <c r="Y11" s="69"/>
       <c r="Z11" s="70">
         <f t="shared" si="0"/>
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AA11" s="71"/>
       <c r="AB11" s="71"/>
@@ -6938,10 +6998,12 @@
       <c r="B12" s="7">
         <v>45482</v>
       </c>
-      <c r="C12" s="87">
-        <v>400</v>
-      </c>
-      <c r="D12" s="99"/>
+      <c r="C12" s="12">
+        <v>320</v>
+      </c>
+      <c r="D12" s="24">
+        <v>607</v>
+      </c>
       <c r="E12" s="107"/>
       <c r="F12" s="62"/>
       <c r="G12" s="93"/>
@@ -6965,7 +7027,7 @@
       <c r="Y12" s="69"/>
       <c r="Z12" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>927</v>
       </c>
       <c r="AA12" s="71"/>
       <c r="AB12" s="71"/>
@@ -6982,8 +7044,8 @@
       <c r="B13" s="7">
         <v>45483</v>
       </c>
-      <c r="C13" s="116">
-        <v>400</v>
+      <c r="C13" s="46">
+        <v>452</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="62"/>
@@ -6993,10 +7055,14 @@
       <c r="I13" s="106"/>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="15">
+        <v>350</v>
+      </c>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="15">
+        <v>1557</v>
+      </c>
       <c r="P13" s="67"/>
       <c r="Q13" s="67"/>
       <c r="R13" s="67"/>
@@ -7009,7 +7075,7 @@
       <c r="Y13" s="69"/>
       <c r="Z13" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>2359</v>
       </c>
       <c r="AA13" s="71"/>
       <c r="AB13" s="71"/>
@@ -7026,15 +7092,17 @@
       <c r="B14" s="7">
         <v>45484</v>
       </c>
-      <c r="C14" s="117">
-        <v>400</v>
+      <c r="C14" s="46">
+        <v>429</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="107"/>
       <c r="F14" s="62"/>
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
-      <c r="I14" s="106"/>
+      <c r="I14" s="16">
+        <v>225</v>
+      </c>
       <c r="J14" s="74"/>
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
@@ -7053,7 +7121,7 @@
       <c r="Y14" s="69"/>
       <c r="Z14" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>654</v>
       </c>
       <c r="AA14" s="71">
         <f>21230+15051</f>
@@ -7073,8 +7141,8 @@
       <c r="B15" s="7">
         <v>45485</v>
       </c>
-      <c r="C15" s="116">
-        <v>400</v>
+      <c r="C15" s="12">
+        <v>0</v>
       </c>
       <c r="D15" s="107"/>
       <c r="E15" s="62"/>
@@ -7100,7 +7168,7 @@
       <c r="Y15" s="69"/>
       <c r="Z15" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="71"/>
       <c r="AB15" s="71"/>
@@ -7119,7 +7187,9 @@
       </c>
       <c r="C16" s="99"/>
       <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="E16" s="15">
+        <v>1025</v>
+      </c>
       <c r="F16" s="62"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
@@ -7142,7 +7212,7 @@
       <c r="Y16" s="69"/>
       <c r="Z16" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="AA16" s="71"/>
       <c r="AB16" s="71"/>
@@ -7161,7 +7231,9 @@
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="82"/>
-      <c r="E17" s="62"/>
+      <c r="E17" s="15">
+        <v>440</v>
+      </c>
       <c r="F17" s="62"/>
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
@@ -7184,7 +7256,7 @@
       <c r="Y17" s="69"/>
       <c r="Z17" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AA17" s="71"/>
       <c r="AB17" s="71"/>
@@ -7194,15 +7266,15 @@
       </c>
       <c r="AD17" s="73"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="7">
         <v>45488</v>
       </c>
-      <c r="C18" s="87">
-        <v>400</v>
+      <c r="C18" s="46">
+        <v>479</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="99"/>
@@ -7228,7 +7300,7 @@
       <c r="Y18" s="69"/>
       <c r="Z18" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -7245,8 +7317,8 @@
       <c r="B19" s="7">
         <v>45489</v>
       </c>
-      <c r="C19" s="87">
-        <v>400</v>
+      <c r="C19" s="12">
+        <v>148</v>
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="62"/>
@@ -7272,7 +7344,7 @@
       <c r="Y19" s="69"/>
       <c r="Z19" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>148</v>
       </c>
       <c r="AA19" s="71"/>
       <c r="AB19" s="71"/>
@@ -7289,15 +7361,19 @@
       <c r="B20" s="7">
         <v>45490</v>
       </c>
-      <c r="C20" s="116">
-        <v>400</v>
+      <c r="C20" s="12">
+        <v>291</v>
       </c>
       <c r="D20" s="105"/>
-      <c r="E20" s="77"/>
+      <c r="E20" s="16">
+        <v>620</v>
+      </c>
       <c r="F20" s="62"/>
       <c r="G20" s="93"/>
       <c r="H20" s="93"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="16">
+        <v>206</v>
+      </c>
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
@@ -7306,7 +7382,9 @@
       <c r="O20" s="66"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
+      <c r="R20" s="15">
+        <v>600</v>
+      </c>
       <c r="S20" s="67"/>
       <c r="T20" s="67"/>
       <c r="U20" s="69"/>
@@ -7316,7 +7394,7 @@
       <c r="Y20" s="69"/>
       <c r="Z20" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>1717</v>
       </c>
       <c r="AA20" s="71"/>
       <c r="AB20" s="71"/>
@@ -7333,15 +7411,17 @@
       <c r="B21" s="7">
         <v>45491</v>
       </c>
-      <c r="C21" s="116">
-        <v>400</v>
+      <c r="C21" s="46">
+        <v>474</v>
       </c>
       <c r="D21" s="105"/>
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
       <c r="G21" s="93"/>
       <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="I21" s="16">
+        <v>168</v>
+      </c>
       <c r="J21" s="74"/>
       <c r="K21" s="66"/>
       <c r="L21" s="66"/>
@@ -7360,7 +7440,7 @@
       <c r="Y21" s="69"/>
       <c r="Z21" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>642</v>
       </c>
       <c r="AA21" s="71"/>
       <c r="AB21" s="71"/>
@@ -7377,8 +7457,8 @@
       <c r="B22" s="7">
         <v>45492</v>
       </c>
-      <c r="C22" s="116">
-        <v>400</v>
+      <c r="C22" s="12">
+        <v>370</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="77"/>
@@ -7404,13 +7484,15 @@
       <c r="Y22" s="69"/>
       <c r="Z22" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="AA22" s="71"/>
+        <v>370</v>
+      </c>
+      <c r="AA22" s="71">
+        <v>26325</v>
+      </c>
       <c r="AB22" s="71"/>
       <c r="AC22" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26325</v>
       </c>
       <c r="AD22" s="73"/>
     </row>
@@ -7940,15 +8022,15 @@
       <c r="B35" s="122"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
-        <v>8948</v>
+        <v>8311</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" ref="D35:Z35" si="2">SUM(D4:D34)</f>
-        <v>2060</v>
+        <v>2667</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="2"/>
-        <v>2140</v>
+        <v>4225</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" si="2"/>
@@ -7964,7 +8046,7 @@
       </c>
       <c r="I35" s="17">
         <f t="shared" si="2"/>
-        <v>705</v>
+        <v>1305</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" si="2"/>
@@ -7976,7 +8058,7 @@
       </c>
       <c r="L35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="2"/>
@@ -7988,7 +8070,7 @@
       </c>
       <c r="O35" s="17">
         <f t="shared" si="2"/>
-        <v>1287</v>
+        <v>2844</v>
       </c>
       <c r="P35" s="17">
         <f t="shared" si="2"/>
@@ -8000,7 +8082,7 @@
       </c>
       <c r="R35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S35" s="17">
         <f t="shared" si="2"/>
@@ -8032,11 +8114,11 @@
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="2"/>
-        <v>50075</v>
+        <v>55237</v>
       </c>
       <c r="AA35" s="17">
         <f>SUM(AA4:AA34)</f>
-        <v>83876</v>
+        <v>110201</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" ref="AB35:AC35" si="3">SUM(AB4:AB34)</f>
@@ -8044,11 +8126,11 @@
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="3"/>
-        <v>83876</v>
+        <v>110201</v>
       </c>
       <c r="AD35" s="43">
         <f>AC35-Z35</f>
-        <v>33801</v>
+        <v>54964</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -8142,15 +8224,15 @@
       <c r="B37" s="131"/>
       <c r="C37" s="98">
         <f>C36-C35</f>
-        <v>-1448</v>
+        <v>-811</v>
       </c>
       <c r="D37" s="98">
         <f t="shared" ref="D37:Y37" si="4">D36-D35</f>
-        <v>2440</v>
+        <v>1833</v>
       </c>
       <c r="E37" s="98">
         <f t="shared" si="4"/>
-        <v>1160</v>
+        <v>-925</v>
       </c>
       <c r="F37" s="98">
         <f t="shared" si="4"/>
@@ -8166,7 +8248,7 @@
       </c>
       <c r="I37" s="98">
         <f t="shared" si="4"/>
-        <v>-705</v>
+        <v>-1305</v>
       </c>
       <c r="J37" s="98">
         <f t="shared" si="4"/>
@@ -8178,7 +8260,7 @@
       </c>
       <c r="L37" s="98">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M37" s="98">
         <f t="shared" si="4"/>
@@ -8190,7 +8272,7 @@
       </c>
       <c r="O37" s="98">
         <f t="shared" si="4"/>
-        <v>-1287</v>
+        <v>-2844</v>
       </c>
       <c r="P37" s="98">
         <f t="shared" si="4"/>
@@ -8202,7 +8284,7 @@
       </c>
       <c r="R37" s="98">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S37" s="98">
         <f t="shared" si="4"/>

--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -11,6 +11,7 @@
     <sheet name="Май 2024" sheetId="2" r:id="rId2"/>
     <sheet name="Июнь 2024" sheetId="3" r:id="rId3"/>
     <sheet name="Июль 2024" sheetId="4" r:id="rId4"/>
+    <sheet name="Август 2024" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -238,12 +239,125 @@
         </r>
       </text>
     </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Восток 24 с Климом
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Дополнительны ГБ
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Восток 24 с Климом 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День рождения на работе (пицца, торт, вино)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День Рождения 
+(алкашка, эник, ладжорджия)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Собянин Евгений Андреевич</author>
+  </authors>
+  <commentList>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День рождения на работе (пицца, торт, вино)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День Рождения 
+(алкашка, эник, ладжорджия)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="47">
   <si>
     <t>Доходы - Расходы Апрель 2024</t>
   </si>
@@ -381,6 +495,9 @@
   </si>
   <si>
     <t>Остаток по категории</t>
+  </si>
+  <si>
+    <t>Доходы - Расходы Июль 2024</t>
   </si>
 </sst>
 </file>
@@ -737,7 +854,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,7 +962,6 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
@@ -862,7 +978,6 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -871,15 +986,13 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,6 +1023,30 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1221,37 +1358,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -1260,45 +1397,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="128" t="s">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -2782,10 +2919,10 @@
       <c r="AD33" s="36"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="122"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -2939,37 +3076,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2978,45 +3115,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="128" t="s">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -4404,7 +4541,7 @@
       <c r="B32" s="7">
         <v>45441</v>
       </c>
-      <c r="C32" s="88">
+      <c r="C32" s="87">
         <v>405</v>
       </c>
       <c r="D32" s="9"/>
@@ -4539,10 +4676,10 @@
       <c r="AD34" s="36"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="122"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
         <v>5124</v>
@@ -4695,37 +4832,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -4734,45 +4871,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="128" t="s">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -4903,7 +5040,7 @@
       <c r="U4" s="15">
         <v>17600</v>
       </c>
-      <c r="V4" s="89">
+      <c r="V4" s="88">
         <v>6635</v>
       </c>
       <c r="W4" s="69"/>
@@ -5796,7 +5933,7 @@
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="91"/>
+      <c r="R23" s="90"/>
       <c r="S23" s="67"/>
       <c r="T23" s="67"/>
       <c r="U23" s="69"/>
@@ -5876,7 +6013,7 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="90"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="16">
         <v>388</v>
       </c>
@@ -6289,10 +6426,10 @@
       <c r="AD33" s="73"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="122"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="17">
         <f>SUM(C4:C33)</f>
         <v>7618</v>
@@ -6428,7 +6565,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6442,40 +6579,41 @@
     <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
+      <c r="A1" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -6484,45 +6622,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="128" t="s">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
       <c r="Z2" s="35"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
       <c r="AD2" s="36" t="s">
         <v>9</v>
       </c>
@@ -6624,16 +6762,16 @@
         <v>248</v>
       </c>
       <c r="D4" s="62"/>
-      <c r="E4" s="99"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="62"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="101"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="66"/>
-      <c r="L4" s="102"/>
+      <c r="L4" s="101"/>
       <c r="M4" s="66"/>
-      <c r="N4" s="103"/>
+      <c r="N4" s="102"/>
       <c r="O4" s="66"/>
       <c r="P4" s="67"/>
       <c r="Q4" s="67"/>
@@ -6674,9 +6812,9 @@
       <c r="D5" s="61"/>
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="74"/>
@@ -6720,8 +6858,8 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
       <c r="I6" s="16">
         <v>292</v>
       </c>
@@ -6765,14 +6903,14 @@
       <c r="C7" s="12">
         <v>309</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="16">
         <v>650</v>
       </c>
       <c r="F7" s="62"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="106"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -6814,8 +6952,8 @@
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="95"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="16">
         <v>232</v>
       </c>
@@ -6839,7 +6977,7 @@
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="AA8" s="119">
+      <c r="AA8" s="113">
         <f>31868+15727</f>
         <v>47595</v>
       </c>
@@ -6857,18 +6995,18 @@
       <c r="B9" s="7">
         <v>45479</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="120">
+      <c r="E9" s="114">
         <v>650</v>
       </c>
       <c r="F9" s="62"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="101"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
@@ -6901,17 +7039,17 @@
       <c r="B10" s="7">
         <v>45480</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="89">
+      <c r="C10" s="98"/>
+      <c r="D10" s="88">
         <v>1045</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="114">
         <v>840</v>
       </c>
       <c r="F10" s="62"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
@@ -6925,7 +7063,7 @@
       <c r="T10" s="67"/>
       <c r="U10" s="69"/>
       <c r="V10" s="69"/>
-      <c r="W10" s="121">
+      <c r="W10" s="115">
         <v>10000</v>
       </c>
       <c r="X10" s="69"/>
@@ -6949,21 +7087,21 @@
       <c r="B11" s="7">
         <v>45481</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="87">
         <f>558-210</f>
         <v>348</v>
       </c>
-      <c r="D11" s="121">
+      <c r="D11" s="115">
         <v>418</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="62"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="120">
+      <c r="G11" s="99"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="114">
         <v>182</v>
       </c>
-      <c r="J11" s="101"/>
+      <c r="J11" s="100"/>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
@@ -6973,7 +7111,7 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="83"/>
       <c r="S11" s="67"/>
-      <c r="T11" s="108"/>
+      <c r="T11" s="106"/>
       <c r="U11" s="69"/>
       <c r="V11" s="69"/>
       <c r="W11" s="84"/>
@@ -7004,11 +7142,11 @@
       <c r="D12" s="24">
         <v>607</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="62"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
@@ -7019,7 +7157,7 @@
       <c r="Q12" s="67"/>
       <c r="R12" s="67"/>
       <c r="S12" s="83"/>
-      <c r="T12" s="108"/>
+      <c r="T12" s="106"/>
       <c r="U12" s="69"/>
       <c r="V12" s="69"/>
       <c r="W12" s="69"/>
@@ -7050,9 +7188,9 @@
       <c r="D13" s="77"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="106"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="15">
@@ -7096,10 +7234,10 @@
         <v>429</v>
       </c>
       <c r="D14" s="62"/>
-      <c r="E14" s="107"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="62"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
       <c r="I14" s="16">
         <v>225</v>
       </c>
@@ -7144,16 +7282,16 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="93"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="92"/>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
-      <c r="M15" s="102"/>
+      <c r="M15" s="101"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
       <c r="P15" s="67"/>
@@ -7185,26 +7323,26 @@
       <c r="B16" s="7">
         <v>45486</v>
       </c>
-      <c r="C16" s="99"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="62"/>
       <c r="E16" s="15">
         <v>1025</v>
       </c>
       <c r="F16" s="62"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="106"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="102"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="67"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="67"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="110"/>
+      <c r="T16" s="108"/>
       <c r="U16" s="69"/>
       <c r="V16" s="69"/>
       <c r="W16" s="69"/>
@@ -7229,15 +7367,15 @@
       <c r="B17" s="7">
         <v>45487</v>
       </c>
-      <c r="C17" s="99"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="82"/>
       <c r="E17" s="15">
         <v>440</v>
       </c>
       <c r="F17" s="62"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="106"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="104"/>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="86"/>
@@ -7277,12 +7415,12 @@
         <v>479</v>
       </c>
       <c r="D18" s="62"/>
-      <c r="E18" s="99"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="101"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
       <c r="M18" s="66"/>
@@ -7292,7 +7430,7 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
-      <c r="T18" s="108"/>
+      <c r="T18" s="106"/>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
       <c r="W18" s="69"/>
@@ -7322,13 +7460,13 @@
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="62"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="103"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -7336,7 +7474,7 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="108"/>
+      <c r="T19" s="106"/>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
       <c r="W19" s="69"/>
@@ -7364,13 +7502,13 @@
       <c r="C20" s="12">
         <v>291</v>
       </c>
-      <c r="D20" s="105"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="16">
         <v>620</v>
       </c>
       <c r="F20" s="62"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
       <c r="I20" s="16">
         <v>206</v>
       </c>
@@ -7414,11 +7552,11 @@
       <c r="C21" s="46">
         <v>474</v>
       </c>
-      <c r="D21" s="105"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="16">
         <v>168</v>
       </c>
@@ -7463,9 +7601,11 @@
       <c r="D22" s="62"/>
       <c r="E22" s="77"/>
       <c r="F22" s="62"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="93"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="46">
+        <v>246</v>
+      </c>
+      <c r="I22" s="92"/>
       <c r="J22" s="66"/>
       <c r="K22" s="80"/>
       <c r="L22" s="74"/>
@@ -7476,7 +7616,7 @@
       <c r="Q22" s="67"/>
       <c r="R22" s="67"/>
       <c r="S22" s="67"/>
-      <c r="T22" s="110"/>
+      <c r="T22" s="108"/>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
       <c r="W22" s="69"/>
@@ -7484,7 +7624,7 @@
       <c r="Y22" s="69"/>
       <c r="Z22" s="70">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="AA22" s="71">
         <v>26325</v>
@@ -7503,22 +7643,22 @@
       <c r="B23" s="7">
         <v>45493</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="105"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
-      <c r="L23" s="103"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="85"/>
       <c r="N23" s="74"/>
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="112"/>
+      <c r="R23" s="110"/>
       <c r="S23" s="67"/>
       <c r="T23" s="67"/>
       <c r="U23" s="69"/>
@@ -7530,7 +7670,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="96"/>
+      <c r="AA23" s="95"/>
       <c r="AB23" s="71"/>
       <c r="AC23" s="72">
         <f t="shared" si="1"/>
@@ -7545,14 +7685,18 @@
       <c r="B24" s="7">
         <v>45494</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="62"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="15">
+        <v>1375</v>
+      </c>
       <c r="F24" s="62"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="66"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="15">
+        <v>1375</v>
+      </c>
       <c r="K24" s="66"/>
       <c r="L24" s="66"/>
       <c r="M24" s="66"/>
@@ -7570,7 +7714,7 @@
       <c r="Y24" s="69"/>
       <c r="Z24" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="AA24" s="71"/>
       <c r="AB24" s="71"/>
@@ -7587,16 +7731,21 @@
       <c r="B25" s="7">
         <v>45495</v>
       </c>
-      <c r="C25" s="87">
-        <v>400</v>
+      <c r="C25" s="12">
+        <v>0</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="101"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="117">
+        <v>126</v>
+      </c>
+      <c r="I25" s="16">
+        <f>134+141</f>
+        <v>275</v>
+      </c>
+      <c r="J25" s="100"/>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
       <c r="M25" s="66"/>
@@ -7610,11 +7759,13 @@
       <c r="U25" s="69"/>
       <c r="V25" s="69"/>
       <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
+      <c r="X25" s="16">
+        <v>150</v>
+      </c>
       <c r="Y25" s="69"/>
       <c r="Z25" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="AA25" s="71"/>
       <c r="AB25" s="71"/>
@@ -7631,16 +7782,22 @@
       <c r="B26" s="7">
         <v>45496</v>
       </c>
-      <c r="C26" s="87">
-        <v>400</v>
+      <c r="C26" s="46">
+        <v>537</v>
       </c>
       <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="E26" s="15">
+        <v>1300</v>
+      </c>
       <c r="F26" s="62"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="66"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="16">
+        <v>198</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1300</v>
+      </c>
       <c r="K26" s="66"/>
       <c r="L26" s="80"/>
       <c r="M26" s="66"/>
@@ -7650,7 +7807,7 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="67"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="114"/>
+      <c r="T26" s="111"/>
       <c r="U26" s="69"/>
       <c r="V26" s="69"/>
       <c r="W26" s="69"/>
@@ -7658,7 +7815,7 @@
       <c r="Y26" s="69"/>
       <c r="Z26" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>3335</v>
       </c>
       <c r="AA26" s="71"/>
       <c r="AB26" s="71"/>
@@ -7675,15 +7832,20 @@
       <c r="B27" s="7">
         <v>45497</v>
       </c>
-      <c r="C27" s="117">
-        <v>400</v>
-      </c>
-      <c r="D27" s="105"/>
+      <c r="C27" s="12">
+        <v>311</v>
+      </c>
+      <c r="D27" s="15">
+        <f>840+31</f>
+        <v>871</v>
+      </c>
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="16">
+        <v>144</v>
+      </c>
       <c r="J27" s="80"/>
       <c r="K27" s="66"/>
       <c r="L27" s="81"/>
@@ -7702,7 +7864,7 @@
       <c r="Y27" s="69"/>
       <c r="Z27" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>1326</v>
       </c>
       <c r="AA27" s="71"/>
       <c r="AB27" s="71"/>
@@ -7719,36 +7881,40 @@
       <c r="B28" s="7">
         <v>45498</v>
       </c>
-      <c r="C28" s="116">
-        <v>400</v>
-      </c>
-      <c r="D28" s="105"/>
+      <c r="C28" s="46">
+        <v>469</v>
+      </c>
+      <c r="D28" s="103"/>
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="16">
+        <v>183</v>
+      </c>
       <c r="J28" s="74"/>
       <c r="K28" s="66"/>
       <c r="L28" s="66"/>
       <c r="M28" s="66"/>
-      <c r="N28" s="80"/>
+      <c r="N28" s="116">
+        <v>900</v>
+      </c>
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="67"/>
-      <c r="R28" s="114"/>
+      <c r="R28" s="111"/>
       <c r="S28" s="67"/>
       <c r="T28" s="67"/>
       <c r="U28" s="69"/>
       <c r="V28" s="69"/>
       <c r="W28" s="69"/>
-      <c r="X28" s="104">
+      <c r="X28" s="15">
         <v>700</v>
       </c>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>2252</v>
       </c>
       <c r="AA28" s="71"/>
       <c r="AB28" s="71"/>
@@ -7765,15 +7931,17 @@
       <c r="B29" s="7">
         <v>45499</v>
       </c>
-      <c r="C29" s="118">
-        <v>400</v>
+      <c r="C29" s="12">
+        <v>0</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="62"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="106"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="16">
+        <v>161</v>
+      </c>
+      <c r="I29" s="104"/>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
@@ -7784,7 +7952,10 @@
       <c r="Q29" s="67"/>
       <c r="R29" s="67"/>
       <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
+      <c r="T29" s="15">
+        <f>1877+999+2069+1210</f>
+        <v>6155</v>
+      </c>
       <c r="U29" s="69"/>
       <c r="V29" s="69"/>
       <c r="W29" s="69"/>
@@ -7792,7 +7963,7 @@
       <c r="Y29" s="69"/>
       <c r="Z29" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>6316</v>
       </c>
       <c r="AA29" s="71"/>
       <c r="AB29" s="71"/>
@@ -7809,24 +7980,30 @@
       <c r="B30" s="7">
         <v>45500</v>
       </c>
-      <c r="C30" s="109"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="77"/>
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="15">
+        <f>228+153</f>
+        <v>381</v>
+      </c>
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="103"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
       <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
+      <c r="P30" s="90"/>
       <c r="Q30" s="67"/>
       <c r="R30" s="67"/>
       <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
+      <c r="T30" s="15">
+        <f>1824+600+9167+5240</f>
+        <v>16831</v>
+      </c>
       <c r="U30" s="69"/>
       <c r="V30" s="69"/>
       <c r="W30" s="69"/>
@@ -7834,7 +8011,7 @@
       <c r="Y30" s="69"/>
       <c r="Z30" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17212</v>
       </c>
       <c r="AA30" s="71"/>
       <c r="AB30" s="71"/>
@@ -7851,13 +8028,13 @@
       <c r="B31" s="7">
         <v>45501</v>
       </c>
-      <c r="C31" s="109"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="115"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="112"/>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="85"/>
@@ -7893,16 +8070,20 @@
       <c r="B32" s="7">
         <v>45502</v>
       </c>
-      <c r="C32" s="73">
-        <v>400</v>
+      <c r="C32" s="12">
+        <v>296</v>
       </c>
       <c r="D32" s="62"/>
-      <c r="E32" s="99"/>
+      <c r="E32" s="98"/>
       <c r="F32" s="62"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="101"/>
+      <c r="G32" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="16">
+        <v>278</v>
+      </c>
+      <c r="I32" s="91"/>
+      <c r="J32" s="100"/>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
       <c r="M32" s="66"/>
@@ -7912,7 +8093,7 @@
       <c r="Q32" s="67"/>
       <c r="R32" s="67"/>
       <c r="S32" s="67"/>
-      <c r="T32" s="108"/>
+      <c r="T32" s="106"/>
       <c r="U32" s="69"/>
       <c r="V32" s="69"/>
       <c r="W32" s="69"/>
@@ -7920,7 +8101,7 @@
       <c r="Y32" s="69"/>
       <c r="Z32" s="70">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>1574</v>
       </c>
       <c r="AA32" s="71"/>
       <c r="AB32" s="71"/>
@@ -7941,11 +8122,11 @@
         <v>400</v>
       </c>
       <c r="D33" s="62"/>
-      <c r="E33" s="105"/>
+      <c r="E33" s="103"/>
       <c r="F33" s="62"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="74"/>
@@ -7956,7 +8137,7 @@
       <c r="Q33" s="67"/>
       <c r="R33" s="67"/>
       <c r="S33" s="67"/>
-      <c r="T33" s="108"/>
+      <c r="T33" s="106"/>
       <c r="U33" s="69"/>
       <c r="V33" s="69"/>
       <c r="W33" s="69"/>
@@ -7985,11 +8166,11 @@
         <v>400</v>
       </c>
       <c r="D34" s="62"/>
-      <c r="E34" s="105"/>
+      <c r="E34" s="103"/>
       <c r="F34" s="62"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
       <c r="J34" s="66"/>
       <c r="K34" s="66"/>
       <c r="L34" s="74"/>
@@ -8000,7 +8181,7 @@
       <c r="Q34" s="67"/>
       <c r="R34" s="67"/>
       <c r="S34" s="67"/>
-      <c r="T34" s="108"/>
+      <c r="T34" s="106"/>
       <c r="U34" s="69"/>
       <c r="V34" s="69"/>
       <c r="W34" s="69"/>
@@ -8016,21 +8197,21 @@
       <c r="AD34" s="73"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="122"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="17">
         <f>SUM(C4:C34)</f>
-        <v>8311</v>
+        <v>7524</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" ref="D35:Z35" si="2">SUM(D4:D34)</f>
-        <v>2667</v>
+        <v>3538</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="2"/>
-        <v>4225</v>
+        <v>6900</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" si="2"/>
@@ -8038,19 +8219,19 @@
       </c>
       <c r="G35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="2"/>
-        <v>1305</v>
+        <v>2486</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="K35" s="17">
         <f t="shared" si="2"/>
@@ -8066,7 +8247,7 @@
       </c>
       <c r="N35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O35" s="17">
         <f t="shared" si="2"/>
@@ -8090,7 +8271,7 @@
       </c>
       <c r="T35" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22986</v>
       </c>
       <c r="U35" s="17">
         <f t="shared" si="2"/>
@@ -8106,7 +8287,7 @@
       </c>
       <c r="X35" s="17">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="Y35" s="17">
         <f t="shared" si="2"/>
@@ -8114,7 +8295,7 @@
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="2"/>
-        <v>55237</v>
+        <v>87699</v>
       </c>
       <c r="AA35" s="17">
         <f>SUM(AA4:AA34)</f>
@@ -8130,195 +8311,79 @@
       </c>
       <c r="AD35" s="43">
         <f>AC35-Z35</f>
-        <v>54964</v>
+        <v>22502</v>
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="130" t="s">
+      <c r="A36" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="97">
-        <v>7500</v>
-      </c>
-      <c r="D36" s="97">
-        <v>4500</v>
-      </c>
-      <c r="E36" s="97">
-        <v>3300</v>
-      </c>
-      <c r="F36" s="97">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="97">
-        <v>1500</v>
-      </c>
-      <c r="H36" s="97">
-        <v>0</v>
-      </c>
-      <c r="I36" s="97">
-        <v>0</v>
-      </c>
-      <c r="J36" s="97">
-        <v>1500</v>
-      </c>
-      <c r="K36" s="97">
-        <v>0</v>
-      </c>
-      <c r="L36" s="97">
-        <v>700</v>
-      </c>
-      <c r="M36" s="97">
-        <v>0</v>
-      </c>
-      <c r="N36" s="97">
-        <v>850</v>
-      </c>
-      <c r="O36" s="97">
-        <v>0</v>
-      </c>
-      <c r="P36" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97">
-        <v>600</v>
-      </c>
-      <c r="S36" s="97">
-        <v>0</v>
-      </c>
-      <c r="T36" s="97">
-        <v>13000</v>
-      </c>
-      <c r="U36" s="97">
-        <v>17600</v>
-      </c>
-      <c r="V36" s="97">
-        <v>6635</v>
-      </c>
-      <c r="W36" s="97">
-        <v>10000</v>
-      </c>
-      <c r="X36" s="97">
-        <v>700</v>
-      </c>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97">
-        <f>SUM(C36:Y36)</f>
-        <v>69385</v>
-      </c>
-      <c r="AA36" s="97">
-        <v>47000</v>
-      </c>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="96"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
       <c r="AD36" s="36">
         <f>AA36-Z36</f>
-        <v>-22385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="131" t="s">
+      <c r="A37" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="131"/>
-      <c r="C37" s="98">
-        <f>C36-C35</f>
-        <v>-811</v>
-      </c>
-      <c r="D37" s="98">
-        <f t="shared" ref="D37:Y37" si="4">D36-D35</f>
-        <v>1833</v>
-      </c>
-      <c r="E37" s="98">
-        <f t="shared" si="4"/>
-        <v>-925</v>
-      </c>
-      <c r="F37" s="98">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="G37" s="98">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="H37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="98">
-        <f t="shared" si="4"/>
-        <v>-1305</v>
-      </c>
-      <c r="J37" s="98">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="K37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="98">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="M37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="98">
-        <f t="shared" si="4"/>
-        <v>850</v>
-      </c>
-      <c r="O37" s="98">
-        <f t="shared" si="4"/>
-        <v>-2844</v>
-      </c>
-      <c r="P37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="98">
-        <f t="shared" si="4"/>
-        <v>13000</v>
-      </c>
-      <c r="U37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="98"/>
-      <c r="AB37" s="98"/>
-      <c r="AC37" s="98"/>
-      <c r="AD37" s="98"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8337,4 +8402,1621 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD37"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="26.25">
+      <c r="A1" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="36"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="15">
+        <v>17600</v>
+      </c>
+      <c r="V4" s="24">
+        <v>6635</v>
+      </c>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="70">
+        <f>SUM(C4:Y4)</f>
+        <v>24235</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72">
+        <f>SUM(AA4:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="73"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45475</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="70">
+        <f t="shared" ref="Z5:Z34" si="0">SUM(C5:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72">
+        <f t="shared" ref="AC5:AC33" si="1">SUM(AA5:AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="73"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45476</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="73"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45477</v>
+      </c>
+      <c r="C7" s="129"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="73"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45478</v>
+      </c>
+      <c r="C8" s="129"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="73"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45479</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45480</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45481</v>
+      </c>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="73"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45482</v>
+      </c>
+      <c r="C12" s="129"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45483</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="73"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45484</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="73"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45485</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="73"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45486</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="73"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45487</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="73"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45488</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="73"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45489</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45490</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="73"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45491</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="73"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45492</v>
+      </c>
+      <c r="C22" s="129"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="73"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45493</v>
+      </c>
+      <c r="C23" s="109"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7">
+        <v>45494</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="73"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="7">
+        <v>45495</v>
+      </c>
+      <c r="C25" s="129"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="73"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7">
+        <v>45496</v>
+      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="73"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45497</v>
+      </c>
+      <c r="C27" s="129"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="73"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="7">
+        <v>45498</v>
+      </c>
+      <c r="C28" s="130"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="73"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45499</v>
+      </c>
+      <c r="C29" s="129"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45500</v>
+      </c>
+      <c r="C30" s="107"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="73"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7">
+        <v>45501</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="73"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45502</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="73"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45503</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="73"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="7">
+        <v>45504</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="118"/>
+      <c r="C35" s="17">
+        <f>SUM(C4:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" ref="D35:Z35" si="2">SUM(D4:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="17">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+      <c r="V35" s="17">
+        <f t="shared" si="2"/>
+        <v>6635</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="17">
+        <f t="shared" si="2"/>
+        <v>24235</v>
+      </c>
+      <c r="AA35" s="17">
+        <f>SUM(AA4:AA34)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="17">
+        <f t="shared" ref="AB35:AC35" si="3">SUM(AB4:AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="43">
+        <f>AC35-Z35</f>
+        <v>-24235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="126"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="96"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="36">
+        <f>AA36-Z36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="127"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Другое/Доходы - Расходы (vol.2).xlsx
+++ b/Другое/Доходы - Расходы (vol.2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Апрель 2024" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Июль 2024" sheetId="4" r:id="rId4"/>
     <sheet name="Август 2024" sheetId="5" r:id="rId5"/>
     <sheet name="Сентябрь 2024" sheetId="6" r:id="rId6"/>
+    <sheet name="Октябрь 2024" sheetId="7" r:id="rId7"/>
+    <sheet name="Ноябрь 2024" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -396,8 +398,112 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Собянин Евгений Андреевич</author>
+  </authors>
+  <commentList>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День рождения на работе (пицца, торт, вино)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День Рождения 
+(алкашка, эник, ладжорджия)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Собянин Евгений Андреевич</author>
+  </authors>
+  <commentList>
+    <comment ref="O7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Набор щеток
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Капсульный кофе в отдел
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День рождения на работе (пицца, торт, вино)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>День Рождения 
+(алкашка, эник, ладжорджия)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="52">
   <si>
     <t>Доходы - Расходы Апрель 2024</t>
   </si>
@@ -545,13 +651,22 @@
   <si>
     <t>Доходы - Расходы Сентябрь 2024</t>
   </si>
+  <si>
+    <t>Доходы - Расходы Ноябрь 2024</t>
+  </si>
+  <si>
+    <t>Вкус Вилл - доставка</t>
+  </si>
+  <si>
+    <t>Хоккей</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -708,7 +823,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +980,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -935,7 +1056,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,7 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1096,36 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1156,6 +1247,50 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1464,37 +1599,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.95" customHeight="1">
-      <c r="A1" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
+      <c r="A1" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -1503,45 +1638,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="145" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
       <c r="Z2" s="75"/>
-      <c r="AA2" s="146" t="s">
+      <c r="AA2" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
       <c r="AD2" s="76" t="s">
         <v>9</v>
       </c>
@@ -3025,10 +3160,10 @@
       <c r="AD33" s="76"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="147"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="37">
         <f>SUM(C4:C33)</f>
         <v>6080</v>
@@ -3182,37 +3317,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -3221,45 +3356,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="145" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
       <c r="Z2" s="75"/>
-      <c r="AA2" s="146" t="s">
+      <c r="AA2" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
       <c r="AD2" s="76" t="s">
         <v>9</v>
       </c>
@@ -4782,10 +4917,10 @@
       <c r="AD34" s="76"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="37">
         <f>SUM(C4:C34)</f>
         <v>5124</v>
@@ -4938,37 +5073,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -4977,45 +5112,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="145" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
       <c r="Z2" s="75"/>
-      <c r="AA2" s="146" t="s">
+      <c r="AA2" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
       <c r="AD2" s="76" t="s">
         <v>9</v>
       </c>
@@ -6532,10 +6667,10 @@
       <c r="AD33" s="82"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="147"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="37">
         <f>SUM(C4:C33)</f>
         <v>7618</v>
@@ -6671,7 +6806,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6689,37 +6824,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -6728,45 +6863,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="145" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
       <c r="Z2" s="75"/>
-      <c r="AA2" s="146" t="s">
+      <c r="AA2" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
       <c r="AD2" s="76" t="s">
         <v>9</v>
       </c>
@@ -8307,10 +8442,10 @@
       <c r="AD34" s="82"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="37">
         <f>SUM(C4:C34)</f>
         <v>7771</v>
@@ -8425,10 +8560,10 @@
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="148"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -8462,10 +8597,10 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="149"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -8537,37 +8672,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -8576,45 +8711,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="145" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
       <c r="Z2" s="75"/>
-      <c r="AA2" s="146" t="s">
+      <c r="AA2" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
       <c r="AD2" s="76" t="s">
         <v>9</v>
       </c>
@@ -8943,7 +9078,7 @@
         <v>45510</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="177">
+      <c r="D9" s="167">
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
@@ -8951,16 +9086,16 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="177">
+      <c r="J9" s="167">
         <v>1200</v>
       </c>
       <c r="K9" s="42"/>
-      <c r="L9" s="176">
+      <c r="L9" s="166">
         <v>350</v>
       </c>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="177">
+      <c r="O9" s="167">
         <v>672</v>
       </c>
       <c r="P9" s="45"/>
@@ -8994,7 +9129,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="178">
+      <c r="E10" s="168">
         <f>899+862</f>
         <v>1761</v>
       </c>
@@ -9012,7 +9147,7 @@
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
-      <c r="T10" s="178">
+      <c r="T10" s="168">
         <v>6540</v>
       </c>
       <c r="U10" s="62"/>
@@ -9047,7 +9182,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="52"/>
       <c r="J11" s="51"/>
-      <c r="K11" s="177">
+      <c r="K11" s="167">
         <f>12114+9565</f>
         <v>21679</v>
       </c>
@@ -9091,7 +9226,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="177">
+      <c r="J12" s="167">
         <v>2950</v>
       </c>
       <c r="K12" s="42"/>
@@ -9104,9 +9239,9 @@
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
-      <c r="U12" s="179"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="179"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
       <c r="Z12" s="79">
@@ -9135,7 +9270,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="14"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="177">
+      <c r="J13" s="167">
         <v>1400</v>
       </c>
       <c r="K13" s="42"/>
@@ -9144,18 +9279,18 @@
       <c r="N13" s="42"/>
       <c r="O13" s="47"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="178">
+      <c r="Q13" s="168">
         <f>4740+1600+5476+637+800-2000-1950-2450</f>
         <v>6853</v>
       </c>
       <c r="R13" s="45"/>
-      <c r="S13" s="177">
+      <c r="S13" s="167">
         <v>439</v>
       </c>
       <c r="T13" s="45"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
       <c r="Z13" s="79">
@@ -9183,7 +9318,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="178">
+      <c r="I14" s="168">
         <v>388</v>
       </c>
       <c r="J14" s="46"/>
@@ -9193,7 +9328,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
       <c r="P14" s="45"/>
-      <c r="Q14" s="178">
+      <c r="Q14" s="168">
         <f>1100+400+400+2060</f>
         <v>3960</v>
       </c>
@@ -9236,19 +9371,19 @@
       <c r="L15" s="42"/>
       <c r="M15" s="43"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="177">
+      <c r="O15" s="167">
         <v>802</v>
       </c>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
       <c r="S15" s="66"/>
-      <c r="T15" s="176">
+      <c r="T15" s="166">
         <v>10000</v>
       </c>
       <c r="U15" s="62"/>
       <c r="V15" s="62"/>
-      <c r="W15" s="177">
+      <c r="W15" s="167">
         <f>10104+20183</f>
         <v>30287</v>
       </c>
@@ -9525,11 +9660,11 @@
       <c r="B22" s="7">
         <v>45523</v>
       </c>
-      <c r="C22" s="176">
+      <c r="C22" s="166">
         <v>684</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="178">
+      <c r="E22" s="168">
         <v>800</v>
       </c>
       <c r="F22" s="9"/>
@@ -9571,11 +9706,11 @@
       <c r="B23" s="7">
         <v>45524</v>
       </c>
-      <c r="C23" s="176">
+      <c r="C23" s="166">
         <f>514+596</f>
         <v>1110</v>
       </c>
-      <c r="D23" s="177">
+      <c r="D23" s="167">
         <v>1182</v>
       </c>
       <c r="E23" s="9"/>
@@ -9603,7 +9738,7 @@
         <f t="shared" si="0"/>
         <v>2292</v>
       </c>
-      <c r="AA23" s="175">
+      <c r="AA23" s="165">
         <v>5003</v>
       </c>
       <c r="AB23" s="80"/>
@@ -10130,10 +10265,10 @@
       <c r="AD34" s="82"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="37">
         <f>SUM(C4:C34)</f>
         <v>7020</v>
@@ -10248,10 +10383,10 @@
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="148"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -10285,10 +10420,10 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="149"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -10341,8 +10476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10351,40 +10486,41 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -10393,45 +10529,45 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="145" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
       <c r="Z2" s="75"/>
-      <c r="AA2" s="146" t="s">
+      <c r="AA2" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
       <c r="AD2" s="76" t="s">
         <v>9</v>
       </c>
@@ -10529,16 +10665,16 @@
       <c r="B4" s="7">
         <v>45536</v>
       </c>
-      <c r="C4" s="155"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="18">
         <v>2806</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="158"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="42"/>
       <c r="L4" s="54"/>
       <c r="M4" s="42"/>
@@ -10549,9 +10685,9 @@
       <c r="R4" s="60"/>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="154"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="144"/>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
       <c r="Z4" s="79">
@@ -10573,11 +10709,11 @@
       <c r="C5" s="8">
         <v>510</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="153"/>
+      <c r="H5" s="143"/>
       <c r="I5" s="8">
         <v>309</v>
       </c>
@@ -10616,9 +10752,9 @@
       <c r="C6" s="90">
         <v>684</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="8">
@@ -10659,9 +10795,9 @@
       <c r="C7" s="90">
         <v>539</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="20"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
@@ -10728,7 +10864,7 @@
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
-      <c r="AA8" s="83">
+      <c r="AA8" s="191">
         <v>33599</v>
       </c>
       <c r="AB8" s="80"/>
@@ -10742,7 +10878,7 @@
       <c r="B9" s="7">
         <v>45541</v>
       </c>
-      <c r="C9" s="162"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="9"/>
       <c r="E9" s="21"/>
       <c r="F9" s="9"/>
@@ -10751,7 +10887,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="163"/>
+      <c r="L9" s="153"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
@@ -10781,8 +10917,8 @@
       <c r="B10" s="7">
         <v>45542</v>
       </c>
-      <c r="C10" s="162"/>
-      <c r="D10" s="164"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="21"/>
       <c r="F10" s="9"/>
       <c r="G10" s="14"/>
@@ -10801,7 +10937,7 @@
       <c r="T10" s="45"/>
       <c r="U10" s="62"/>
       <c r="V10" s="62"/>
-      <c r="W10" s="165"/>
+      <c r="W10" s="155"/>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
       <c r="Z10" s="79">
@@ -10824,10 +10960,10 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="157"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="14"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="163"/>
+      <c r="J11" s="153"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
@@ -10837,7 +10973,7 @@
       <c r="Q11" s="45"/>
       <c r="R11" s="66"/>
       <c r="S11" s="45"/>
-      <c r="T11" s="166"/>
+      <c r="T11" s="156"/>
       <c r="U11" s="62"/>
       <c r="V11" s="62"/>
       <c r="W11" s="68"/>
@@ -10859,8 +10995,8 @@
       <c r="B12" s="7">
         <v>45544</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="164"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="21"/>
       <c r="F12" s="9"/>
       <c r="G12" s="14"/>
@@ -10876,7 +11012,7 @@
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
       <c r="S12" s="66"/>
-      <c r="T12" s="166"/>
+      <c r="T12" s="156"/>
       <c r="U12" s="62"/>
       <c r="V12" s="62"/>
       <c r="W12" s="62"/>
@@ -10898,7 +11034,7 @@
       <c r="B13" s="7">
         <v>45545</v>
       </c>
-      <c r="C13" s="167"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="21"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -10937,7 +11073,7 @@
       <c r="B14" s="7">
         <v>45546</v>
       </c>
-      <c r="C14" s="167"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="9"/>
       <c r="E14" s="21"/>
       <c r="F14" s="9"/>
@@ -10976,7 +11112,7 @@
       <c r="B15" s="7">
         <v>45547</v>
       </c>
-      <c r="C15" s="162"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="21"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -11015,7 +11151,7 @@
       <c r="B16" s="7">
         <v>45548</v>
       </c>
-      <c r="C16" s="162"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="9"/>
       <c r="E16" s="29"/>
       <c r="F16" s="9"/>
@@ -11054,7 +11190,7 @@
       <c r="B17" s="7">
         <v>45549</v>
       </c>
-      <c r="C17" s="162"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="9"/>
@@ -11093,14 +11229,14 @@
       <c r="B18" s="7">
         <v>45550</v>
       </c>
-      <c r="C18" s="167"/>
+      <c r="C18" s="157"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="162"/>
+      <c r="E18" s="152"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="157"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="163"/>
+      <c r="J18" s="153"/>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
@@ -11110,7 +11246,7 @@
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
-      <c r="T18" s="166"/>
+      <c r="T18" s="156"/>
       <c r="U18" s="62"/>
       <c r="V18" s="62"/>
       <c r="W18" s="62"/>
@@ -11132,10 +11268,10 @@
       <c r="B19" s="7">
         <v>45551</v>
       </c>
-      <c r="C19" s="162"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="21"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="162"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -11149,7 +11285,7 @@
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
-      <c r="T19" s="166"/>
+      <c r="T19" s="156"/>
       <c r="U19" s="62"/>
       <c r="V19" s="62"/>
       <c r="W19" s="62"/>
@@ -11171,7 +11307,7 @@
       <c r="B20" s="7">
         <v>45552</v>
       </c>
-      <c r="C20" s="162"/>
+      <c r="C20" s="152"/>
       <c r="D20" s="29"/>
       <c r="E20" s="21"/>
       <c r="F20" s="9"/>
@@ -11210,7 +11346,7 @@
       <c r="B21" s="7">
         <v>45553</v>
       </c>
-      <c r="C21" s="167"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="29"/>
       <c r="E21" s="21"/>
       <c r="F21" s="9"/>
@@ -11249,12 +11385,12 @@
       <c r="B22" s="7">
         <v>45554</v>
       </c>
-      <c r="C22" s="162"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="9"/>
       <c r="E22" s="21"/>
       <c r="F22" s="9"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="168"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="14"/>
       <c r="J22" s="42"/>
       <c r="K22" s="49"/>
@@ -11288,7 +11424,7 @@
       <c r="B23" s="7">
         <v>45555</v>
       </c>
-      <c r="C23" s="164"/>
+      <c r="C23" s="154"/>
       <c r="D23" s="29"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -11303,7 +11439,7 @@
       <c r="O23" s="42"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
-      <c r="R23" s="169"/>
+      <c r="R23" s="159"/>
       <c r="S23" s="45"/>
       <c r="T23" s="45"/>
       <c r="U23" s="62"/>
@@ -11315,7 +11451,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="170"/>
+      <c r="AA23" s="190">
+        <v>26211.34</v>
+      </c>
       <c r="AB23" s="80"/>
       <c r="AC23" s="81"/>
       <c r="AD23" s="82"/>
@@ -11327,8 +11465,8 @@
       <c r="B24" s="7">
         <v>45556</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="164"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="29"/>
       <c r="F24" s="9"/>
       <c r="G24" s="14"/>
@@ -11366,14 +11504,14 @@
       <c r="B25" s="7">
         <v>45557</v>
       </c>
-      <c r="C25" s="162"/>
+      <c r="C25" s="152"/>
       <c r="D25" s="9"/>
       <c r="E25" s="21"/>
       <c r="F25" s="9"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="171"/>
+      <c r="H25" s="161"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="163"/>
+      <c r="J25" s="153"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
@@ -11387,7 +11525,7 @@
       <c r="U25" s="62"/>
       <c r="V25" s="62"/>
       <c r="W25" s="62"/>
-      <c r="X25" s="172"/>
+      <c r="X25" s="162"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="79">
         <f t="shared" si="0"/>
@@ -11405,7 +11543,7 @@
       <c r="B26" s="7">
         <v>45558</v>
       </c>
-      <c r="C26" s="167"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="9"/>
       <c r="E26" s="29"/>
       <c r="F26" s="9"/>
@@ -11444,7 +11582,7 @@
       <c r="B27" s="7">
         <v>45559</v>
       </c>
-      <c r="C27" s="162"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="29"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -11483,7 +11621,7 @@
       <c r="B28" s="7">
         <v>45560</v>
       </c>
-      <c r="C28" s="167"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="29"/>
       <c r="E28" s="21"/>
       <c r="F28" s="9"/>
@@ -11494,7 +11632,7 @@
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
-      <c r="N28" s="173"/>
+      <c r="N28" s="163"/>
       <c r="O28" s="42"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
@@ -11504,7 +11642,7 @@
       <c r="U28" s="62"/>
       <c r="V28" s="62"/>
       <c r="W28" s="62"/>
-      <c r="X28" s="165"/>
+      <c r="X28" s="155"/>
       <c r="Y28" s="62"/>
       <c r="Z28" s="79">
         <f t="shared" si="0"/>
@@ -11522,7 +11660,7 @@
       <c r="B29" s="7">
         <v>45561</v>
       </c>
-      <c r="C29" s="162"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -11561,7 +11699,7 @@
       <c r="B30" s="7">
         <v>45562</v>
       </c>
-      <c r="C30" s="167"/>
+      <c r="C30" s="157"/>
       <c r="D30" s="21"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -11574,7 +11712,7 @@
       <c r="M30" s="42"/>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
-      <c r="P30" s="169"/>
+      <c r="P30" s="159"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
@@ -11600,7 +11738,7 @@
       <c r="B31" s="7">
         <v>45563</v>
       </c>
-      <c r="C31" s="167"/>
+      <c r="C31" s="157"/>
       <c r="D31" s="13"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -11641,12 +11779,12 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="162"/>
+      <c r="E32" s="152"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="174"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="163"/>
+      <c r="J32" s="153"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -11656,7 +11794,7 @@
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
-      <c r="T32" s="166"/>
+      <c r="T32" s="156"/>
       <c r="U32" s="62"/>
       <c r="V32" s="62"/>
       <c r="W32" s="62"/>
@@ -11695,7 +11833,7 @@
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
-      <c r="T33" s="166"/>
+      <c r="T33" s="156"/>
       <c r="U33" s="62"/>
       <c r="V33" s="62"/>
       <c r="W33" s="62"/>
@@ -11711,116 +11849,116 @@
       <c r="AD33" s="82"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="147"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="37">
-        <f>SUM(C4:C33)</f>
+        <f t="shared" ref="C34:AC34" si="1">SUM(C4:C33)</f>
         <v>2259</v>
       </c>
       <c r="D34" s="37">
-        <f>SUM(D4:D33)</f>
+        <f t="shared" si="1"/>
         <v>2806</v>
       </c>
       <c r="E34" s="37">
-        <f>SUM(E4:E33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34" s="37">
-        <f>SUM(F4:F33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="37">
-        <f>SUM(G4:G33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="37">
-        <f>SUM(H4:H33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="37">
-        <f>SUM(I4:I33)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="J34" s="37">
-        <f>SUM(J4:J33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="37">
-        <f>SUM(K4:K33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L34" s="37">
-        <f>SUM(L4:L33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M34" s="37">
-        <f>SUM(M4:M33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N34" s="37">
-        <f>SUM(N4:N33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="37">
-        <f>SUM(O4:O33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P34" s="37">
-        <f>SUM(P4:P33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="37">
-        <f>SUM(Q4:Q33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R34" s="37">
-        <f>SUM(R4:R33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S34" s="37">
-        <f>SUM(S4:S33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T34" s="37">
-        <f>SUM(T4:T33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U34" s="37">
-        <f>SUM(U4:U33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V34" s="37">
-        <f>SUM(V4:V33)</f>
+        <f t="shared" si="1"/>
         <v>6570</v>
       </c>
       <c r="W34" s="37">
-        <f>SUM(W4:W33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X34" s="37">
-        <f>SUM(X4:X33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y34" s="37">
-        <f>SUM(Y4:Y33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z34" s="37">
-        <f>SUM(Z4:Z33)</f>
+        <f t="shared" si="1"/>
         <v>12242</v>
       </c>
       <c r="AA34" s="37">
-        <f>SUM(AA4:AA33)</f>
-        <v>33599</v>
+        <f t="shared" si="1"/>
+        <v>59810.34</v>
       </c>
       <c r="AB34" s="37">
-        <f>SUM(AB4:AB33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC34" s="37">
-        <f>SUM(AC4:AC33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD34" s="85">
@@ -11829,10 +11967,10 @@
       </c>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="148" t="s">
+      <c r="A35" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -11866,10 +12004,10 @@
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="149"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -11915,4 +12053,3203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD37"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="26.25">
+      <c r="A1" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="76"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="186">
+        <v>1</v>
+      </c>
+      <c r="C4" s="145"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="79">
+        <f>SUM(C4:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="82"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="186">
+        <v>2</v>
+      </c>
+      <c r="C5" s="184"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="79">
+        <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="82"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="186">
+        <v>3</v>
+      </c>
+      <c r="C6" s="185"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="82"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="186">
+        <v>4</v>
+      </c>
+      <c r="C7" s="185"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="189">
+        <v>71184.850000000006</v>
+      </c>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="82"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="186">
+        <v>5</v>
+      </c>
+      <c r="C8" s="185"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="82"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="186">
+        <v>6</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="82"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="186">
+        <v>7</v>
+      </c>
+      <c r="C10" s="152"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="82"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="186">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="82"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="186">
+        <v>9</v>
+      </c>
+      <c r="C12" s="152"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="82"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="186">
+        <v>10</v>
+      </c>
+      <c r="C13" s="157"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="82"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="186">
+        <v>11</v>
+      </c>
+      <c r="C14" s="157"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="82"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="186">
+        <v>12</v>
+      </c>
+      <c r="C15" s="152"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="82"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="186">
+        <v>13</v>
+      </c>
+      <c r="C16" s="152"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="82"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="186">
+        <v>14</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="82"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="186">
+        <v>15</v>
+      </c>
+      <c r="C18" s="157"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="82"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="186">
+        <v>16</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="82"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="186">
+        <v>17</v>
+      </c>
+      <c r="C20" s="152"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="82"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="186">
+        <v>18</v>
+      </c>
+      <c r="C21" s="157"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="189">
+        <f>90260+26325.32</f>
+        <v>116585.32</v>
+      </c>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="82"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="186">
+        <v>19</v>
+      </c>
+      <c r="C22" s="152"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="82"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="186">
+        <v>20</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="82"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="186">
+        <v>21</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="82"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="186">
+        <v>22</v>
+      </c>
+      <c r="C25" s="152"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="82"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="186">
+        <v>23</v>
+      </c>
+      <c r="C26" s="157"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="82"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="186">
+        <v>24</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="82"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="186">
+        <v>25</v>
+      </c>
+      <c r="C28" s="157"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="82"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="186">
+        <v>26</v>
+      </c>
+      <c r="C29" s="152"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="82"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="186">
+        <v>27</v>
+      </c>
+      <c r="C30" s="157"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="82"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="186">
+        <v>28</v>
+      </c>
+      <c r="C31" s="157"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="82"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="186">
+        <v>29</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="82"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="186">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="82"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="186">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="82"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="170"/>
+      <c r="C35" s="37">
+        <f t="shared" ref="C35:AC35" si="1">SUM(C4:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="37">
+        <f t="shared" si="1"/>
+        <v>187770.17</v>
+      </c>
+      <c r="AB35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="85">
+        <f>AC35-Z35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="178"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="76">
+        <f>AA36-Z36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="179"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="26.25">
+      <c r="A1" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="187" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="76"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="186">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>675</v>
+      </c>
+      <c r="D4" s="183"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="90">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="147"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="8">
+        <v>313</v>
+      </c>
+      <c r="J4" s="148"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="79">
+        <f>SUM(C4:Y4)</f>
+        <v>2488</v>
+      </c>
+      <c r="AA4" s="80">
+        <v>42913</v>
+      </c>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="82"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="186">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>695</v>
+      </c>
+      <c r="D5" s="141"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="181"/>
+      <c r="I5" s="8">
+        <v>304</v>
+      </c>
+      <c r="J5" s="18">
+        <v>500</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="79">
+        <f t="shared" ref="Z5:Z33" si="0">SUM(C5:Y5)</f>
+        <v>2499</v>
+      </c>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="82"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="186">
+        <v>3</v>
+      </c>
+      <c r="C6" s="185"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="18">
+        <v>1160</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="79">
+        <f t="shared" si="0"/>
+        <v>1160</v>
+      </c>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="82"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="186">
+        <v>4</v>
+      </c>
+      <c r="C7" s="185"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="18">
+        <f>484+150+488</f>
+        <v>1122</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1700</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="18">
+        <v>2902</v>
+      </c>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="79">
+        <f t="shared" si="0"/>
+        <v>5724</v>
+      </c>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="82"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="186">
+        <v>5</v>
+      </c>
+      <c r="C8" s="61">
+        <v>534</v>
+      </c>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="8">
+        <v>440</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="18">
+        <v>1861</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="79">
+        <f t="shared" si="0"/>
+        <v>2835</v>
+      </c>
+      <c r="AA8" s="83">
+        <f>56681+31454</f>
+        <v>88135</v>
+      </c>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="82"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="186">
+        <v>6</v>
+      </c>
+      <c r="C9" s="146"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="82"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="186">
+        <v>7</v>
+      </c>
+      <c r="C10" s="152"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="82"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="186">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="82"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="186">
+        <v>9</v>
+      </c>
+      <c r="C12" s="152"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="82"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="186">
+        <v>10</v>
+      </c>
+      <c r="C13" s="157"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="82"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="186">
+        <v>11</v>
+      </c>
+      <c r="C14" s="157"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="82"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="186">
+        <v>12</v>
+      </c>
+      <c r="C15" s="152"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="82"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="186">
+        <v>13</v>
+      </c>
+      <c r="C16" s="152"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="82"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="186">
+        <v>14</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="82"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="186">
+        <v>15</v>
+      </c>
+      <c r="C18" s="157"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="82"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="186">
+        <v>16</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="82"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="186">
+        <v>17</v>
+      </c>
+      <c r="C20" s="152"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="82"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="186">
+        <v>18</v>
+      </c>
+      <c r="C21" s="157"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="82"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="186">
+        <v>19</v>
+      </c>
+      <c r="C22" s="152"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="82"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="186">
+        <v>20</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="82"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="186">
+        <v>21</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="82"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="186">
+        <v>22</v>
+      </c>
+      <c r="C25" s="152"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="82"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="186">
+        <v>23</v>
+      </c>
+      <c r="C26" s="157"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="82"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="186">
+        <v>24</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="82"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="186">
+        <v>25</v>
+      </c>
+      <c r="C28" s="157"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="82"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="186">
+        <v>26</v>
+      </c>
+      <c r="C29" s="152"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="82"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="186">
+        <v>27</v>
+      </c>
+      <c r="C30" s="157"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="82"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="186">
+        <v>28</v>
+      </c>
+      <c r="C31" s="157"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="82"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="186">
+        <v>29</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="82"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="186">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="82"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="170"/>
+      <c r="C34" s="37">
+        <f t="shared" ref="C34:AC34" si="1">SUM(C4:C33)</f>
+        <v>1904</v>
+      </c>
+      <c r="D34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="37">
+        <f t="shared" si="1"/>
+        <v>1122</v>
+      </c>
+      <c r="F34" s="37">
+        <f>SUM(F4:F33)</f>
+        <v>4360</v>
+      </c>
+      <c r="G34" s="37">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" si="1"/>
+        <v>1057</v>
+      </c>
+      <c r="J34" s="37">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="37">
+        <f t="shared" si="1"/>
+        <v>4763</v>
+      </c>
+      <c r="P34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="37">
+        <f t="shared" si="1"/>
+        <v>14706</v>
+      </c>
+      <c r="AA34" s="37">
+        <f t="shared" si="1"/>
+        <v>131048</v>
+      </c>
+      <c r="AB34" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="37">
+        <f>SUM(AA34:AB34)</f>
+        <v>131048</v>
+      </c>
+      <c r="AD34" s="85">
+        <f>AC34-Z34</f>
+        <v>116342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="178"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="76">
+        <f>AA35-Z35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="179"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>